--- a/Visualization/src/temp_processed_Day6_transients.xlsx
+++ b/Visualization/src/temp_processed_Day6_transients.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,19 +542,19 @@
         <v>168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3750577503639048</v>
+        <v>0.3750577503639408</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2882126104922784</v>
+        <v>0.2882126104923063</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J2" t="n">
         <v>61</v>
       </c>
       <c r="K2" t="n">
-        <v>33.08592513335599</v>
+        <v>33.08592513335597</v>
       </c>
       <c r="L2" t="n">
         <v>37</v>
@@ -563,10 +563,10 @@
         <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>49.58008015762003</v>
+        <v>49.58008015762485</v>
       </c>
       <c r="O2" t="n">
-        <v>2.906567542603124</v>
+        <v>2.90656754260312</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -599,13 +599,13 @@
         <v>764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3519719540484399</v>
+        <v>0.351971954048474</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3677298828951505</v>
+        <v>-0.3677298828951865</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J3" t="n">
         <v>265</v>
@@ -620,10 +620,10 @@
         <v>216</v>
       </c>
       <c r="N3" t="n">
-        <v>29.65353533520874</v>
+        <v>29.65353533521162</v>
       </c>
       <c r="O3" t="n">
-        <v>2.727660624400335</v>
+        <v>2.727660624400333</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         <v>1247</v>
       </c>
       <c r="G4" t="n">
-        <v>3.014431067481697</v>
+        <v>3.014431067481989</v>
       </c>
       <c r="H4" t="n">
-        <v>2.139901656350894</v>
+        <v>2.139901656351102</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J4" t="n">
         <v>483</v>
@@ -677,10 +677,10 @@
         <v>447</v>
       </c>
       <c r="N4" t="n">
-        <v>325.2753332520408</v>
+        <v>325.2753332520725</v>
       </c>
       <c r="O4" t="n">
-        <v>23.36079574853654</v>
+        <v>23.36079574853653</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -713,13 +713,13 @@
         <v>1247</v>
       </c>
       <c r="G5" t="n">
-        <v>1.833119356854025</v>
+        <v>1.833119356854202</v>
       </c>
       <c r="H5" t="n">
-        <v>1.098863822262261</v>
+        <v>1.098863822262368</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J5" t="n">
         <v>156</v>
@@ -734,10 +734,10 @@
         <v>126</v>
       </c>
       <c r="N5" t="n">
-        <v>59.59746003594189</v>
+        <v>59.59746003594768</v>
       </c>
       <c r="O5" t="n">
-        <v>14.20603952105983</v>
+        <v>14.20603952105981</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -770,13 +770,13 @@
         <v>1477</v>
       </c>
       <c r="G6" t="n">
-        <v>0.584144043792993</v>
+        <v>0.5841440437930495</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2043348704231624</v>
+        <v>-0.2043348704231826</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J6" t="n">
         <v>230</v>
@@ -791,10 +791,10 @@
         <v>116</v>
       </c>
       <c r="N6" t="n">
-        <v>27.0707853937529</v>
+        <v>27.07078539375553</v>
       </c>
       <c r="O6" t="n">
-        <v>4.526913831926644</v>
+        <v>4.526913831926641</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -827,13 +827,13 @@
         <v>1839</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6715323900611752</v>
+        <v>0.6715323900612398</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06261568315078486</v>
+        <v>0.06261568315079084</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J7" t="n">
         <v>592</v>
@@ -848,10 +848,10 @@
         <v>228</v>
       </c>
       <c r="N7" t="n">
-        <v>166.6928903095449</v>
+        <v>166.6928903095611</v>
       </c>
       <c r="O7" t="n">
-        <v>5.204143220249946</v>
+        <v>5.20414322024994</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -884,19 +884,19 @@
         <v>1839</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3906278926303933</v>
+        <v>0.3906278926304312</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1582189324133237</v>
+        <v>-0.1582189324133394</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J8" t="n">
         <v>127</v>
       </c>
       <c r="K8" t="n">
-        <v>32.9924390069807</v>
+        <v>32.99243900698093</v>
       </c>
       <c r="L8" t="n">
         <v>70</v>
@@ -905,10 +905,10 @@
         <v>59</v>
       </c>
       <c r="N8" t="n">
-        <v>41.13657563497888</v>
+        <v>41.1365756349829</v>
       </c>
       <c r="O8" t="n">
-        <v>3.027230747407127</v>
+        <v>3.027230747407125</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         <v>2747</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5141531901085195</v>
+        <v>0.5141531901085694</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1980458751515125</v>
+        <v>-0.1980458751515319</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J9" t="n">
         <v>435</v>
@@ -962,10 +962,10 @@
         <v>296</v>
       </c>
       <c r="N9" t="n">
-        <v>54.36434842337509</v>
+        <v>54.36434842338038</v>
       </c>
       <c r="O9" t="n">
-        <v>3.984508979871217</v>
+        <v>3.984508979871216</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -998,13 +998,13 @@
         <v>2747</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3649092329757325</v>
+        <v>0.3649092329757679</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3147869703667162</v>
+        <v>-0.314786970366747</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J10" t="n">
         <v>236</v>
@@ -1019,10 +1019,10 @@
         <v>202</v>
       </c>
       <c r="N10" t="n">
-        <v>16.96045955675839</v>
+        <v>16.96045955676004</v>
       </c>
       <c r="O10" t="n">
-        <v>2.82792005107046</v>
+        <v>2.827920051070459</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1055,19 +1055,19 @@
         <v>2998</v>
       </c>
       <c r="G11" t="n">
-        <v>1.162208833874232</v>
+        <v>1.162208833874316</v>
       </c>
       <c r="H11" t="n">
-        <v>0.870007645952279</v>
+        <v>0.8700076459523634</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J11" t="n">
         <v>251</v>
       </c>
       <c r="K11" t="n">
-        <v>90.40987337383604</v>
+        <v>90.40987337383422</v>
       </c>
       <c r="L11" t="n">
         <v>98</v>
@@ -1076,10 +1076,10 @@
         <v>155</v>
       </c>
       <c r="N11" t="n">
-        <v>210.16354486286</v>
+        <v>210.1635448628807</v>
       </c>
       <c r="O11" t="n">
-        <v>9.006715555105529</v>
+        <v>9.006715555105304</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1112,13 +1112,13 @@
         <v>2998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3286027933146862</v>
+        <v>0.3286027933147178</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7448328773435207</v>
+        <v>0.744832877343593</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6972086130522348</v>
+        <v>-0.6972086130523028</v>
       </c>
       <c r="J12" t="n">
         <v>135</v>
@@ -1133,10 +1133,10 @@
         <v>110</v>
       </c>
       <c r="N12" t="n">
-        <v>127.6130918768681</v>
+        <v>127.6130918768808</v>
       </c>
       <c r="O12" t="n">
-        <v>2.546557730190844</v>
+        <v>2.54655773019084</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
         <v>413</v>
       </c>
       <c r="G13" t="n">
-        <v>2.215966852607635</v>
+        <v>2.215966852607851</v>
       </c>
       <c r="H13" t="n">
-        <v>1.307644501805375</v>
+        <v>1.307644501805502</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.21092662250061</v>
+        <v>-1.210926622500728</v>
       </c>
       <c r="J13" t="n">
         <v>173</v>
@@ -1190,10 +1190,10 @@
         <v>114</v>
       </c>
       <c r="N13" t="n">
-        <v>218.4250890438454</v>
+        <v>218.4250890438666</v>
       </c>
       <c r="O13" t="n">
-        <v>4.141580982214909</v>
+        <v>4.141580982214906</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1226,19 +1226,19 @@
         <v>571</v>
       </c>
       <c r="G14" t="n">
-        <v>1.548539093905793</v>
+        <v>1.548539093905944</v>
       </c>
       <c r="H14" t="n">
-        <v>1.274917881513059</v>
+        <v>1.274917881513183</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.21092662250061</v>
+        <v>-1.210926622500728</v>
       </c>
       <c r="J14" t="n">
         <v>158</v>
       </c>
       <c r="K14" t="n">
-        <v>105.8140631022391</v>
+        <v>105.814063102239</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
@@ -1247,10 +1247,10 @@
         <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>279.1362653079827</v>
+        <v>279.1362653080098</v>
       </c>
       <c r="O14" t="n">
-        <v>2.894176893480868</v>
+        <v>2.894176893480865</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         <v>876</v>
       </c>
       <c r="G15" t="n">
-        <v>1.80974683559568</v>
+        <v>1.809746835595855</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3874133090091249</v>
+        <v>0.3874133090091618</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.21092662250061</v>
+        <v>-1.210926622500728</v>
       </c>
       <c r="J15" t="n">
         <v>78</v>
@@ -1304,10 +1304,10 @@
         <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>47.09543866856912</v>
+        <v>47.09543866857372</v>
       </c>
       <c r="O15" t="n">
-        <v>3.382366964608113</v>
+        <v>3.382366964608108</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1340,19 +1340,19 @@
         <v>1257</v>
       </c>
       <c r="G16" t="n">
-        <v>2.090701034444816</v>
+        <v>2.090701034445019</v>
       </c>
       <c r="H16" t="n">
-        <v>0.628539310394528</v>
+        <v>0.6285393103945889</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.21092662250061</v>
+        <v>-1.210926622500728</v>
       </c>
       <c r="J16" t="n">
         <v>459</v>
       </c>
       <c r="K16" t="n">
-        <v>164.6874577673124</v>
+        <v>164.6874577673121</v>
       </c>
       <c r="L16" t="n">
         <v>246</v>
@@ -1361,10 +1361,10 @@
         <v>215</v>
       </c>
       <c r="N16" t="n">
-        <v>250.5124741904697</v>
+        <v>250.5124741904941</v>
       </c>
       <c r="O16" t="n">
-        <v>3.907462620013675</v>
+        <v>3.90746262001367</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1397,19 +1397,19 @@
         <v>1678</v>
       </c>
       <c r="G17" t="n">
-        <v>1.679773624778693</v>
+        <v>1.679773624778855</v>
       </c>
       <c r="H17" t="n">
-        <v>1.689013795951637</v>
+        <v>1.689013795951801</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.21092662250061</v>
+        <v>-1.210926622500728</v>
       </c>
       <c r="J17" t="n">
         <v>421</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3134735693229</v>
+        <v>102.3134735693232</v>
       </c>
       <c r="L17" t="n">
         <v>207</v>
@@ -1418,10 +1418,10 @@
         <v>216</v>
       </c>
       <c r="N17" t="n">
-        <v>440.5252416075135</v>
+        <v>440.5252416075564</v>
       </c>
       <c r="O17" t="n">
-        <v>3.139450615257668</v>
+        <v>3.139450615257663</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         <v>2790</v>
       </c>
       <c r="G18" t="n">
-        <v>1.473334242290174</v>
+        <v>1.473334242290317</v>
       </c>
       <c r="H18" t="n">
-        <v>1.28646955086215</v>
+        <v>1.286469550862275</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.21092662250061</v>
+        <v>-1.210926622500728</v>
       </c>
       <c r="J18" t="n">
         <v>427</v>
@@ -1475,10 +1475,10 @@
         <v>397</v>
       </c>
       <c r="N18" t="n">
-        <v>513.0448343508886</v>
+        <v>513.0448343509386</v>
       </c>
       <c r="O18" t="n">
-        <v>2.753621098228324</v>
+        <v>2.753621098228321</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1511,19 +1511,19 @@
         <v>94</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7625928653561398</v>
+        <v>0.7625928653563998</v>
       </c>
       <c r="H19" t="n">
-        <v>2.671147392579681</v>
+        <v>2.671147392579941</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9037637936544207</v>
+        <v>-0.9037637936545085</v>
       </c>
       <c r="J19" t="n">
         <v>86</v>
       </c>
       <c r="K19" t="n">
-        <v>24.47219915482789</v>
+        <v>24.47219915482671</v>
       </c>
       <c r="L19" t="n">
         <v>26</v>
@@ -1532,10 +1532,10 @@
         <v>62</v>
       </c>
       <c r="N19" t="n">
-        <v>218.2850554968315</v>
+        <v>218.2850554968493</v>
       </c>
       <c r="O19" t="n">
-        <v>3.176307908617441</v>
+        <v>3.176307908618211</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1568,13 +1568,13 @@
         <v>794</v>
       </c>
       <c r="G20" t="n">
-        <v>1.074484182412685</v>
+        <v>1.074484182412789</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7769664740339302</v>
+        <v>0.7769664740340056</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9037637936544207</v>
+        <v>-0.9037637936545085</v>
       </c>
       <c r="J20" t="n">
         <v>212</v>
@@ -1589,10 +1589,10 @@
         <v>154</v>
       </c>
       <c r="N20" t="n">
-        <v>183.0670623508768</v>
+        <v>183.0670623508945</v>
       </c>
       <c r="O20" t="n">
-        <v>4.475379670235828</v>
+        <v>4.475379670235821</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1625,13 +1625,13 @@
         <v>2325</v>
       </c>
       <c r="G21" t="n">
-        <v>1.048558234533856</v>
+        <v>1.048558234533957</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01265029387907598</v>
+        <v>-0.01265029387907755</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.9037637936544207</v>
+        <v>-0.9037637936545085</v>
       </c>
       <c r="J21" t="n">
         <v>431</v>
@@ -1646,10 +1646,10 @@
         <v>301</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0980129616347</v>
+        <v>122.0980129616464</v>
       </c>
       <c r="O21" t="n">
-        <v>4.367394404405323</v>
+        <v>4.367394404405317</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1682,13 +1682,13 @@
         <v>1259</v>
       </c>
       <c r="G22" t="n">
-        <v>3.223721785211398</v>
+        <v>3.223721785211711</v>
       </c>
       <c r="H22" t="n">
-        <v>1.883293904153766</v>
+        <v>1.883293904153948</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.190482892175868</v>
+        <v>-1.190482892175983</v>
       </c>
       <c r="J22" t="n">
         <v>460</v>
@@ -1703,10 +1703,10 @@
         <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>602.5356757930329</v>
+        <v>602.5356757930914</v>
       </c>
       <c r="O22" t="n">
-        <v>6.667382688522941</v>
+        <v>6.667382688522939</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -1739,13 +1739,13 @@
         <v>2051</v>
       </c>
       <c r="G23" t="n">
-        <v>2.703883771085401</v>
+        <v>2.703883771085664</v>
       </c>
       <c r="H23" t="n">
-        <v>1.257266533913956</v>
+        <v>1.257266533914078</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.190482892175868</v>
+        <v>-1.190482892175983</v>
       </c>
       <c r="J23" t="n">
         <v>161</v>
@@ -1760,10 +1760,10 @@
         <v>82</v>
       </c>
       <c r="N23" t="n">
-        <v>193.8325071275447</v>
+        <v>193.8325071275636</v>
       </c>
       <c r="O23" t="n">
-        <v>5.592240598991622</v>
+        <v>5.592240598991621</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -1796,13 +1796,13 @@
         <v>2744</v>
       </c>
       <c r="G24" t="n">
-        <v>1.916318244152583</v>
+        <v>1.916318244152769</v>
       </c>
       <c r="H24" t="n">
-        <v>1.215970176219118</v>
+        <v>1.215970176219236</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.190482892175868</v>
+        <v>-1.190482892175983</v>
       </c>
       <c r="J24" t="n">
         <v>317</v>
@@ -1817,10 +1817,10 @@
         <v>201</v>
       </c>
       <c r="N24" t="n">
-        <v>184.7479616417817</v>
+        <v>184.7479616417995</v>
       </c>
       <c r="O24" t="n">
-        <v>3.96337771620877</v>
+        <v>3.963377716208769</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -1853,19 +1853,19 @@
         <v>2998</v>
       </c>
       <c r="G25" t="n">
-        <v>2.386317547541349</v>
+        <v>2.386317547541448</v>
       </c>
       <c r="H25" t="n">
-        <v>1.152613594790098</v>
+        <v>1.152613594790209</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.190482892175868</v>
+        <v>-1.190482892175983</v>
       </c>
       <c r="J25" t="n">
         <v>254</v>
       </c>
       <c r="K25" t="n">
-        <v>41.09784059564572</v>
+        <v>41.09784059564345</v>
       </c>
       <c r="L25" t="n">
         <v>146</v>
@@ -1874,10 +1874,10 @@
         <v>110</v>
       </c>
       <c r="N25" t="n">
-        <v>216.5585505342949</v>
+        <v>216.5585505343161</v>
       </c>
       <c r="O25" t="n">
-        <v>4.935442127414345</v>
+        <v>4.93544212741407</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -1910,13 +1910,13 @@
         <v>1023</v>
       </c>
       <c r="G26" t="n">
-        <v>1.057868027947035</v>
+        <v>1.057868027947138</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0495569714829273</v>
+        <v>0.04955697148293201</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.9072433859196268</v>
+        <v>-0.9072433859197153</v>
       </c>
       <c r="J26" t="n">
         <v>231</v>
@@ -1931,10 +1931,10 @@
         <v>138</v>
       </c>
       <c r="N26" t="n">
-        <v>76.36129479750427</v>
+        <v>76.36129479751173</v>
       </c>
       <c r="O26" t="n">
-        <v>5.183801054034356</v>
+        <v>5.183801054034381</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -1967,13 +1967,13 @@
         <v>1322</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9507508226063187</v>
+        <v>0.9507508226064109</v>
       </c>
       <c r="H27" t="n">
-        <v>1.517731782968166</v>
+        <v>1.517731782968313</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.9072433859196268</v>
+        <v>-0.9072433859197153</v>
       </c>
       <c r="J27" t="n">
         <v>530</v>
@@ -1988,10 +1988,10 @@
         <v>169</v>
       </c>
       <c r="N27" t="n">
-        <v>523.4303265678519</v>
+        <v>523.4303265679031</v>
       </c>
       <c r="O27" t="n">
-        <v>4.658901664619951</v>
+        <v>4.658901664619973</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         <v>2180</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9819335886860876</v>
+        <v>0.9819335886861825</v>
       </c>
       <c r="H28" t="n">
-        <v>1.617747991942128</v>
+        <v>1.617747991942286</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.9072433859196268</v>
+        <v>-0.9072433859197153</v>
       </c>
       <c r="J28" t="n">
         <v>283</v>
@@ -2045,10 +2045,10 @@
         <v>252</v>
       </c>
       <c r="N28" t="n">
-        <v>227.2021066825482</v>
+        <v>227.2021066825704</v>
       </c>
       <c r="O28" t="n">
-        <v>4.811704520365304</v>
+        <v>4.811704520365326</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
         <v>2916</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7514279823665088</v>
+        <v>0.7514279823665813</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.03360739741007018</v>
+        <v>-0.03360739741007379</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.9072433859196268</v>
+        <v>-0.9072433859197153</v>
       </c>
       <c r="J29" t="n">
         <v>309</v>
@@ -2102,10 +2102,10 @@
         <v>275</v>
       </c>
       <c r="N29" t="n">
-        <v>70.0298409435669</v>
+        <v>70.02984094357372</v>
       </c>
       <c r="O29" t="n">
-        <v>3.6821730727431</v>
+        <v>3.682173072743116</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2138,19 +2138,19 @@
         <v>184</v>
       </c>
       <c r="G30" t="n">
-        <v>1.564506741605515</v>
+        <v>1.564506741605666</v>
       </c>
       <c r="H30" t="n">
-        <v>2.431288214783659</v>
+        <v>2.431288214783895</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.8136468621888132</v>
+        <v>-0.8136468621888925</v>
       </c>
       <c r="J30" t="n">
         <v>164</v>
       </c>
       <c r="K30" t="n">
-        <v>72.68964804205133</v>
+        <v>72.68964804205135</v>
       </c>
       <c r="L30" t="n">
         <v>95</v>
@@ -2159,10 +2159,10 @@
         <v>71</v>
       </c>
       <c r="N30" t="n">
-        <v>336.2157031398378</v>
+        <v>336.2157031398709</v>
       </c>
       <c r="O30" t="n">
-        <v>8.588390727811992</v>
+        <v>8.588390727812161</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2195,13 +2195,13 @@
         <v>2998</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8083810963658419</v>
+        <v>0.8083810963659199</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3832191386932411</v>
+        <v>0.3832191386932781</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.8136468621888132</v>
+        <v>-0.8136468621888925</v>
       </c>
       <c r="J31" t="n">
         <v>284</v>
@@ -2216,10 +2216,10 @@
         <v>250</v>
       </c>
       <c r="N31" t="n">
-        <v>67.78822294069612</v>
+        <v>67.78822294070508</v>
       </c>
       <c r="O31" t="n">
-        <v>4.437624030588847</v>
+        <v>4.437624030588933</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         <v>1269</v>
       </c>
       <c r="G32" t="n">
-        <v>1.69802319879317</v>
+        <v>1.698023198793334</v>
       </c>
       <c r="H32" t="n">
-        <v>1.926373234551273</v>
+        <v>1.92637323455146</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.7812644760734673</v>
+        <v>-0.7812644760735435</v>
       </c>
       <c r="J32" t="n">
         <v>185</v>
@@ -2273,10 +2273,10 @@
         <v>154</v>
       </c>
       <c r="N32" t="n">
-        <v>98.89268412106074</v>
+        <v>98.8926841210704</v>
       </c>
       <c r="O32" t="n">
-        <v>7.216911433003899</v>
+        <v>7.216911433003919</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2309,13 +2309,13 @@
         <v>2923</v>
       </c>
       <c r="G33" t="n">
-        <v>3.426006814545977</v>
+        <v>3.426006814546309</v>
       </c>
       <c r="H33" t="n">
-        <v>2.896336131207048</v>
+        <v>2.896336131207329</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7812644760734673</v>
+        <v>-0.7812644760735435</v>
       </c>
       <c r="J33" t="n">
         <v>494</v>
@@ -2330,10 +2330,10 @@
         <v>411</v>
       </c>
       <c r="N33" t="n">
-        <v>600.6833444659225</v>
+        <v>600.6833444659811</v>
       </c>
       <c r="O33" t="n">
-        <v>14.56116015789359</v>
+        <v>14.56116015789364</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2366,13 +2366,13 @@
         <v>2923</v>
       </c>
       <c r="G34" t="n">
-        <v>2.172645104302131</v>
+        <v>2.172645104302341</v>
       </c>
       <c r="H34" t="n">
-        <v>1.895481225588712</v>
+        <v>1.895481225588896</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.7812644760734673</v>
+        <v>-0.7812644760735435</v>
       </c>
       <c r="J34" t="n">
         <v>306</v>
@@ -2387,10 +2387,10 @@
         <v>273</v>
       </c>
       <c r="N34" t="n">
-        <v>276.4171271719609</v>
+        <v>276.417127171988</v>
       </c>
       <c r="O34" t="n">
-        <v>9.234141974174465</v>
+        <v>9.23414197417449</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2423,13 +2423,13 @@
         <v>2998</v>
       </c>
       <c r="G35" t="n">
-        <v>1.171349699006972</v>
+        <v>1.171349699006966</v>
       </c>
       <c r="H35" t="n">
-        <v>3.245608005052801</v>
+        <v>3.245608005052828</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.7812644760734673</v>
+        <v>-0.7812644760735435</v>
       </c>
       <c r="J35" t="n">
         <v>75</v>
@@ -2444,10 +2444,10 @@
         <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>112.6756002894535</v>
+        <v>112.6756002894587</v>
       </c>
       <c r="O35" t="n">
-        <v>4.97845202634289</v>
+        <v>4.978452026342397</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -2480,19 +2480,19 @@
         <v>113</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8257347712842322</v>
+        <v>0.8257347712842346</v>
       </c>
       <c r="H36" t="n">
-        <v>0.37710432241227</v>
+        <v>0.3771043224122684</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.9860692809765426</v>
+        <v>-0.9860692809766384</v>
       </c>
       <c r="J36" t="n">
         <v>113</v>
       </c>
       <c r="K36" t="n">
-        <v>30.8030987084238</v>
+        <v>30.80309870842376</v>
       </c>
       <c r="L36" t="n">
         <v>16</v>
@@ -2501,10 +2501,10 @@
         <v>99</v>
       </c>
       <c r="N36" t="n">
-        <v>97.00837626419658</v>
+        <v>97.00837626420549</v>
       </c>
       <c r="O36" t="n">
-        <v>2.41142380351222</v>
+        <v>2.411423803511992</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2537,13 +2537,13 @@
         <v>1191</v>
       </c>
       <c r="G37" t="n">
-        <v>1.899904957443905</v>
+        <v>1.899904957444089</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1979707929597722</v>
+        <v>0.197970792959791</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.9860692809765426</v>
+        <v>-0.9860692809766384</v>
       </c>
       <c r="J37" t="n">
         <v>396</v>
@@ -2558,10 +2558,10 @@
         <v>195</v>
       </c>
       <c r="N37" t="n">
-        <v>66.95221701231053</v>
+        <v>66.95221701231692</v>
       </c>
       <c r="O37" t="n">
-        <v>5.548362740817754</v>
+        <v>5.548362740817751</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2594,13 +2594,13 @@
         <v>1290</v>
       </c>
       <c r="G38" t="n">
-        <v>1.54832221811841</v>
+        <v>1.54832221811856</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6381165850260742</v>
+        <v>0.6381165850261357</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.9860692809765426</v>
+        <v>-0.9860692809766384</v>
       </c>
       <c r="J38" t="n">
         <v>99</v>
@@ -2615,10 +2615,10 @@
         <v>62</v>
       </c>
       <c r="N38" t="n">
-        <v>64.18823950786282</v>
+        <v>64.18823950786904</v>
       </c>
       <c r="O38" t="n">
-        <v>4.521622659138794</v>
+        <v>4.52162265913879</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         <v>2390</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9166118172485194</v>
+        <v>0.9166118172486076</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.1134487567149691</v>
+        <v>-0.1134487567149805</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.9860692809765426</v>
+        <v>-0.9860692809766384</v>
       </c>
       <c r="J39" t="n">
         <v>92</v>
@@ -2672,10 +2672,10 @@
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>38.83887232260446</v>
+        <v>38.83887232260822</v>
       </c>
       <c r="O39" t="n">
-        <v>2.676815403154236</v>
+        <v>2.676815403154232</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -2708,13 +2708,13 @@
         <v>2597</v>
       </c>
       <c r="G40" t="n">
-        <v>3.401126593249657</v>
+        <v>3.401126593249988</v>
       </c>
       <c r="H40" t="n">
-        <v>2.396715233359073</v>
+        <v>2.396715233359306</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.9860692809765426</v>
+        <v>-0.9860692809766384</v>
       </c>
       <c r="J40" t="n">
         <v>207</v>
@@ -2729,10 +2729,10 @@
         <v>170</v>
       </c>
       <c r="N40" t="n">
-        <v>330.364551552015</v>
+        <v>330.3645515520471</v>
       </c>
       <c r="O40" t="n">
-        <v>9.932435826778972</v>
+        <v>9.932435826778969</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         <v>2693</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8901839757481004</v>
+        <v>0.8901839757481862</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1691166173253155</v>
+        <v>0.1691166173253315</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.9860692809765426</v>
+        <v>-0.9860692809766384</v>
       </c>
       <c r="J41" t="n">
         <v>96</v>
@@ -2786,10 +2786,10 @@
         <v>63</v>
       </c>
       <c r="N41" t="n">
-        <v>58.57827530436353</v>
+        <v>58.5782753043692</v>
       </c>
       <c r="O41" t="n">
-        <v>2.599637199830614</v>
+        <v>2.599637199830611</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -2822,13 +2822,13 @@
         <v>2764</v>
       </c>
       <c r="G42" t="n">
-        <v>1.056943734795575</v>
+        <v>1.056943734795676</v>
       </c>
       <c r="H42" t="n">
-        <v>1.044759639874919</v>
+        <v>1.044759639875021</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.9860692809765426</v>
+        <v>-0.9860692809766384</v>
       </c>
       <c r="J42" t="n">
         <v>167</v>
@@ -2843,10 +2843,10 @@
         <v>36</v>
       </c>
       <c r="N42" t="n">
-        <v>151.8933261717974</v>
+        <v>151.8933261718121</v>
       </c>
       <c r="O42" t="n">
-        <v>3.086631894034455</v>
+        <v>3.08663189403445</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -2879,13 +2879,13 @@
         <v>2998</v>
       </c>
       <c r="G43" t="n">
-        <v>1.236897969090772</v>
+        <v>1.236897969090892</v>
       </c>
       <c r="H43" t="n">
-        <v>2.054708224650705</v>
+        <v>2.054708224650905</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.9860692809765426</v>
+        <v>-0.9860692809766384</v>
       </c>
       <c r="J43" t="n">
         <v>155</v>
@@ -2900,10 +2900,10 @@
         <v>77</v>
       </c>
       <c r="N43" t="n">
-        <v>338.5287856443925</v>
+        <v>338.528785644424</v>
       </c>
       <c r="O43" t="n">
-        <v>3.612158902479738</v>
+        <v>3.612158902479735</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -2936,13 +2936,13 @@
         <v>1294</v>
       </c>
       <c r="G44" t="n">
-        <v>1.770570977751728</v>
+        <v>1.7705709777519</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6739005620731828</v>
+        <v>0.6739005620732483</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.04036184534858</v>
+        <v>-1.040361845348681</v>
       </c>
       <c r="J44" t="n">
         <v>501</v>
@@ -2957,7 +2957,7 @@
         <v>427</v>
       </c>
       <c r="N44" t="n">
-        <v>300.22401318986</v>
+        <v>300.2240131898892</v>
       </c>
       <c r="O44" t="n">
         <v>6.660924865484348</v>
@@ -2993,13 +2993,13 @@
         <v>1294</v>
       </c>
       <c r="G45" t="n">
-        <v>1.228897014323812</v>
+        <v>1.228897014323932</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2820524870807878</v>
+        <v>0.282052487080815</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.04036184534858</v>
+        <v>-1.040361845348681</v>
       </c>
       <c r="J45" t="n">
         <v>263</v>
@@ -3014,10 +3014,10 @@
         <v>195</v>
       </c>
       <c r="N45" t="n">
-        <v>104.5744723352792</v>
+        <v>104.5744723352893</v>
       </c>
       <c r="O45" t="n">
-        <v>4.623136142343768</v>
+        <v>4.623136142343767</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3050,13 +3050,13 @@
         <v>1518</v>
       </c>
       <c r="G46" t="n">
-        <v>1.120587764808536</v>
+        <v>1.120587764808645</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03779397144479048</v>
+        <v>0.03779397144479367</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.04036184534858</v>
+        <v>-1.040361845348681</v>
       </c>
       <c r="J46" t="n">
         <v>224</v>
@@ -3071,10 +3071,10 @@
         <v>190</v>
       </c>
       <c r="N46" t="n">
-        <v>61.09496844076259</v>
+        <v>61.0949684407685</v>
       </c>
       <c r="O46" t="n">
-        <v>4.215674491653924</v>
+        <v>4.215674491653923</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3107,13 +3107,13 @@
         <v>2722</v>
       </c>
       <c r="G47" t="n">
-        <v>1.241902026529245</v>
+        <v>1.241902026529365</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7621442870990988</v>
+        <v>0.7621442870991726</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.04036184534858</v>
+        <v>-1.040361845348681</v>
       </c>
       <c r="J47" t="n">
         <v>104</v>
@@ -3128,10 +3128,10 @@
         <v>72</v>
       </c>
       <c r="N47" t="n">
-        <v>108.2685912899452</v>
+        <v>108.2685912899557</v>
       </c>
       <c r="O47" t="n">
-        <v>4.672061268906664</v>
+        <v>4.672061268906662</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3164,13 +3164,13 @@
         <v>1174</v>
       </c>
       <c r="G48" t="n">
-        <v>2.328265043839416</v>
+        <v>2.328265043839642</v>
       </c>
       <c r="H48" t="n">
-        <v>1.184764053044031</v>
+        <v>1.184764053044147</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.113591692018852</v>
+        <v>-1.113591692018961</v>
       </c>
       <c r="J48" t="n">
         <v>539</v>
@@ -3185,10 +3185,10 @@
         <v>358</v>
       </c>
       <c r="N48" t="n">
-        <v>393.1858944916503</v>
+        <v>393.1858944916885</v>
       </c>
       <c r="O48" t="n">
-        <v>4.048457259023781</v>
+        <v>4.048457259023841</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -3221,13 +3221,13 @@
         <v>1174</v>
       </c>
       <c r="G49" t="n">
-        <v>2.390137074192953</v>
+        <v>2.390137074193186</v>
       </c>
       <c r="H49" t="n">
-        <v>1.079889600791011</v>
+        <v>1.079889600791116</v>
       </c>
       <c r="I49" t="n">
-        <v>-1.113591692018852</v>
+        <v>-1.113591692018961</v>
       </c>
       <c r="J49" t="n">
         <v>281</v>
@@ -3242,10 +3242,10 @@
         <v>173</v>
       </c>
       <c r="N49" t="n">
-        <v>145.7136522527504</v>
+        <v>145.7136522527646</v>
       </c>
       <c r="O49" t="n">
-        <v>4.156042205625158</v>
+        <v>4.156042205625222</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3278,13 +3278,13 @@
         <v>1381</v>
       </c>
       <c r="G50" t="n">
-        <v>2.944140584730468</v>
+        <v>2.944140584730754</v>
       </c>
       <c r="H50" t="n">
-        <v>1.149974540223956</v>
+        <v>1.149974540224068</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.113591692018852</v>
+        <v>-1.113591692018961</v>
       </c>
       <c r="J50" t="n">
         <v>207</v>
@@ -3299,10 +3299,10 @@
         <v>72</v>
       </c>
       <c r="N50" t="n">
-        <v>142.2020936150606</v>
+        <v>142.2020936150743</v>
       </c>
       <c r="O50" t="n">
-        <v>5.119360166221981</v>
+        <v>5.119360166222058</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3335,13 +3335,13 @@
         <v>1644</v>
       </c>
       <c r="G51" t="n">
-        <v>2.442911886520434</v>
+        <v>2.442911886520671</v>
       </c>
       <c r="H51" t="n">
-        <v>1.625085434214758</v>
+        <v>1.625085434214916</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.113591692018852</v>
+        <v>-1.113591692018961</v>
       </c>
       <c r="J51" t="n">
         <v>470</v>
@@ -3356,10 +3356,10 @@
         <v>169</v>
       </c>
       <c r="N51" t="n">
-        <v>408.9078958464478</v>
+        <v>408.9078958464875</v>
       </c>
       <c r="O51" t="n">
-        <v>4.247808636009078</v>
+        <v>4.247808636009142</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -3392,13 +3392,13 @@
         <v>2282</v>
       </c>
       <c r="G52" t="n">
-        <v>2.727814635989124</v>
+        <v>2.72781463598939</v>
       </c>
       <c r="H52" t="n">
-        <v>1.767272644797907</v>
+        <v>1.767272644798079</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.113591692018852</v>
+        <v>-1.113591692018961</v>
       </c>
       <c r="J52" t="n">
         <v>292</v>
@@ -3413,10 +3413,10 @@
         <v>153</v>
       </c>
       <c r="N52" t="n">
-        <v>314.5883254014266</v>
+        <v>314.5883254014572</v>
       </c>
       <c r="O52" t="n">
-        <v>4.74320610257084</v>
+        <v>4.743206102570912</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -3449,13 +3449,13 @@
         <v>1074</v>
       </c>
       <c r="G53" t="n">
-        <v>2.477022419963956</v>
+        <v>2.477022419964196</v>
       </c>
       <c r="H53" t="n">
-        <v>1.049891919086425</v>
+        <v>1.049891919086527</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.081856276606847</v>
+        <v>-1.081856276606931</v>
       </c>
       <c r="J53" t="n">
         <v>265</v>
@@ -3470,10 +3470,10 @@
         <v>138</v>
       </c>
       <c r="N53" t="n">
-        <v>165.66353819167</v>
+        <v>165.6635381916804</v>
       </c>
       <c r="O53" t="n">
-        <v>5.107497231625372</v>
+        <v>5.107497231625374</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -3506,13 +3506,13 @@
         <v>1891</v>
       </c>
       <c r="G54" t="n">
-        <v>1.87495206373326</v>
+        <v>1.874952063733441</v>
       </c>
       <c r="H54" t="n">
-        <v>1.46301025685698</v>
+        <v>1.463010256857121</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.081856276606847</v>
+        <v>-1.081856276606931</v>
       </c>
       <c r="J54" t="n">
         <v>135</v>
@@ -3527,10 +3527,10 @@
         <v>49</v>
       </c>
       <c r="N54" t="n">
-        <v>188.6273135545795</v>
+        <v>188.627313554595</v>
       </c>
       <c r="O54" t="n">
-        <v>3.866058053316793</v>
+        <v>3.866058053316794</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -3563,13 +3563,13 @@
         <v>2255</v>
       </c>
       <c r="G55" t="n">
-        <v>1.835318580250657</v>
+        <v>1.835318580250836</v>
       </c>
       <c r="H55" t="n">
-        <v>1.024535280392973</v>
+        <v>1.024535280393072</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.081856276606847</v>
+        <v>-1.081856276606931</v>
       </c>
       <c r="J55" t="n">
         <v>364</v>
@@ -3584,10 +3584,10 @@
         <v>88</v>
       </c>
       <c r="N55" t="n">
-        <v>312.2255731183916</v>
+        <v>312.2255731184142</v>
       </c>
       <c r="O55" t="n">
-        <v>3.784335778404962</v>
+        <v>3.784335778404964</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -3620,19 +3620,19 @@
         <v>2998</v>
       </c>
       <c r="G56" t="n">
-        <v>2.354572001276794</v>
+        <v>2.354572001276966</v>
       </c>
       <c r="H56" t="n">
-        <v>1.783221731509232</v>
+        <v>1.783221731509405</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.081856276606847</v>
+        <v>-1.081856276606931</v>
       </c>
       <c r="J56" t="n">
         <v>208</v>
       </c>
       <c r="K56" t="n">
-        <v>113.2233499162626</v>
+        <v>113.2233499162612</v>
       </c>
       <c r="L56" t="n">
         <v>40</v>
@@ -3641,10 +3641,10 @@
         <v>170</v>
       </c>
       <c r="N56" t="n">
-        <v>370.6653195275359</v>
+        <v>370.665319527568</v>
       </c>
       <c r="O56" t="n">
-        <v>4.855010548656574</v>
+        <v>4.855010548656459</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -3677,13 +3677,13 @@
         <v>1219</v>
       </c>
       <c r="G57" t="n">
-        <v>1.250903071866877</v>
+        <v>1.250903071866998</v>
       </c>
       <c r="H57" t="n">
-        <v>1.689313536800869</v>
+        <v>1.689313536801033</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.7188407067845981</v>
+        <v>-0.7188407067846682</v>
       </c>
       <c r="J57" t="n">
         <v>424</v>
@@ -3698,10 +3698,10 @@
         <v>56</v>
       </c>
       <c r="N57" t="n">
-        <v>202.4664207941936</v>
+        <v>202.4664207942134</v>
       </c>
       <c r="O57" t="n">
-        <v>10.0834490239505</v>
+        <v>10.08344902395049</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -3734,19 +3734,19 @@
         <v>1364</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4980499878132005</v>
+        <v>0.4980499878132494</v>
       </c>
       <c r="H58" t="n">
-        <v>2.700237088802572</v>
+        <v>2.700237088802836</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.7188407067845981</v>
+        <v>-0.7188407067846682</v>
       </c>
       <c r="J58" t="n">
         <v>569</v>
       </c>
       <c r="K58" t="n">
-        <v>61.32210700381052</v>
+        <v>61.32210700381074</v>
       </c>
       <c r="L58" t="n">
         <v>494</v>
@@ -3755,10 +3755,10 @@
         <v>77</v>
       </c>
       <c r="N58" t="n">
-        <v>622.1963049582922</v>
+        <v>622.1963049583529</v>
       </c>
       <c r="O58" t="n">
-        <v>4.01474884540697</v>
+        <v>4.014748845406973</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -3791,13 +3791,13 @@
         <v>2381</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5089168652877138</v>
+        <v>0.508916865287763</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.2416049730474791</v>
+        <v>-0.2416049730475028</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.7188407067845981</v>
+        <v>-0.7188407067846682</v>
       </c>
       <c r="J59" t="n">
         <v>215</v>
@@ -3812,10 +3812,10 @@
         <v>146</v>
       </c>
       <c r="N59" t="n">
-        <v>44.28936601821709</v>
+        <v>44.28936601822139</v>
       </c>
       <c r="O59" t="n">
-        <v>4.102346044205305</v>
+        <v>4.102346044205302</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -3848,13 +3848,13 @@
         <v>2768</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6218124832432906</v>
+        <v>0.6218124832433498</v>
       </c>
       <c r="H60" t="n">
-        <v>1.286066179622848</v>
+        <v>1.286066179622973</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.7188407067845981</v>
+        <v>-0.7188407067846682</v>
       </c>
       <c r="J60" t="n">
         <v>387</v>
@@ -3869,10 +3869,10 @@
         <v>13</v>
       </c>
       <c r="N60" t="n">
-        <v>101.8874153094672</v>
+        <v>101.8874153094771</v>
       </c>
       <c r="O60" t="n">
-        <v>5.012390342828306</v>
+        <v>5.012390342828295</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -3905,19 +3905,19 @@
         <v>404</v>
       </c>
       <c r="G61" t="n">
-        <v>1.584566944838818</v>
+        <v>1.584566944838972</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4730455147180315</v>
+        <v>0.4730455147180773</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.9694970210790448</v>
+        <v>-0.9694970210791394</v>
       </c>
       <c r="J61" t="n">
         <v>293</v>
       </c>
       <c r="K61" t="n">
-        <v>78.16875351471649</v>
+        <v>78.16875351471651</v>
       </c>
       <c r="L61" t="n">
         <v>141</v>
@@ -3926,10 +3926,10 @@
         <v>154</v>
       </c>
       <c r="N61" t="n">
-        <v>114.355061526788</v>
+        <v>114.3550615267991</v>
       </c>
       <c r="O61" t="n">
-        <v>6.434537333343664</v>
+        <v>6.434537333343761</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -3962,13 +3962,13 @@
         <v>570</v>
       </c>
       <c r="G62" t="n">
-        <v>1.31266194325744</v>
+        <v>1.312661943257567</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5204928244775215</v>
+        <v>0.5204928244775718</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.9694970210790448</v>
+        <v>-0.9694970210791394</v>
       </c>
       <c r="J62" t="n">
         <v>459</v>
@@ -3983,10 +3983,10 @@
         <v>56</v>
       </c>
       <c r="N62" t="n">
-        <v>229.7273809045955</v>
+        <v>229.7273809046179</v>
       </c>
       <c r="O62" t="n">
-        <v>5.330397877767546</v>
+        <v>5.330397877767623</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -4019,13 +4019,13 @@
         <v>1296</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6500380321545196</v>
+        <v>0.6500380321545818</v>
       </c>
       <c r="H63" t="n">
-        <v>1.658299924977376</v>
+        <v>1.658299924977537</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.9694970210790448</v>
+        <v>-0.9694970210791394</v>
       </c>
       <c r="J63" t="n">
         <v>86</v>
@@ -4040,10 +4040,10 @@
         <v>24</v>
       </c>
       <c r="N63" t="n">
-        <v>189.5065902629381</v>
+        <v>189.5065902629566</v>
       </c>
       <c r="O63" t="n">
-        <v>2.639644856669006</v>
+        <v>2.639644856669041</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4076,13 +4076,13 @@
         <v>2181</v>
       </c>
       <c r="G64" t="n">
-        <v>2.188529458051941</v>
+        <v>2.188529458052153</v>
       </c>
       <c r="H64" t="n">
-        <v>1.273589662494051</v>
+        <v>1.273589662494174</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.9694970210790448</v>
+        <v>-0.9694970210791394</v>
       </c>
       <c r="J64" t="n">
         <v>289</v>
@@ -4097,10 +4097,10 @@
         <v>128</v>
       </c>
       <c r="N64" t="n">
-        <v>235.2511468088248</v>
+        <v>235.2511468088478</v>
       </c>
       <c r="O64" t="n">
-        <v>8.887080819668387</v>
+        <v>8.887080819668517</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -4133,13 +4133,13 @@
         <v>2691</v>
       </c>
       <c r="G65" t="n">
-        <v>1.163268074924465</v>
+        <v>1.163268074924577</v>
       </c>
       <c r="H65" t="n">
-        <v>1.818647017071154</v>
+        <v>1.81864701707133</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.9694970210790448</v>
+        <v>-0.9694970210791394</v>
       </c>
       <c r="J65" t="n">
         <v>435</v>
@@ -4154,10 +4154,10 @@
         <v>364</v>
       </c>
       <c r="N65" t="n">
-        <v>404.2621276455138</v>
+        <v>404.2621276455533</v>
       </c>
       <c r="O65" t="n">
-        <v>4.723746056402602</v>
+        <v>4.723746056402669</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -4190,13 +4190,13 @@
         <v>2691</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7289478466899919</v>
+        <v>0.7289478466900625</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.353608347593766</v>
+        <v>-0.3536083475938007</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.9694970210790448</v>
+        <v>-0.9694970210791394</v>
       </c>
       <c r="J66" t="n">
         <v>103</v>
@@ -4211,10 +4211,10 @@
         <v>72</v>
       </c>
       <c r="N66" t="n">
-        <v>22.3522181514675</v>
+        <v>22.35221815146968</v>
       </c>
       <c r="O66" t="n">
-        <v>2.960078240218711</v>
+        <v>2.960078240218754</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -4247,13 +4247,13 @@
         <v>2769</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8841280954884194</v>
+        <v>0.8841280954885048</v>
       </c>
       <c r="H67" t="n">
-        <v>0.349232089269596</v>
+        <v>0.3492320892696295</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.9694970210790448</v>
+        <v>-0.9694970210791394</v>
       </c>
       <c r="J67" t="n">
         <v>78</v>
@@ -4268,10 +4268,10 @@
         <v>44</v>
       </c>
       <c r="N67" t="n">
-        <v>51.4097629446854</v>
+        <v>51.40976294469042</v>
       </c>
       <c r="O67" t="n">
-        <v>3.590227132030037</v>
+        <v>3.590227132030088</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -4304,13 +4304,13 @@
         <v>2934</v>
       </c>
       <c r="G68" t="n">
-        <v>1.751012124546712</v>
+        <v>1.751012124546882</v>
       </c>
       <c r="H68" t="n">
-        <v>0.725844985704451</v>
+        <v>0.7258449857045213</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.9694970210790448</v>
+        <v>-0.9694970210791394</v>
       </c>
       <c r="J68" t="n">
         <v>243</v>
@@ -4325,10 +4325,10 @@
         <v>128</v>
       </c>
       <c r="N68" t="n">
-        <v>172.4775283666738</v>
+        <v>172.4775283666906</v>
       </c>
       <c r="O68" t="n">
-        <v>7.110430343906549</v>
+        <v>7.110430343906653</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -4361,13 +4361,13 @@
         <v>596</v>
       </c>
       <c r="G69" t="n">
-        <v>1.322629924432371</v>
+        <v>1.322629924432499</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4108654500071168</v>
+        <v>0.4108654500071566</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.9776918339142431</v>
+        <v>-0.9776918339143383</v>
       </c>
       <c r="J69" t="n">
         <v>192</v>
@@ -4382,10 +4382,10 @@
         <v>99</v>
       </c>
       <c r="N69" t="n">
-        <v>88.10578530699912</v>
+        <v>88.10578530700769</v>
       </c>
       <c r="O69" t="n">
-        <v>3.922512696036579</v>
+        <v>3.922512696036569</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -4418,13 +4418,13 @@
         <v>816</v>
       </c>
       <c r="G70" t="n">
-        <v>3.07250297506206</v>
+        <v>3.072502975062358</v>
       </c>
       <c r="H70" t="n">
-        <v>2.009050673801246</v>
+        <v>2.009050673801441</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.9776918339142431</v>
+        <v>-0.9776918339143383</v>
       </c>
       <c r="J70" t="n">
         <v>412</v>
@@ -4439,10 +4439,10 @@
         <v>141</v>
       </c>
       <c r="N70" t="n">
-        <v>315.5119966076779</v>
+        <v>315.5119966077086</v>
       </c>
       <c r="O70" t="n">
-        <v>9.112096819874523</v>
+        <v>9.112096819874502</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -4475,13 +4475,13 @@
         <v>1492</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8152188466739032</v>
+        <v>0.8152188466739811</v>
       </c>
       <c r="H71" t="n">
-        <v>1.874476873005344</v>
+        <v>1.874476873005526</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.9776918339142431</v>
+        <v>-0.9776918339143383</v>
       </c>
       <c r="J71" t="n">
         <v>233</v>
@@ -4496,10 +4496,10 @@
         <v>19</v>
       </c>
       <c r="N71" t="n">
-        <v>138.4412795728945</v>
+        <v>138.4412795729079</v>
       </c>
       <c r="O71" t="n">
-        <v>2.41768783320023</v>
+        <v>2.41768783320022</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -4532,13 +4532,13 @@
         <v>1691</v>
       </c>
       <c r="G72" t="n">
-        <v>2.807549631625325</v>
+        <v>2.807549631625598</v>
       </c>
       <c r="H72" t="n">
-        <v>2.455738293654127</v>
+        <v>2.455738293654366</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.9776918339142431</v>
+        <v>-0.9776918339143383</v>
       </c>
       <c r="J72" t="n">
         <v>432</v>
@@ -4553,10 +4553,10 @@
         <v>170</v>
       </c>
       <c r="N72" t="n">
-        <v>488.7968578414312</v>
+        <v>488.7968578414789</v>
       </c>
       <c r="O72" t="n">
-        <v>8.326326866927213</v>
+        <v>8.326326866927191</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -4589,13 +4589,13 @@
         <v>2021</v>
       </c>
       <c r="G73" t="n">
-        <v>1.38526655558176</v>
+        <v>1.385266555581894</v>
       </c>
       <c r="H73" t="n">
-        <v>1.332041363141392</v>
+        <v>1.332041363141521</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.9776918339142431</v>
+        <v>-0.9776918339143383</v>
       </c>
       <c r="J73" t="n">
         <v>330</v>
@@ -4610,10 +4610,10 @@
         <v>137</v>
       </c>
       <c r="N73" t="n">
-        <v>419.5588961975836</v>
+        <v>419.5588961976244</v>
       </c>
       <c r="O73" t="n">
-        <v>4.108273638218409</v>
+        <v>4.108273638218396</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -4646,13 +4646,13 @@
         <v>2589</v>
       </c>
       <c r="G74" t="n">
-        <v>1.371797492556124</v>
+        <v>1.371797492556257</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8316667705609632</v>
+        <v>0.8316667705610438</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.9776918339142431</v>
+        <v>-0.9776918339143383</v>
       </c>
       <c r="J74" t="n">
         <v>276</v>
@@ -4667,10 +4667,10 @@
         <v>112</v>
       </c>
       <c r="N74" t="n">
-        <v>252.6846451443995</v>
+        <v>252.6846451444241</v>
       </c>
       <c r="O74" t="n">
-        <v>4.068328548707109</v>
+        <v>4.068328548707099</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -4703,13 +4703,13 @@
         <v>528</v>
       </c>
       <c r="G75" t="n">
-        <v>2.374939588415041</v>
+        <v>2.374939588415272</v>
       </c>
       <c r="H75" t="n">
-        <v>1.531518378105391</v>
+        <v>1.53151837810554</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.030965246636597</v>
+        <v>-1.030965246636697</v>
       </c>
       <c r="J75" t="n">
         <v>405</v>
@@ -4724,10 +4724,10 @@
         <v>190</v>
       </c>
       <c r="N75" t="n">
-        <v>435.3138199365566</v>
+        <v>435.313819936599</v>
       </c>
       <c r="O75" t="n">
-        <v>7.679518987001918</v>
+        <v>7.679518987001892</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -4760,13 +4760,13 @@
         <v>810</v>
       </c>
       <c r="G76" t="n">
-        <v>2.736897063578341</v>
+        <v>2.736897063578608</v>
       </c>
       <c r="H76" t="n">
-        <v>2.320514622960292</v>
+        <v>2.320514622960518</v>
       </c>
       <c r="I76" t="n">
-        <v>-1.030965246636597</v>
+        <v>-1.030965246636697</v>
       </c>
       <c r="J76" t="n">
         <v>282</v>
@@ -4781,10 +4781,10 @@
         <v>228</v>
       </c>
       <c r="N76" t="n">
-        <v>495.8291207056597</v>
+        <v>495.8291207057081</v>
       </c>
       <c r="O76" t="n">
-        <v>8.84993162257506</v>
+        <v>8.84993162257503</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -4817,13 +4817,13 @@
         <v>810</v>
       </c>
       <c r="G77" t="n">
-        <v>1.656020345513283</v>
+        <v>1.656020345513444</v>
       </c>
       <c r="H77" t="n">
-        <v>1.405567785125366</v>
+        <v>1.405567785125503</v>
       </c>
       <c r="I77" t="n">
-        <v>-1.030965246636597</v>
+        <v>-1.030965246636697</v>
       </c>
       <c r="J77" t="n">
         <v>104</v>
@@ -4838,10 +4838,10 @@
         <v>65</v>
       </c>
       <c r="N77" t="n">
-        <v>156.6169919188221</v>
+        <v>156.6169919188374</v>
       </c>
       <c r="O77" t="n">
-        <v>5.354847655185178</v>
+        <v>5.354847655185158</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -4874,13 +4874,13 @@
         <v>2370</v>
       </c>
       <c r="G78" t="n">
-        <v>1.295715674251492</v>
+        <v>1.295715674251618</v>
       </c>
       <c r="H78" t="n">
-        <v>1.780545475362258</v>
+        <v>1.780545475362431</v>
       </c>
       <c r="I78" t="n">
-        <v>-1.030965246636597</v>
+        <v>-1.030965246636697</v>
       </c>
       <c r="J78" t="n">
         <v>339</v>
@@ -4895,10 +4895,10 @@
         <v>306</v>
       </c>
       <c r="N78" t="n">
-        <v>226.8177624286073</v>
+        <v>226.8177624286295</v>
       </c>
       <c r="O78" t="n">
-        <v>4.189779466689911</v>
+        <v>4.189779466689894</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -4931,13 +4931,13 @@
         <v>2654</v>
       </c>
       <c r="G79" t="n">
-        <v>1.115437223506863</v>
+        <v>1.11543722350697</v>
       </c>
       <c r="H79" t="n">
-        <v>1.826846249752149</v>
+        <v>1.826846249752326</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.030965246636597</v>
+        <v>-1.030965246636697</v>
       </c>
       <c r="J79" t="n">
         <v>284</v>
@@ -4952,10 +4952,10 @@
         <v>38</v>
       </c>
       <c r="N79" t="n">
-        <v>174.1029743271274</v>
+        <v>174.1029743271444</v>
       </c>
       <c r="O79" t="n">
-        <v>3.606837571159587</v>
+        <v>3.606837571159569</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -4988,13 +4988,13 @@
         <v>2911</v>
       </c>
       <c r="G80" t="n">
-        <v>2.901459213841576</v>
+        <v>2.901459213841858</v>
       </c>
       <c r="H80" t="n">
-        <v>2.051474310077717</v>
+        <v>2.051474310077916</v>
       </c>
       <c r="I80" t="n">
-        <v>-1.030965246636597</v>
+        <v>-1.030965246636697</v>
       </c>
       <c r="J80" t="n">
         <v>541</v>
@@ -5009,10 +5009,10 @@
         <v>223</v>
       </c>
       <c r="N80" t="n">
-        <v>570.2892289577488</v>
+        <v>570.2892289578044</v>
       </c>
       <c r="O80" t="n">
-        <v>9.38205385576911</v>
+        <v>9.382053855769078</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -5045,13 +5045,13 @@
         <v>1271</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9506144250220481</v>
+        <v>0.9506144250221399</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3130456475011738</v>
+        <v>0.3130456475012038</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.9573231798597884</v>
+        <v>-0.9573231798598816</v>
       </c>
       <c r="J81" t="n">
         <v>541</v>
@@ -5066,10 +5066,10 @@
         <v>512</v>
       </c>
       <c r="N81" t="n">
-        <v>131.9911029307673</v>
+        <v>131.9911029307801</v>
       </c>
       <c r="O81" t="n">
-        <v>4.684877084187885</v>
+        <v>4.684877084187871</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -5102,13 +5102,13 @@
         <v>1271</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8836586261155541</v>
+        <v>0.8836586261156401</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.1095310956522411</v>
+        <v>-0.109531095652252</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.9573231798597884</v>
+        <v>-0.9573231798598816</v>
       </c>
       <c r="J82" t="n">
         <v>386</v>
@@ -5123,10 +5123,10 @@
         <v>272</v>
       </c>
       <c r="N82" t="n">
-        <v>67.89810039014978</v>
+        <v>67.89810039015633</v>
       </c>
       <c r="O82" t="n">
-        <v>4.354901355129019</v>
+        <v>4.354901355129008</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -5159,13 +5159,13 @@
         <v>2308</v>
       </c>
       <c r="G83" t="n">
-        <v>0.844066976028692</v>
+        <v>0.8440669760287738</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9044024651975809</v>
+        <v>0.904402465197669</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.9573231798597884</v>
+        <v>-0.9573231798598816</v>
       </c>
       <c r="J83" t="n">
         <v>133</v>
@@ -5180,10 +5180,10 @@
         <v>97</v>
       </c>
       <c r="N83" t="n">
-        <v>180.0901043079594</v>
+        <v>180.090104307977</v>
       </c>
       <c r="O83" t="n">
-        <v>4.159783324795296</v>
+        <v>4.159783324795285</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -5216,13 +5216,13 @@
         <v>2555</v>
       </c>
       <c r="G84" t="n">
-        <v>2.045334027531919</v>
+        <v>2.045334027532117</v>
       </c>
       <c r="H84" t="n">
-        <v>2.10635278279365</v>
+        <v>2.106352782793855</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.9573231798597884</v>
+        <v>-0.9573231798598816</v>
       </c>
       <c r="J84" t="n">
         <v>247</v>
@@ -5237,10 +5237,10 @@
         <v>131</v>
       </c>
       <c r="N84" t="n">
-        <v>463.6576263727638</v>
+        <v>463.657626372809</v>
       </c>
       <c r="O84" t="n">
-        <v>10.07994225931482</v>
+        <v>10.07994225931479</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -5273,13 +5273,13 @@
         <v>2630</v>
       </c>
       <c r="G85" t="n">
-        <v>0.742629493915657</v>
+        <v>0.7426294939157283</v>
       </c>
       <c r="H85" t="n">
-        <v>2.194658760307986</v>
+        <v>2.194658760308199</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.9573231798597884</v>
+        <v>-0.9573231798598816</v>
       </c>
       <c r="J85" t="n">
         <v>322</v>
@@ -5294,10 +5294,10 @@
         <v>42</v>
       </c>
       <c r="N85" t="n">
-        <v>644.6283469613666</v>
+        <v>644.6283469614294</v>
       </c>
       <c r="O85" t="n">
-        <v>3.659872821735075</v>
+        <v>3.659872821735061</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -5330,13 +5330,13 @@
         <v>2998</v>
       </c>
       <c r="G86" t="n">
-        <v>1.238912826079422</v>
+        <v>1.238912826079542</v>
       </c>
       <c r="H86" t="n">
-        <v>1.424460422265361</v>
+        <v>1.424460422265499</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.9573231798597884</v>
+        <v>-0.9573231798598816</v>
       </c>
       <c r="J86" t="n">
         <v>162</v>
@@ -5351,10 +5351,10 @@
         <v>130</v>
       </c>
       <c r="N86" t="n">
-        <v>228.1392730132996</v>
+        <v>228.1392730133217</v>
       </c>
       <c r="O86" t="n">
-        <v>6.105687180237473</v>
+        <v>6.105687180237456</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -5387,13 +5387,13 @@
         <v>291</v>
       </c>
       <c r="G87" t="n">
-        <v>1.471801689102599</v>
+        <v>1.471801689102741</v>
       </c>
       <c r="H87" t="n">
-        <v>1.123293620932122</v>
+        <v>1.123293620932232</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.151256340098644</v>
+        <v>-1.151256340098756</v>
       </c>
       <c r="J87" t="n">
         <v>95</v>
@@ -5408,10 +5408,10 @@
         <v>61</v>
       </c>
       <c r="N87" t="n">
-        <v>136.2511453556511</v>
+        <v>136.2511453556644</v>
       </c>
       <c r="O87" t="n">
-        <v>3.379787858875587</v>
+        <v>3.379787858875585</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -5444,13 +5444,13 @@
         <v>623</v>
       </c>
       <c r="G88" t="n">
-        <v>2.005860253596362</v>
+        <v>2.005860253596556</v>
       </c>
       <c r="H88" t="n">
-        <v>1.276271480488511</v>
+        <v>1.276271480488635</v>
       </c>
       <c r="I88" t="n">
-        <v>-1.151256340098644</v>
+        <v>-1.151256340098756</v>
       </c>
       <c r="J88" t="n">
         <v>427</v>
@@ -5465,10 +5465,10 @@
         <v>303</v>
       </c>
       <c r="N88" t="n">
-        <v>600.5249353983131</v>
+        <v>600.5249353983717</v>
       </c>
       <c r="O88" t="n">
-        <v>4.606179067398463</v>
+        <v>4.60617906739846</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -5501,13 +5501,13 @@
         <v>1063</v>
       </c>
       <c r="G89" t="n">
-        <v>2.166030364616399</v>
+        <v>2.166030364616608</v>
       </c>
       <c r="H89" t="n">
-        <v>1.061639700237107</v>
+        <v>1.061639700237209</v>
       </c>
       <c r="I89" t="n">
-        <v>-1.151256340098644</v>
+        <v>-1.151256340098756</v>
       </c>
       <c r="J89" t="n">
         <v>190</v>
@@ -5522,10 +5522,10 @@
         <v>103</v>
       </c>
       <c r="N89" t="n">
-        <v>129.7626778790896</v>
+        <v>129.7626778791022</v>
       </c>
       <c r="O89" t="n">
-        <v>4.973987448506075</v>
+        <v>4.973987448506071</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -5558,13 +5558,13 @@
         <v>1377</v>
       </c>
       <c r="G90" t="n">
-        <v>3.45668488542749</v>
+        <v>3.456684885427826</v>
       </c>
       <c r="H90" t="n">
-        <v>2.045737419211613</v>
+        <v>2.045737419211812</v>
       </c>
       <c r="I90" t="n">
-        <v>-1.151256340098644</v>
+        <v>-1.151256340098756</v>
       </c>
       <c r="J90" t="n">
         <v>504</v>
@@ -5579,10 +5579,10 @@
         <v>265</v>
       </c>
       <c r="N90" t="n">
-        <v>479.5460632470953</v>
+        <v>479.5460632471421</v>
       </c>
       <c r="O90" t="n">
-        <v>7.937796032052367</v>
+        <v>7.937796032052366</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -5615,13 +5615,13 @@
         <v>1377</v>
       </c>
       <c r="G91" t="n">
-        <v>1.359121047844123</v>
+        <v>1.359121047844254</v>
       </c>
       <c r="H91" t="n">
-        <v>1.374096173081504</v>
+        <v>1.374096173081637</v>
       </c>
       <c r="I91" t="n">
-        <v>-1.151256340098644</v>
+        <v>-1.151256340098756</v>
       </c>
       <c r="J91" t="n">
         <v>232</v>
@@ -5636,10 +5636,10 @@
         <v>203</v>
       </c>
       <c r="N91" t="n">
-        <v>200.8531300161848</v>
+        <v>200.8531300162044</v>
       </c>
       <c r="O91" t="n">
-        <v>3.121032439531069</v>
+        <v>3.121032439531066</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -5672,13 +5672,13 @@
         <v>1701</v>
       </c>
       <c r="G92" t="n">
-        <v>3.529203845182259</v>
+        <v>3.529203845182601</v>
       </c>
       <c r="H92" t="n">
-        <v>2.006405844736796</v>
+        <v>2.00640584473699</v>
       </c>
       <c r="I92" t="n">
-        <v>-1.151256340098644</v>
+        <v>-1.151256340098756</v>
       </c>
       <c r="J92" t="n">
         <v>324</v>
@@ -5693,10 +5693,10 @@
         <v>232</v>
       </c>
       <c r="N92" t="n">
-        <v>255.3371914024642</v>
+        <v>255.337191402489</v>
       </c>
       <c r="O92" t="n">
-        <v>8.10432573610978</v>
+        <v>8.104325736109777</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -5729,13 +5729,13 @@
         <v>1981</v>
       </c>
       <c r="G93" t="n">
-        <v>2.874827716655621</v>
+        <v>2.874827716655901</v>
       </c>
       <c r="H93" t="n">
-        <v>1.389594135480828</v>
+        <v>1.389594135480963</v>
       </c>
       <c r="I93" t="n">
-        <v>-1.151256340098644</v>
+        <v>-1.151256340098756</v>
       </c>
       <c r="J93" t="n">
         <v>280</v>
@@ -5750,7 +5750,7 @@
         <v>176</v>
       </c>
       <c r="N93" t="n">
-        <v>300.2251701758053</v>
+        <v>300.2251701758345</v>
       </c>
       <c r="O93" t="n">
         <v>6.601641977348195</v>
@@ -5786,13 +5786,13 @@
         <v>2837</v>
       </c>
       <c r="G94" t="n">
-        <v>1.769050209641534</v>
+        <v>1.769050209641705</v>
       </c>
       <c r="H94" t="n">
-        <v>1.255677201778229</v>
+        <v>1.255677201778351</v>
       </c>
       <c r="I94" t="n">
-        <v>-1.151256340098644</v>
+        <v>-1.151256340098756</v>
       </c>
       <c r="J94" t="n">
         <v>481</v>
@@ -5807,10 +5807,10 @@
         <v>77</v>
       </c>
       <c r="N94" t="n">
-        <v>356.9620896457278</v>
+        <v>356.9620896457626</v>
       </c>
       <c r="O94" t="n">
-        <v>4.062377740531981</v>
+        <v>4.062377740531978</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -5843,13 +5843,13 @@
         <v>783</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9385188600861272</v>
+        <v>0.9385188600862182</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4960842607561405</v>
+        <v>0.4960842607561886</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.8717944968585332</v>
+        <v>-0.8717944968586181</v>
       </c>
       <c r="J95" t="n">
         <v>196</v>
@@ -5864,7 +5864,7 @@
         <v>159</v>
       </c>
       <c r="N95" t="n">
-        <v>138.6078800079457</v>
+        <v>138.6078800079592</v>
       </c>
       <c r="O95" t="n">
         <v>3.96043496266071</v>
@@ -5900,13 +5900,13 @@
         <v>2747</v>
       </c>
       <c r="G96" t="n">
-        <v>1.047942269658267</v>
+        <v>1.047942269658369</v>
       </c>
       <c r="H96" t="n">
-        <v>1.856822109318423</v>
+        <v>1.856822109318604</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.8717944968585332</v>
+        <v>-0.8717944968586181</v>
       </c>
       <c r="J96" t="n">
         <v>289</v>
@@ -5921,7 +5921,7 @@
         <v>259</v>
       </c>
       <c r="N96" t="n">
-        <v>320.5952891094174</v>
+        <v>320.5952891094487</v>
       </c>
       <c r="O96" t="n">
         <v>4.422188386521873</v>
@@ -5957,13 +5957,13 @@
         <v>717</v>
       </c>
       <c r="G97" t="n">
-        <v>1.536190647234413</v>
+        <v>1.536190647234562</v>
       </c>
       <c r="H97" t="n">
-        <v>1.035905031889962</v>
+        <v>1.035905031890062</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J97" t="n">
         <v>380</v>
@@ -5978,10 +5978,10 @@
         <v>277</v>
       </c>
       <c r="N97" t="n">
-        <v>330.7613786955216</v>
+        <v>330.7613786955538</v>
       </c>
       <c r="O97" t="n">
-        <v>6.761243891043751</v>
+        <v>6.761243891043764</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
@@ -6014,13 +6014,13 @@
         <v>945</v>
       </c>
       <c r="G98" t="n">
-        <v>2.771348293034175</v>
+        <v>2.771348293034443</v>
       </c>
       <c r="H98" t="n">
-        <v>2.221265070361736</v>
+        <v>2.221265070361951</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J98" t="n">
         <v>228</v>
@@ -6035,10 +6035,10 @@
         <v>151</v>
       </c>
       <c r="N98" t="n">
-        <v>414.1946306052797</v>
+        <v>414.19463060532</v>
       </c>
       <c r="O98" t="n">
-        <v>12.19754966609465</v>
+        <v>12.19754966609467</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -6071,13 +6071,13 @@
         <v>945</v>
       </c>
       <c r="G99" t="n">
-        <v>1.492283773167177</v>
+        <v>1.492283773167322</v>
       </c>
       <c r="H99" t="n">
-        <v>2.172862541196697</v>
+        <v>2.172862541196908</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J99" t="n">
         <v>114</v>
@@ -6092,10 +6092,10 @@
         <v>84</v>
       </c>
       <c r="N99" t="n">
-        <v>210.5469802971834</v>
+        <v>210.5469802972039</v>
       </c>
       <c r="O99" t="n">
-        <v>6.567996337690677</v>
+        <v>6.567996337690687</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -6128,13 +6128,13 @@
         <v>1020</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6698982360126016</v>
+        <v>0.6698982360126657</v>
       </c>
       <c r="H100" t="n">
-        <v>2.071800202024003</v>
+        <v>2.071800202024205</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J100" t="n">
         <v>75</v>
@@ -6149,10 +6149,10 @@
         <v>15</v>
       </c>
       <c r="N100" t="n">
-        <v>158.5611928034355</v>
+        <v>158.561192803451</v>
       </c>
       <c r="O100" t="n">
-        <v>2.948426592763937</v>
+        <v>2.948426592763938</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -6185,13 +6185,13 @@
         <v>1296</v>
       </c>
       <c r="G101" t="n">
-        <v>4.200323960338874</v>
+        <v>4.200323960339281</v>
       </c>
       <c r="H101" t="n">
-        <v>3.634172580599477</v>
+        <v>3.63417258059983</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J101" t="n">
         <v>351</v>
@@ -6206,10 +6206,10 @@
         <v>243</v>
       </c>
       <c r="N101" t="n">
-        <v>547.9225305519083</v>
+        <v>547.9225305519617</v>
       </c>
       <c r="O101" t="n">
-        <v>18.48690770795477</v>
+        <v>18.4869077079548</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -6242,13 +6242,13 @@
         <v>2240</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6824177627437837</v>
+        <v>0.6824177627438498</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.2136221411490219</v>
+        <v>-0.2136221411490433</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J102" t="n">
         <v>93</v>
@@ -6263,10 +6263,10 @@
         <v>60</v>
       </c>
       <c r="N102" t="n">
-        <v>19.03333045711481</v>
+        <v>19.03333045711668</v>
       </c>
       <c r="O102" t="n">
-        <v>3.003528850925939</v>
+        <v>3.003528850925944</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -6299,13 +6299,13 @@
         <v>2539</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8533558014200756</v>
+        <v>0.8533558014201579</v>
       </c>
       <c r="H103" t="n">
-        <v>0.9835567263808496</v>
+        <v>0.9835567263809449</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J103" t="n">
         <v>124</v>
@@ -6320,10 +6320,10 @@
         <v>93</v>
       </c>
       <c r="N103" t="n">
-        <v>145.8849553554887</v>
+        <v>145.884955355503</v>
       </c>
       <c r="O103" t="n">
-        <v>3.755879330228602</v>
+        <v>3.755879330228606</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -6356,13 +6356,13 @@
         <v>2911</v>
       </c>
       <c r="G104" t="n">
-        <v>2.114379468966802</v>
+        <v>2.114379468967007</v>
       </c>
       <c r="H104" t="n">
-        <v>1.919967924277258</v>
+        <v>1.919967924277445</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J104" t="n">
         <v>372</v>
@@ -6377,10 +6377,10 @@
         <v>305</v>
       </c>
       <c r="N104" t="n">
-        <v>486.9050370355019</v>
+        <v>486.9050370355495</v>
       </c>
       <c r="O104" t="n">
-        <v>9.30602936141862</v>
+        <v>9.306029361418636</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -6413,13 +6413,13 @@
         <v>2712</v>
       </c>
       <c r="G105" t="n">
-        <v>1.167854049228269</v>
+        <v>1.167854049228382</v>
       </c>
       <c r="H105" t="n">
-        <v>1.341752614019198</v>
+        <v>1.341752614019328</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J105" t="n">
         <v>54</v>
@@ -6434,10 +6434,10 @@
         <v>23</v>
       </c>
       <c r="N105" t="n">
-        <v>86.4316667212309</v>
+        <v>86.43166672123931</v>
       </c>
       <c r="O105" t="n">
-        <v>5.140082105167536</v>
+        <v>5.140082105167544</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -6470,13 +6470,13 @@
         <v>2911</v>
       </c>
       <c r="G106" t="n">
-        <v>1.817538945942962</v>
+        <v>1.817538945943138</v>
       </c>
       <c r="H106" t="n">
-        <v>1.814929764885212</v>
+        <v>1.814929764885388</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.8899270275036721</v>
+        <v>-0.8899270275037591</v>
       </c>
       <c r="J106" t="n">
         <v>253</v>
@@ -6491,10 +6491,10 @@
         <v>170</v>
       </c>
       <c r="N106" t="n">
-        <v>265.6884794043431</v>
+        <v>265.688479404369</v>
       </c>
       <c r="O106" t="n">
-        <v>7.999543622475755</v>
+        <v>7.999543622475766</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -6527,13 +6527,13 @@
         <v>866</v>
       </c>
       <c r="G107" t="n">
-        <v>1.604504844767651</v>
+        <v>1.604504844767806</v>
       </c>
       <c r="H107" t="n">
-        <v>1.699629337135055</v>
+        <v>1.69962933713522</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.9121974009896772</v>
+        <v>-0.9121974009896948</v>
       </c>
       <c r="J107" t="n">
         <v>280</v>
@@ -6548,10 +6548,10 @@
         <v>245</v>
       </c>
       <c r="N107" t="n">
-        <v>297.6424252103357</v>
+        <v>297.6424252103447</v>
       </c>
       <c r="O107" t="n">
-        <v>6.447231933130519</v>
+        <v>6.447231933130536</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -6584,13 +6584,13 @@
         <v>1264</v>
       </c>
       <c r="G108" t="n">
-        <v>3.29695798833782</v>
+        <v>3.296957988338141</v>
       </c>
       <c r="H108" t="n">
-        <v>2.369194660450418</v>
+        <v>2.369194660450649</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.9121974009896772</v>
+        <v>-0.9121974009896948</v>
       </c>
       <c r="J108" t="n">
         <v>398</v>
@@ -6605,10 +6605,10 @@
         <v>242</v>
       </c>
       <c r="N108" t="n">
-        <v>295.4907965791212</v>
+        <v>295.4907965791216</v>
       </c>
       <c r="O108" t="n">
-        <v>13.24785829966096</v>
+        <v>13.24785829966101</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -6641,13 +6641,13 @@
         <v>2610</v>
       </c>
       <c r="G109" t="n">
-        <v>1.318941829554985</v>
+        <v>1.318941829555112</v>
       </c>
       <c r="H109" t="n">
-        <v>1.95490324359432</v>
+        <v>1.95490324359451</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.9121974009896772</v>
+        <v>-0.9121974009896948</v>
       </c>
       <c r="J109" t="n">
         <v>244</v>
@@ -6662,10 +6662,10 @@
         <v>214</v>
       </c>
       <c r="N109" t="n">
-        <v>329.4103789258918</v>
+        <v>329.4103789259065</v>
       </c>
       <c r="O109" t="n">
-        <v>5.299780744931243</v>
+        <v>5.299780744931256</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         <v>2801</v>
       </c>
       <c r="G110" t="n">
-        <v>1.528578501675649</v>
+        <v>1.528578501675797</v>
       </c>
       <c r="H110" t="n">
-        <v>1.721951397524356</v>
+        <v>1.721951397524523</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.9121974009896772</v>
+        <v>-0.9121974009896948</v>
       </c>
       <c r="J110" t="n">
         <v>191</v>
@@ -6719,10 +6719,10 @@
         <v>82</v>
       </c>
       <c r="N110" t="n">
-        <v>258.624181394586</v>
+        <v>258.6241813945976</v>
       </c>
       <c r="O110" t="n">
-        <v>6.142144201332823</v>
+        <v>6.142144201332841</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
@@ -6755,13 +6755,13 @@
         <v>2979</v>
       </c>
       <c r="G111" t="n">
-        <v>2.643207426804524</v>
+        <v>2.643207426804764</v>
       </c>
       <c r="H111" t="n">
-        <v>2.468836122883456</v>
+        <v>2.468836122883697</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.9121974009896772</v>
+        <v>-0.9121974009896948</v>
       </c>
       <c r="J111" t="n">
         <v>369</v>
@@ -6776,10 +6776,10 @@
         <v>121</v>
       </c>
       <c r="N111" t="n">
-        <v>597.6670014711415</v>
+        <v>597.6670014711735</v>
       </c>
       <c r="O111" t="n">
-        <v>10.62095348827048</v>
+        <v>10.62095348827045</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -6812,13 +6812,13 @@
         <v>700</v>
       </c>
       <c r="G112" t="n">
-        <v>1.844393373331903</v>
+        <v>1.844393373332082</v>
       </c>
       <c r="H112" t="n">
-        <v>2.246243901628405</v>
+        <v>2.246243901628624</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.9490742839741114</v>
+        <v>-0.9490742839742039</v>
       </c>
       <c r="J112" t="n">
         <v>180</v>
@@ -6833,10 +6833,10 @@
         <v>141</v>
       </c>
       <c r="N112" t="n">
-        <v>364.8973347049834</v>
+        <v>364.8973347050189</v>
       </c>
       <c r="O112" t="n">
-        <v>6.6967615618391</v>
+        <v>6.696761561839108</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -6869,13 +6869,13 @@
         <v>1253</v>
       </c>
       <c r="G113" t="n">
-        <v>2.775154487446628</v>
+        <v>2.775154487446896</v>
       </c>
       <c r="H113" t="n">
-        <v>2.800332010368848</v>
+        <v>2.800332010369119</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.9490742839741114</v>
+        <v>-0.9490742839742039</v>
       </c>
       <c r="J113" t="n">
         <v>553</v>
@@ -6890,10 +6890,10 @@
         <v>423</v>
       </c>
       <c r="N113" t="n">
-        <v>715.7284314320165</v>
+        <v>715.7284314320862</v>
       </c>
       <c r="O113" t="n">
-        <v>10.07623870721505</v>
+        <v>10.07623870721506</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -6926,13 +6926,13 @@
         <v>1253</v>
       </c>
       <c r="G114" t="n">
-        <v>2.42645128544208</v>
+        <v>2.426451285442315</v>
       </c>
       <c r="H114" t="n">
-        <v>1.639373159460076</v>
+        <v>1.639373159460236</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.9490742839741114</v>
+        <v>-0.9490742839742039</v>
       </c>
       <c r="J114" t="n">
         <v>251</v>
@@ -6947,10 +6947,10 @@
         <v>216</v>
       </c>
       <c r="N114" t="n">
-        <v>149.4309014547105</v>
+        <v>149.4309014547251</v>
       </c>
       <c r="O114" t="n">
-        <v>8.810141011659057</v>
+        <v>8.81014101165907</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -6983,13 +6983,13 @@
         <v>479</v>
       </c>
       <c r="G115" t="n">
-        <v>1.956213056088422</v>
+        <v>1.956213056088612</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9572331873651334</v>
+        <v>0.9572331873652266</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.9985824781098931</v>
+        <v>-0.9985824781099902</v>
       </c>
       <c r="J115" t="n">
         <v>479</v>
@@ -7004,7 +7004,7 @@
         <v>168</v>
       </c>
       <c r="N115" t="n">
-        <v>422.2280917927155</v>
+        <v>422.2280917927583</v>
       </c>
       <c r="O115" t="n">
         <v>3.07802678684472</v>
@@ -7040,13 +7040,13 @@
         <v>1002</v>
       </c>
       <c r="G116" t="n">
-        <v>1.67918313894312</v>
+        <v>1.679183138943282</v>
       </c>
       <c r="H116" t="n">
-        <v>0.7425233043252355</v>
+        <v>0.7425233043253074</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.9985824781098931</v>
+        <v>-0.9985824781099902</v>
       </c>
       <c r="J116" t="n">
         <v>203</v>
@@ -7061,10 +7061,10 @@
         <v>58</v>
       </c>
       <c r="N116" t="n">
-        <v>168.7669913275672</v>
+        <v>168.7669913275836</v>
       </c>
       <c r="O116" t="n">
-        <v>2.642130756462603</v>
+        <v>2.642130756462602</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -7097,13 +7097,13 @@
         <v>1261</v>
       </c>
       <c r="G117" t="n">
-        <v>2.390450493294179</v>
+        <v>2.390450493294411</v>
       </c>
       <c r="H117" t="n">
-        <v>1.360516989487488</v>
+        <v>1.360516989487621</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.9985824781098931</v>
+        <v>-0.9985824781099902</v>
       </c>
       <c r="J117" t="n">
         <v>462</v>
@@ -7118,10 +7118,10 @@
         <v>225</v>
       </c>
       <c r="N117" t="n">
-        <v>202.9021571674039</v>
+        <v>202.9021571674235</v>
       </c>
       <c r="O117" t="n">
-        <v>3.761282866447181</v>
+        <v>3.76128286644718</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
@@ -7154,13 +7154,13 @@
         <v>1704</v>
       </c>
       <c r="G118" t="n">
-        <v>1.772982468082756</v>
+        <v>1.772982468082928</v>
       </c>
       <c r="H118" t="n">
-        <v>0.9443802990564485</v>
+        <v>0.9443802990565401</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.9985824781098931</v>
+        <v>-0.9985824781099902</v>
       </c>
       <c r="J118" t="n">
         <v>443</v>
@@ -7175,10 +7175,10 @@
         <v>193</v>
       </c>
       <c r="N118" t="n">
-        <v>203.3823142941174</v>
+        <v>203.3823142941371</v>
       </c>
       <c r="O118" t="n">
-        <v>2.789720430696335</v>
+        <v>2.789720430696334</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -7211,13 +7211,13 @@
         <v>2803</v>
       </c>
       <c r="G119" t="n">
-        <v>1.785810168529968</v>
+        <v>1.785810168530141</v>
       </c>
       <c r="H119" t="n">
-        <v>1.187281779971066</v>
+        <v>1.187281779971181</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.9985824781098931</v>
+        <v>-0.9985824781099902</v>
       </c>
       <c r="J119" t="n">
         <v>516</v>
@@ -7232,10 +7232,10 @@
         <v>453</v>
       </c>
       <c r="N119" t="n">
-        <v>563.1445971346627</v>
+        <v>563.1445971347175</v>
       </c>
       <c r="O119" t="n">
-        <v>2.809904329105177</v>
+        <v>2.809904329105176</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
@@ -7268,19 +7268,19 @@
         <v>340</v>
       </c>
       <c r="G120" t="n">
-        <v>2.08568606188859</v>
+        <v>2.085686061888838</v>
       </c>
       <c r="H120" t="n">
-        <v>2.54089654824003</v>
+        <v>2.540896548240277</v>
       </c>
       <c r="I120" t="n">
-        <v>-1.049020985051814</v>
+        <v>-1.049020985051916</v>
       </c>
       <c r="J120" t="n">
         <v>318</v>
       </c>
       <c r="K120" t="n">
-        <v>65.1684620139566</v>
+        <v>65.16846201395745</v>
       </c>
       <c r="L120" t="n">
         <v>140</v>
@@ -7289,10 +7289,10 @@
         <v>180</v>
       </c>
       <c r="N120" t="n">
-        <v>778.9311032356123</v>
+        <v>778.9311032356882</v>
       </c>
       <c r="O120" t="n">
-        <v>6.213769673186065</v>
+        <v>6.213769673186195</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
@@ -7325,13 +7325,13 @@
         <v>1107</v>
       </c>
       <c r="G121" t="n">
-        <v>1.538156133550972</v>
+        <v>1.538156133551122</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5923612312486509</v>
+        <v>0.5923612312487084</v>
       </c>
       <c r="I121" t="n">
-        <v>-1.049020985051814</v>
+        <v>-1.049020985051916</v>
       </c>
       <c r="J121" t="n">
         <v>259</v>
@@ -7346,10 +7346,10 @@
         <v>147</v>
       </c>
       <c r="N121" t="n">
-        <v>208.7171812513907</v>
+        <v>208.7171812514111</v>
       </c>
       <c r="O121" t="n">
-        <v>4.582543897632234</v>
+        <v>4.582543897632232</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
@@ -7382,13 +7382,13 @@
         <v>1349</v>
       </c>
       <c r="G122" t="n">
-        <v>1.866434596917002</v>
+        <v>1.866434596917183</v>
       </c>
       <c r="H122" t="n">
-        <v>0.8478457288166712</v>
+        <v>0.8478457288167535</v>
       </c>
       <c r="I122" t="n">
-        <v>-1.049020985051814</v>
+        <v>-1.049020985051916</v>
       </c>
       <c r="J122" t="n">
         <v>242</v>
@@ -7403,10 +7403,10 @@
         <v>206</v>
       </c>
       <c r="N122" t="n">
-        <v>185.8368406683904</v>
+        <v>185.8368406684085</v>
       </c>
       <c r="O122" t="n">
-        <v>5.560565852756619</v>
+        <v>5.560565852756615</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -7439,13 +7439,13 @@
         <v>1708</v>
       </c>
       <c r="G123" t="n">
-        <v>1.467302330322502</v>
+        <v>1.467302330322644</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4987973380195655</v>
+        <v>0.4987973380196137</v>
       </c>
       <c r="I123" t="n">
-        <v>-1.049020985051814</v>
+        <v>-1.049020985051916</v>
       </c>
       <c r="J123" t="n">
         <v>359</v>
@@ -7460,10 +7460,10 @@
         <v>328</v>
       </c>
       <c r="N123" t="n">
-        <v>308.2024950959482</v>
+        <v>308.2024950959782</v>
       </c>
       <c r="O123" t="n">
-        <v>4.371453061971044</v>
+        <v>4.371453061971041</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
@@ -7496,13 +7496,13 @@
         <v>2595</v>
       </c>
       <c r="G124" t="n">
-        <v>1.673663037150565</v>
+        <v>1.673663037150727</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4625868222822335</v>
+        <v>0.4625868222822779</v>
       </c>
       <c r="I124" t="n">
-        <v>-1.049020985051814</v>
+        <v>-1.049020985051916</v>
       </c>
       <c r="J124" t="n">
         <v>329</v>
@@ -7517,10 +7517,10 @@
         <v>94</v>
       </c>
       <c r="N124" t="n">
-        <v>44.00123551163838</v>
+        <v>44.00123551164268</v>
       </c>
       <c r="O124" t="n">
-        <v>4.986252156262519</v>
+        <v>4.986252156262514</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
@@ -7553,13 +7553,13 @@
         <v>582</v>
       </c>
       <c r="G125" t="n">
-        <v>1.775045312893011</v>
+        <v>1.775045312893183</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6117029169957741</v>
+        <v>0.611702916995833</v>
       </c>
       <c r="I125" t="n">
-        <v>-1.136264200068464</v>
+        <v>-1.136264200068574</v>
       </c>
       <c r="J125" t="n">
         <v>483</v>
@@ -7574,10 +7574,10 @@
         <v>178</v>
       </c>
       <c r="N125" t="n">
-        <v>105.3565457998614</v>
+        <v>105.3565457998717</v>
       </c>
       <c r="O125" t="n">
-        <v>5.451700860030969</v>
+        <v>5.451700860030972</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
@@ -7610,13 +7610,13 @@
         <v>1467</v>
       </c>
       <c r="G126" t="n">
-        <v>2.902950741110354</v>
+        <v>2.902950741110637</v>
       </c>
       <c r="H126" t="n">
-        <v>1.862299918648672</v>
+        <v>1.862299918648854</v>
       </c>
       <c r="I126" t="n">
-        <v>-1.136264200068464</v>
+        <v>-1.136264200068574</v>
       </c>
       <c r="J126" t="n">
         <v>282</v>
@@ -7631,10 +7631,10 @@
         <v>165</v>
       </c>
       <c r="N126" t="n">
-        <v>417.5719292131054</v>
+        <v>417.5719292131461</v>
       </c>
       <c r="O126" t="n">
-        <v>8.915839464484</v>
+        <v>8.915839464484009</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         <v>1851</v>
       </c>
       <c r="G127" t="n">
-        <v>2.284570048463986</v>
+        <v>2.284570048464208</v>
       </c>
       <c r="H127" t="n">
-        <v>1.48403878859074</v>
+        <v>1.484038788590885</v>
       </c>
       <c r="I127" t="n">
-        <v>-1.136264200068464</v>
+        <v>-1.136264200068574</v>
       </c>
       <c r="J127" t="n">
         <v>384</v>
@@ -7688,10 +7688,10 @@
         <v>349</v>
       </c>
       <c r="N127" t="n">
-        <v>408.0277186843643</v>
+        <v>408.0277186844041</v>
       </c>
       <c r="O127" t="n">
-        <v>7.016605383280604</v>
+        <v>7.01660538328061</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -7724,13 +7724,13 @@
         <v>1951</v>
       </c>
       <c r="G128" t="n">
-        <v>1.881273442370409</v>
+        <v>1.881273442370591</v>
       </c>
       <c r="H128" t="n">
-        <v>1.731488338094852</v>
+        <v>1.73148833809502</v>
       </c>
       <c r="I128" t="n">
-        <v>-1.136264200068464</v>
+        <v>-1.136264200068574</v>
       </c>
       <c r="J128" t="n">
         <v>484</v>
@@ -7745,10 +7745,10 @@
         <v>66</v>
       </c>
       <c r="N128" t="n">
-        <v>583.1342788087411</v>
+        <v>583.1342788087979</v>
       </c>
       <c r="O128" t="n">
-        <v>5.777959564879209</v>
+        <v>5.777959564879211</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -7781,13 +7781,13 @@
         <v>2225</v>
       </c>
       <c r="G129" t="n">
-        <v>0.810375507905553</v>
+        <v>0.8103755079056318</v>
       </c>
       <c r="H129" t="n">
-        <v>1.962936934015811</v>
+        <v>1.962936934016002</v>
       </c>
       <c r="I129" t="n">
-        <v>-1.136264200068464</v>
+        <v>-1.136264200068574</v>
       </c>
       <c r="J129" t="n">
         <v>198</v>
@@ -7802,10 +7802,10 @@
         <v>166</v>
       </c>
       <c r="N129" t="n">
-        <v>376.8584296362338</v>
+        <v>376.8584296362707</v>
       </c>
       <c r="O129" t="n">
-        <v>2.488908210571987</v>
+        <v>2.488908210571989</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -7838,13 +7838,13 @@
         <v>2491</v>
       </c>
       <c r="G130" t="n">
-        <v>2.072314004096159</v>
+        <v>2.072314004096361</v>
       </c>
       <c r="H130" t="n">
-        <v>2.0270417758036</v>
+        <v>2.027041775803797</v>
       </c>
       <c r="I130" t="n">
-        <v>-1.136264200068464</v>
+        <v>-1.136264200068574</v>
       </c>
       <c r="J130" t="n">
         <v>266</v>
@@ -7859,10 +7859,10 @@
         <v>231</v>
       </c>
       <c r="N130" t="n">
-        <v>486.8761381316453</v>
+        <v>486.8761381316928</v>
       </c>
       <c r="O130" t="n">
-        <v>6.364702893117753</v>
+        <v>6.364702893117757</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -7895,13 +7895,13 @@
         <v>798</v>
       </c>
       <c r="G131" t="n">
-        <v>0.7063033524381788</v>
+        <v>0.7063033524382472</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.03271128879312606</v>
+        <v>-0.0327112887931294</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.5614637023195437</v>
+        <v>-0.5614637023195983</v>
       </c>
       <c r="J131" t="n">
         <v>392</v>
@@ -7916,10 +7916,10 @@
         <v>182</v>
       </c>
       <c r="N131" t="n">
-        <v>70.19041976310662</v>
+        <v>70.19041976311341</v>
       </c>
       <c r="O131" t="n">
-        <v>4.429594456841611</v>
+        <v>4.429594456841608</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -7952,19 +7952,19 @@
         <v>1115</v>
       </c>
       <c r="G132" t="n">
-        <v>1.052176825537055</v>
+        <v>1.052176825537157</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1219833416852511</v>
+        <v>0.1219833416852627</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.5614637023195437</v>
+        <v>-0.5614637023195983</v>
       </c>
       <c r="J132" t="n">
         <v>317</v>
       </c>
       <c r="K132" t="n">
-        <v>117.5881046015714</v>
+        <v>117.5881046015716</v>
       </c>
       <c r="L132" t="n">
         <v>145</v>
@@ -7973,10 +7973,10 @@
         <v>174</v>
       </c>
       <c r="N132" t="n">
-        <v>24.83248268418538</v>
+        <v>24.83248268418776</v>
       </c>
       <c r="O132" t="n">
-        <v>6.598746300618878</v>
+        <v>6.598746300618873</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -8009,13 +8009,13 @@
         <v>1489</v>
       </c>
       <c r="G133" t="n">
-        <v>0.8051534924756306</v>
+        <v>0.8051534924757084</v>
       </c>
       <c r="H133" t="n">
-        <v>0.121000335906533</v>
+        <v>0.1210003359065446</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.5614637023195437</v>
+        <v>-0.5614637023195983</v>
       </c>
       <c r="J133" t="n">
         <v>374</v>
@@ -8030,10 +8030,10 @@
         <v>301</v>
       </c>
       <c r="N133" t="n">
-        <v>103.2304658954957</v>
+        <v>103.2304658955057</v>
       </c>
       <c r="O133" t="n">
-        <v>5.049534926975851</v>
+        <v>5.049534926975846</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
@@ -8066,13 +8066,13 @@
         <v>1489</v>
       </c>
       <c r="G134" t="n">
-        <v>0.448410645608995</v>
+        <v>0.4484106456090385</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.1261014652485099</v>
+        <v>-0.1261014652485223</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.5614637023195437</v>
+        <v>-0.5614637023195983</v>
       </c>
       <c r="J134" t="n">
         <v>104</v>
@@ -8087,10 +8087,10 @@
         <v>59</v>
       </c>
       <c r="N134" t="n">
-        <v>20.9067903096775</v>
+        <v>20.90679030967953</v>
       </c>
       <c r="O134" t="n">
-        <v>2.812215605832378</v>
+        <v>2.812215605832377</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -8123,13 +8123,13 @@
         <v>1849</v>
       </c>
       <c r="G135" t="n">
-        <v>0.5640446939604151</v>
+        <v>0.5640446939604696</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4526359321085016</v>
+        <v>0.4526359321085456</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.5614637023195437</v>
+        <v>-0.5614637023195983</v>
       </c>
       <c r="J135" t="n">
         <v>304</v>
@@ -8144,10 +8144,10 @@
         <v>212</v>
       </c>
       <c r="N135" t="n">
-        <v>127.6803329220733</v>
+        <v>127.6803329220857</v>
       </c>
       <c r="O135" t="n">
-        <v>3.537416665449943</v>
+        <v>3.537416665449939</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -8180,13 +8180,13 @@
         <v>2614</v>
       </c>
       <c r="G136" t="n">
-        <v>0.6111755482845151</v>
+        <v>0.6111755482845742</v>
       </c>
       <c r="H136" t="n">
-        <v>0.02852945830226347</v>
+        <v>0.02852945830226603</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.5614637023195437</v>
+        <v>-0.5614637023195983</v>
       </c>
       <c r="J136" t="n">
         <v>364</v>
@@ -8201,10 +8201,10 @@
         <v>82</v>
       </c>
       <c r="N136" t="n">
-        <v>91.43348182912386</v>
+        <v>91.43348182913275</v>
       </c>
       <c r="O136" t="n">
-        <v>3.83299868461998</v>
+        <v>3.832998684619976</v>
       </c>
       <c r="P136" t="inlineStr">
         <is>
@@ -8237,19 +8237,19 @@
         <v>397</v>
       </c>
       <c r="G137" t="n">
-        <v>2.316866967653353</v>
+        <v>2.316866967653578</v>
       </c>
       <c r="H137" t="n">
-        <v>1.681771362696304</v>
+        <v>1.681771362696467</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.8071632206279604</v>
+        <v>-0.8071632206280391</v>
       </c>
       <c r="J137" t="n">
         <v>279</v>
       </c>
       <c r="K137" t="n">
-        <v>43.30463149124117</v>
+        <v>43.3046314912412</v>
       </c>
       <c r="L137" t="n">
         <v>100</v>
@@ -8258,10 +8258,10 @@
         <v>181</v>
       </c>
       <c r="N137" t="n">
-        <v>236.8040224636846</v>
+        <v>236.8040224637077</v>
       </c>
       <c r="O137" t="n">
-        <v>11.19139600225833</v>
+        <v>11.19139600225828</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -8294,13 +8294,13 @@
         <v>1298</v>
       </c>
       <c r="G138" t="n">
-        <v>1.049221592704362</v>
+        <v>1.049221592704463</v>
       </c>
       <c r="H138" t="n">
-        <v>2.660788472703693</v>
+        <v>2.660788472703952</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.8071632206279604</v>
+        <v>-0.8071632206280391</v>
       </c>
       <c r="J138" t="n">
         <v>129</v>
@@ -8315,10 +8315,10 @@
         <v>79</v>
       </c>
       <c r="N138" t="n">
-        <v>297.4125868225677</v>
+        <v>297.4125868225967</v>
       </c>
       <c r="O138" t="n">
-        <v>5.068160797323592</v>
+        <v>5.068160797323565</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
@@ -8351,13 +8351,13 @@
         <v>2239</v>
       </c>
       <c r="G139" t="n">
-        <v>1.215188217734832</v>
+        <v>1.21518821773495</v>
       </c>
       <c r="H139" t="n">
-        <v>0.2078540354040078</v>
+        <v>0.2078540354040278</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.8071632206279604</v>
+        <v>-0.8071632206280391</v>
       </c>
       <c r="J139" t="n">
         <v>434</v>
@@ -8372,10 +8372,10 @@
         <v>270</v>
       </c>
       <c r="N139" t="n">
-        <v>103.0729293985265</v>
+        <v>103.0729293985366</v>
       </c>
       <c r="O139" t="n">
-        <v>5.86984611193429</v>
+        <v>5.869846111934261</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
@@ -8408,13 +8408,13 @@
         <v>641</v>
       </c>
       <c r="G140" t="n">
-        <v>0.9437464644879245</v>
+        <v>0.9437464644880161</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1347176287886902</v>
+        <v>0.134717628788703</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.8324993584338725</v>
+        <v>-0.8324993584339535</v>
       </c>
       <c r="J140" t="n">
         <v>526</v>
@@ -8429,10 +8429,10 @@
         <v>233</v>
       </c>
       <c r="N140" t="n">
-        <v>229.3502416376094</v>
+        <v>229.3502416376317</v>
       </c>
       <c r="O140" t="n">
-        <v>3.823506893961532</v>
+        <v>3.823506893961521</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -8465,13 +8465,13 @@
         <v>779</v>
       </c>
       <c r="G141" t="n">
-        <v>1.945252826639064</v>
+        <v>1.945252826639252</v>
       </c>
       <c r="H141" t="n">
-        <v>1.056613660939758</v>
+        <v>1.05661366093986</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.8324993584338725</v>
+        <v>-0.8324993584339535</v>
       </c>
       <c r="J141" t="n">
         <v>138</v>
@@ -8486,10 +8486,10 @@
         <v>104</v>
       </c>
       <c r="N141" t="n">
-        <v>122.0304578979687</v>
+        <v>122.0304578979806</v>
       </c>
       <c r="O141" t="n">
-        <v>7.881023000375738</v>
+        <v>7.881023000375714</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
@@ -8522,13 +8522,13 @@
         <v>1499</v>
       </c>
       <c r="G142" t="n">
-        <v>1.369318412821052</v>
+        <v>1.369318412821184</v>
       </c>
       <c r="H142" t="n">
-        <v>0.3048887859965513</v>
+        <v>0.3048887859965809</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.8324993584338725</v>
+        <v>-0.8324993584339535</v>
       </c>
       <c r="J142" t="n">
         <v>235</v>
@@ -8543,10 +8543,10 @@
         <v>103</v>
       </c>
       <c r="N142" t="n">
-        <v>59.25381005107523</v>
+        <v>59.25381005108099</v>
       </c>
       <c r="O142" t="n">
-        <v>5.547674707624556</v>
+        <v>5.547674707624537</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -8579,13 +8579,13 @@
         <v>1628</v>
       </c>
       <c r="G143" t="n">
-        <v>1.470163784537897</v>
+        <v>1.470163784538039</v>
       </c>
       <c r="H143" t="n">
-        <v>1.239189553142739</v>
+        <v>1.23918955314286</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.8324993584338725</v>
+        <v>-0.8324993584339535</v>
       </c>
       <c r="J143" t="n">
         <v>364</v>
@@ -8600,10 +8600,10 @@
         <v>95</v>
       </c>
       <c r="N143" t="n">
-        <v>220.0919657459132</v>
+        <v>220.0919657459346</v>
       </c>
       <c r="O143" t="n">
-        <v>5.95624097885577</v>
+        <v>5.956240978855748</v>
       </c>
       <c r="P143" t="inlineStr">
         <is>
@@ -8636,13 +8636,13 @@
         <v>2268</v>
       </c>
       <c r="G144" t="n">
-        <v>3.078785965446031</v>
+        <v>3.07878596544633</v>
       </c>
       <c r="H144" t="n">
-        <v>3.16846120034512</v>
+        <v>3.168461200345428</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.8324993584338725</v>
+        <v>-0.8324993584339535</v>
       </c>
       <c r="J144" t="n">
         <v>532</v>
@@ -8657,10 +8657,10 @@
         <v>444</v>
       </c>
       <c r="N144" t="n">
-        <v>348.0915659476313</v>
+        <v>348.0915659476652</v>
       </c>
       <c r="O144" t="n">
-        <v>12.47343413392521</v>
+        <v>12.47343413392517</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -8693,13 +8693,13 @@
         <v>2422</v>
       </c>
       <c r="G145" t="n">
-        <v>1.989561039398013</v>
+        <v>1.989561039398206</v>
       </c>
       <c r="H145" t="n">
-        <v>1.014220359199988</v>
+        <v>1.014220359200086</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.8324993584338725</v>
+        <v>-0.8324993584339535</v>
       </c>
       <c r="J145" t="n">
         <v>154</v>
@@ -8714,10 +8714,10 @@
         <v>119</v>
       </c>
       <c r="N145" t="n">
-        <v>103.8321337383938</v>
+        <v>103.8321337384039</v>
       </c>
       <c r="O145" t="n">
-        <v>8.060533878898477</v>
+        <v>8.060533878898454</v>
       </c>
       <c r="P145" t="inlineStr">
         <is>
@@ -8750,19 +8750,19 @@
         <v>2590</v>
       </c>
       <c r="G146" t="n">
-        <v>0.7672193514182405</v>
+        <v>0.7672193514183145</v>
       </c>
       <c r="H146" t="n">
-        <v>0.01343694068349403</v>
+        <v>0.01343694068349515</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.8324993584338725</v>
+        <v>-0.8324993584339535</v>
       </c>
       <c r="J146" t="n">
         <v>168</v>
       </c>
       <c r="K146" t="n">
-        <v>54.01399196483726</v>
+        <v>54.0139919648368</v>
       </c>
       <c r="L146" t="n">
         <v>49</v>
@@ -8771,10 +8771,10 @@
         <v>121</v>
       </c>
       <c r="N146" t="n">
-        <v>81.64107827255788</v>
+        <v>81.64107827256581</v>
       </c>
       <c r="O146" t="n">
-        <v>3.108322615989914</v>
+        <v>3.108322615989903</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -8807,13 +8807,13 @@
         <v>2998</v>
       </c>
       <c r="G147" t="n">
-        <v>0.6895629090978201</v>
+        <v>0.6895629090978868</v>
       </c>
       <c r="H147" t="n">
-        <v>0.2827662456263723</v>
+        <v>0.2827662456263995</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.8324993584338725</v>
+        <v>-0.8324993584339535</v>
       </c>
       <c r="J147" t="n">
         <v>138</v>
@@ -8828,10 +8828,10 @@
         <v>112</v>
       </c>
       <c r="N147" t="n">
-        <v>73.2032110077116</v>
+        <v>73.20321100772021</v>
       </c>
       <c r="O147" t="n">
-        <v>2.793704279661882</v>
+        <v>2.793704279661872</v>
       </c>
       <c r="P147" t="inlineStr">
         <is>
@@ -8864,19 +8864,19 @@
         <v>417</v>
       </c>
       <c r="G148" t="n">
-        <v>3.792780512184364</v>
+        <v>3.792780512184615</v>
       </c>
       <c r="H148" t="n">
-        <v>2.580307470220195</v>
+        <v>2.580307470220446</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.850829270136799</v>
+        <v>-0.8508292701368818</v>
       </c>
       <c r="J148" t="n">
         <v>417</v>
       </c>
       <c r="K148" t="n">
-        <v>94.33283073023384</v>
+        <v>94.33283073023267</v>
       </c>
       <c r="L148" t="n">
         <v>203</v>
@@ -8885,10 +8885,10 @@
         <v>216</v>
       </c>
       <c r="N148" t="n">
-        <v>335.2384350743677</v>
+        <v>335.2384350744022</v>
       </c>
       <c r="O148" t="n">
-        <v>10.62658278374409</v>
+        <v>10.62658278374379</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -8921,13 +8921,13 @@
         <v>417</v>
       </c>
       <c r="G149" t="n">
-        <v>0.9521524470275042</v>
+        <v>0.9521524470275963</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02004073047785266</v>
+        <v>0.02004073047785419</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.850829270136799</v>
+        <v>-0.8508292701368818</v>
       </c>
       <c r="J149" t="n">
         <v>120</v>
@@ -8942,10 +8942,10 @@
         <v>43</v>
       </c>
       <c r="N149" t="n">
-        <v>24.00092708116654</v>
+        <v>24.00092708116886</v>
       </c>
       <c r="O149" t="n">
-        <v>2.667733281316347</v>
+        <v>2.667733281316352</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -8978,19 +8978,19 @@
         <v>1203</v>
       </c>
       <c r="G150" t="n">
-        <v>3.57224139649547</v>
+        <v>3.572241396495817</v>
       </c>
       <c r="H150" t="n">
-        <v>2.7219937498386</v>
+        <v>2.721993749838863</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.850829270136799</v>
+        <v>-0.8508292701368818</v>
       </c>
       <c r="J150" t="n">
         <v>222</v>
       </c>
       <c r="K150" t="n">
-        <v>35.42931853485288</v>
+        <v>35.42931853485311</v>
       </c>
       <c r="L150" t="n">
         <v>103</v>
@@ -8999,10 +8999,10 @@
         <v>121</v>
       </c>
       <c r="N150" t="n">
-        <v>99.66461217820064</v>
+        <v>99.66461217821032</v>
       </c>
       <c r="O150" t="n">
-        <v>10.00867801377574</v>
+        <v>10.00867801377576</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -9035,13 +9035,13 @@
         <v>1713</v>
       </c>
       <c r="G151" t="n">
-        <v>1.030356273509363</v>
+        <v>1.030356273509462</v>
       </c>
       <c r="H151" t="n">
-        <v>0.7050993318919833</v>
+        <v>0.7050993318920517</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.850829270136799</v>
+        <v>-0.8508292701368818</v>
       </c>
       <c r="J151" t="n">
         <v>510</v>
@@ -9056,10 +9056,10 @@
         <v>37</v>
       </c>
       <c r="N151" t="n">
-        <v>201.9981922139229</v>
+        <v>201.9981922139424</v>
       </c>
       <c r="O151" t="n">
-        <v>2.886844150886918</v>
+        <v>2.886844150886922</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
@@ -9092,13 +9092,13 @@
         <v>1035</v>
       </c>
       <c r="G152" t="n">
-        <v>1.140498570847211</v>
+        <v>1.140498570847322</v>
       </c>
       <c r="H152" t="n">
-        <v>0.1061906048156245</v>
+        <v>0.1061906048156346</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.8581983240899487</v>
+        <v>-0.8581983240900324</v>
       </c>
       <c r="J152" t="n">
         <v>244</v>
@@ -9113,10 +9113,10 @@
         <v>125</v>
       </c>
       <c r="N152" t="n">
-        <v>50.91548927634483</v>
+        <v>50.9154892763498</v>
       </c>
       <c r="O152" t="n">
-        <v>4.786534415645817</v>
+        <v>4.786534415645846</v>
       </c>
       <c r="P152" t="inlineStr">
         <is>
@@ -9149,13 +9149,13 @@
         <v>1904</v>
       </c>
       <c r="G153" t="n">
-        <v>1.208263661191747</v>
+        <v>1.208263661191864</v>
       </c>
       <c r="H153" t="n">
-        <v>0.2408446788740751</v>
+        <v>0.2408446788740981</v>
       </c>
       <c r="I153" t="n">
-        <v>-0.8581983240899487</v>
+        <v>-0.8581983240900324</v>
       </c>
       <c r="J153" t="n">
         <v>156</v>
@@ -9170,10 +9170,10 @@
         <v>49</v>
       </c>
       <c r="N153" t="n">
-        <v>57.13586069085731</v>
+        <v>57.13586069086289</v>
       </c>
       <c r="O153" t="n">
-        <v>5.070936295143589</v>
+        <v>5.070936295143621</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
@@ -9206,13 +9206,13 @@
         <v>709</v>
       </c>
       <c r="G154" t="n">
-        <v>1.847705574977234</v>
+        <v>1.847705574977413</v>
       </c>
       <c r="H154" t="n">
-        <v>0.8958649960571065</v>
+        <v>0.8958649960571933</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.9521119175674047</v>
+        <v>-0.9521119175674976</v>
       </c>
       <c r="J154" t="n">
         <v>397</v>
@@ -9227,10 +9227,10 @@
         <v>361</v>
       </c>
       <c r="N154" t="n">
-        <v>340.5140682594458</v>
+        <v>340.514068259479</v>
       </c>
       <c r="O154" t="n">
-        <v>6.312866473256957</v>
+        <v>6.312866473256939</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -9263,13 +9263,13 @@
         <v>709</v>
       </c>
       <c r="G155" t="n">
-        <v>1.269211710420201</v>
+        <v>1.269211710420324</v>
       </c>
       <c r="H155" t="n">
-        <v>0.6570603082626504</v>
+        <v>0.6570603082627141</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.9521119175674047</v>
+        <v>-0.9521119175674976</v>
       </c>
       <c r="J155" t="n">
         <v>243</v>
@@ -9284,10 +9284,10 @@
         <v>210</v>
       </c>
       <c r="N155" t="n">
-        <v>194.583942782499</v>
+        <v>194.583942782518</v>
       </c>
       <c r="O155" t="n">
-        <v>4.336385711384524</v>
+        <v>4.336385711384511</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
@@ -9320,13 +9320,13 @@
         <v>871</v>
       </c>
       <c r="G156" t="n">
-        <v>2.354500212764365</v>
+        <v>2.354500212764593</v>
       </c>
       <c r="H156" t="n">
-        <v>1.328536850485883</v>
+        <v>1.328536850486012</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.9521119175674047</v>
+        <v>-0.9521119175674976</v>
       </c>
       <c r="J156" t="n">
         <v>162</v>
@@ -9341,10 +9341,10 @@
         <v>110</v>
       </c>
       <c r="N156" t="n">
-        <v>132.5629391535902</v>
+        <v>132.5629391536031</v>
       </c>
       <c r="O156" t="n">
-        <v>8.04437982746232</v>
+        <v>8.044379827462299</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -9377,13 +9377,13 @@
         <v>1120</v>
       </c>
       <c r="G157" t="n">
-        <v>2.226244215373807</v>
+        <v>2.226244215374023</v>
       </c>
       <c r="H157" t="n">
-        <v>1.463063903876799</v>
+        <v>1.46306390387694</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.9521119175674047</v>
+        <v>-0.9521119175674976</v>
       </c>
       <c r="J157" t="n">
         <v>249</v>
@@ -9398,10 +9398,10 @@
         <v>84</v>
       </c>
       <c r="N157" t="n">
-        <v>87.11258025242122</v>
+        <v>87.11258025242975</v>
       </c>
       <c r="O157" t="n">
-        <v>7.606180691795934</v>
+        <v>7.606180691795915</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -9434,13 +9434,13 @@
         <v>2176</v>
       </c>
       <c r="G158" t="n">
-        <v>3.347868446827959</v>
+        <v>3.347868446828284</v>
       </c>
       <c r="H158" t="n">
-        <v>1.816899381709355</v>
+        <v>1.816899381709532</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.9521119175674047</v>
+        <v>-0.9521119175674976</v>
       </c>
       <c r="J158" t="n">
         <v>406</v>
@@ -9455,10 +9455,10 @@
         <v>369</v>
       </c>
       <c r="N158" t="n">
-        <v>289.6783531562575</v>
+        <v>289.6783531562858</v>
       </c>
       <c r="O158" t="n">
-        <v>11.43831937353735</v>
+        <v>11.43831937353732</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -9491,13 +9491,13 @@
         <v>2176</v>
       </c>
       <c r="G159" t="n">
-        <v>1.179682145539799</v>
+        <v>1.179682145539913</v>
       </c>
       <c r="H159" t="n">
-        <v>0.6439531302949484</v>
+        <v>0.6439531302950108</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.9521119175674047</v>
+        <v>-0.9521119175674976</v>
       </c>
       <c r="J159" t="n">
         <v>286</v>
@@ -9512,10 +9512,10 @@
         <v>225</v>
       </c>
       <c r="N159" t="n">
-        <v>115.2422025985869</v>
+        <v>115.2422025985982</v>
       </c>
       <c r="O159" t="n">
-        <v>4.030499212933201</v>
+        <v>4.03049921293319</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -9548,13 +9548,13 @@
         <v>2347</v>
       </c>
       <c r="G160" t="n">
-        <v>2.242062076028176</v>
+        <v>2.242062076028394</v>
       </c>
       <c r="H160" t="n">
-        <v>1.083772791146893</v>
+        <v>1.083772791146998</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.9521119175674047</v>
+        <v>-0.9521119175674976</v>
       </c>
       <c r="J160" t="n">
         <v>171</v>
@@ -9569,10 +9569,10 @@
         <v>132</v>
       </c>
       <c r="N160" t="n">
-        <v>120.9967674678415</v>
+        <v>120.9967674678533</v>
       </c>
       <c r="O160" t="n">
-        <v>7.660223956889643</v>
+        <v>7.660223956889624</v>
       </c>
       <c r="P160" t="inlineStr">
         <is>
@@ -9605,13 +9605,13 @@
         <v>237</v>
       </c>
       <c r="G161" t="n">
-        <v>0.6686910289673822</v>
+        <v>0.668691028967447</v>
       </c>
       <c r="H161" t="n">
-        <v>0.2488869521796477</v>
+        <v>0.2488869521796717</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.6529672020932665</v>
+        <v>-0.65296720209333</v>
       </c>
       <c r="J161" t="n">
         <v>111</v>
@@ -9626,10 +9626,10 @@
         <v>51</v>
       </c>
       <c r="N161" t="n">
-        <v>61.40811558905634</v>
+        <v>61.40811558906232</v>
       </c>
       <c r="O161" t="n">
-        <v>4.23174446967216</v>
+        <v>4.231744469672159</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -9662,13 +9662,13 @@
         <v>1109</v>
       </c>
       <c r="G162" t="n">
-        <v>1.095775051600794</v>
+        <v>1.095775051600899</v>
       </c>
       <c r="H162" t="n">
-        <v>3.40789839256299</v>
+        <v>3.407898392563321</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.6529672020932665</v>
+        <v>-0.65296720209333</v>
       </c>
       <c r="J162" t="n">
         <v>56</v>
@@ -9683,10 +9683,10 @@
         <v>20</v>
       </c>
       <c r="N162" t="n">
-        <v>138.3598603609472</v>
+        <v>138.3598603609607</v>
       </c>
       <c r="O162" t="n">
-        <v>6.934503101943923</v>
+        <v>6.934503101943916</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -9719,13 +9719,13 @@
         <v>1325</v>
       </c>
       <c r="G163" t="n">
-        <v>4.141492317793789</v>
+        <v>4.14149231779419</v>
       </c>
       <c r="H163" t="n">
-        <v>3.429061537982662</v>
+        <v>3.429061537982996</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.6529672020932665</v>
+        <v>-0.65296720209333</v>
       </c>
       <c r="J163" t="n">
         <v>272</v>
@@ -9740,7 +9740,7 @@
         <v>190</v>
       </c>
       <c r="N163" t="n">
-        <v>516.564360098365</v>
+        <v>516.5643600984154</v>
       </c>
       <c r="O163" t="n">
         <v>26.20902098698333</v>
@@ -9776,13 +9776,13 @@
         <v>1325</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9795417451690118</v>
+        <v>0.9795417451691064</v>
       </c>
       <c r="H164" t="n">
-        <v>2.971405042630398</v>
+        <v>2.971405042630688</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.6529672020932665</v>
+        <v>-0.65296720209333</v>
       </c>
       <c r="J164" t="n">
         <v>167</v>
@@ -9797,10 +9797,10 @@
         <v>146</v>
       </c>
       <c r="N164" t="n">
-        <v>209.644608811203</v>
+        <v>209.6446088112234</v>
       </c>
       <c r="O164" t="n">
-        <v>6.198932217369672</v>
+        <v>6.198932217369668</v>
       </c>
       <c r="P164" t="inlineStr">
         <is>
@@ -9833,13 +9833,13 @@
         <v>2327</v>
       </c>
       <c r="G165" t="n">
-        <v>0.991172053066368</v>
+        <v>0.9911720530664642</v>
       </c>
       <c r="H165" t="n">
-        <v>0.2836686565580752</v>
+        <v>0.2836686565581025</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.6529672020932665</v>
+        <v>-0.65296720209333</v>
       </c>
       <c r="J165" t="n">
         <v>560</v>
@@ -9854,10 +9854,10 @@
         <v>471</v>
       </c>
       <c r="N165" t="n">
-        <v>198.7719685106559</v>
+        <v>198.7719685106752</v>
       </c>
       <c r="O165" t="n">
-        <v>6.272533460684127</v>
+        <v>6.272533460684126</v>
       </c>
       <c r="P165" t="inlineStr">
         <is>
@@ -9890,13 +9890,13 @@
         <v>2327</v>
       </c>
       <c r="G166" t="n">
-        <v>0.6297723278739704</v>
+        <v>0.6297723278740315</v>
       </c>
       <c r="H166" t="n">
-        <v>0.1427722505579895</v>
+        <v>0.1427722505580033</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.6529672020932665</v>
+        <v>-0.65296720209333</v>
       </c>
       <c r="J166" t="n">
         <v>420</v>
@@ -9911,10 +9911,10 @@
         <v>297</v>
       </c>
       <c r="N166" t="n">
-        <v>132.5169677707485</v>
+        <v>132.5169677707613</v>
       </c>
       <c r="O166" t="n">
-        <v>3.985451352246619</v>
+        <v>3.985451352246618</v>
       </c>
       <c r="P166" t="inlineStr">
         <is>
@@ -9947,13 +9947,13 @@
         <v>2914</v>
       </c>
       <c r="G167" t="n">
-        <v>0.977779018387803</v>
+        <v>0.9777790183878979</v>
       </c>
       <c r="H167" t="n">
-        <v>0.2073733930524431</v>
+        <v>0.2073733930524631</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.6529672020932665</v>
+        <v>-0.65296720209333</v>
       </c>
       <c r="J167" t="n">
         <v>587</v>
@@ -9968,7 +9968,7 @@
         <v>431</v>
       </c>
       <c r="N167" t="n">
-        <v>162.93246621474</v>
+        <v>162.9324662147558</v>
       </c>
       <c r="O167" t="n">
         <v>6.187776976780542</v>
@@ -10004,13 +10004,13 @@
         <v>2914</v>
       </c>
       <c r="G168" t="n">
-        <v>0.7088959170662541</v>
+        <v>0.7088959170663228</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.001545178673143945</v>
+        <v>-0.001545178673144403</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.6529672020932665</v>
+        <v>-0.65296720209333</v>
       </c>
       <c r="J168" t="n">
         <v>208</v>
@@ -10025,10 +10025,10 @@
         <v>82</v>
       </c>
       <c r="N168" t="n">
-        <v>52.81692085559245</v>
+        <v>52.81692085559756</v>
       </c>
       <c r="O168" t="n">
-        <v>4.486177093254565</v>
+        <v>4.486177093254564</v>
       </c>
       <c r="P168" t="inlineStr">
         <is>
@@ -10061,13 +10061,13 @@
         <v>464</v>
       </c>
       <c r="G169" t="n">
-        <v>1.808517928056093</v>
+        <v>1.808517928056268</v>
       </c>
       <c r="H169" t="n">
-        <v>1.158073183477416</v>
+        <v>1.158073183477529</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.8452455162182778</v>
+        <v>-0.8452455162183602</v>
       </c>
       <c r="J169" t="n">
         <v>237</v>
@@ -10082,10 +10082,10 @@
         <v>120</v>
       </c>
       <c r="N169" t="n">
-        <v>188.8114691982565</v>
+        <v>188.8114691982749</v>
       </c>
       <c r="O169" t="n">
-        <v>7.85186906249694</v>
+        <v>7.851869062496922</v>
       </c>
       <c r="P169" t="inlineStr">
         <is>
@@ -10118,13 +10118,13 @@
         <v>601</v>
       </c>
       <c r="G170" t="n">
-        <v>0.9406552076912646</v>
+        <v>0.9406552076913559</v>
       </c>
       <c r="H170" t="n">
-        <v>0.7919281100128586</v>
+        <v>0.7919281100129357</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.8452455162182778</v>
+        <v>-0.8452455162183602</v>
       </c>
       <c r="J170" t="n">
         <v>137</v>
@@ -10139,10 +10139,10 @@
         <v>51</v>
       </c>
       <c r="N170" t="n">
-        <v>160.7096540665705</v>
+        <v>160.7096540665861</v>
       </c>
       <c r="O170" t="n">
-        <v>4.08395261621017</v>
+        <v>4.08395261621016</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -10175,13 +10175,13 @@
         <v>1106</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9162779396859321</v>
+        <v>0.9162779396860199</v>
       </c>
       <c r="H171" t="n">
-        <v>0.5157421940867781</v>
+        <v>0.5157421940868276</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.8452455162182778</v>
+        <v>-0.8452455162183602</v>
       </c>
       <c r="J171" t="n">
         <v>56</v>
@@ -10196,10 +10196,10 @@
         <v>25</v>
       </c>
       <c r="N171" t="n">
-        <v>41.29622040347547</v>
+        <v>41.2962204034795</v>
       </c>
       <c r="O171" t="n">
-        <v>3.978116166645634</v>
+        <v>3.97811616664562</v>
       </c>
       <c r="P171" t="inlineStr">
         <is>
@@ -10232,19 +10232,19 @@
         <v>1222</v>
       </c>
       <c r="G172" t="n">
-        <v>0.8429944086522352</v>
+        <v>0.8429944086523173</v>
       </c>
       <c r="H172" t="n">
-        <v>3.361786471935803</v>
+        <v>3.361786471936132</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.8452455162182778</v>
+        <v>-0.8452455162183602</v>
       </c>
       <c r="J172" t="n">
         <v>172</v>
       </c>
       <c r="K172" t="n">
-        <v>53.98040465373174</v>
+        <v>53.98040465373151</v>
       </c>
       <c r="L172" t="n">
         <v>137</v>
@@ -10253,10 +10253,10 @@
         <v>37</v>
       </c>
       <c r="N172" t="n">
-        <v>410.4832024377092</v>
+        <v>410.4832024377491</v>
       </c>
       <c r="O172" t="n">
-        <v>3.659948079292191</v>
+        <v>3.659948079292184</v>
       </c>
       <c r="P172" t="inlineStr">
         <is>
@@ -10289,13 +10289,13 @@
         <v>2060</v>
       </c>
       <c r="G173" t="n">
-        <v>1.298329602774124</v>
+        <v>1.29832960277425</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6356701977784261</v>
+        <v>0.6356701977784877</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.8452455162182778</v>
+        <v>-0.8452455162183602</v>
       </c>
       <c r="J173" t="n">
         <v>249</v>
@@ -10310,10 +10310,10 @@
         <v>217</v>
       </c>
       <c r="N173" t="n">
-        <v>163.2971997770126</v>
+        <v>163.2971997770285</v>
       </c>
       <c r="O173" t="n">
-        <v>5.636833278121588</v>
+        <v>5.636833278121575</v>
       </c>
       <c r="P173" t="inlineStr">
         <is>
@@ -10346,19 +10346,19 @@
         <v>2982</v>
       </c>
       <c r="G174" t="n">
-        <v>1.167328266972178</v>
+        <v>1.167328266972256</v>
       </c>
       <c r="H174" t="n">
-        <v>0.8107664512304559</v>
+        <v>0.8107664512305343</v>
       </c>
       <c r="I174" t="n">
-        <v>-0.8452455162182778</v>
+        <v>-0.8452455162183602</v>
       </c>
       <c r="J174" t="n">
         <v>194</v>
       </c>
       <c r="K174" t="n">
-        <v>30.25878121187816</v>
+        <v>30.2587812118777</v>
       </c>
       <c r="L174" t="n">
         <v>116</v>
@@ -10367,10 +10367,10 @@
         <v>80</v>
       </c>
       <c r="N174" t="n">
-        <v>106.8743523962026</v>
+        <v>106.8743523962132</v>
       </c>
       <c r="O174" t="n">
-        <v>5.068077326205379</v>
+        <v>5.068077326205216</v>
       </c>
       <c r="P174" t="inlineStr">
         <is>
@@ -10403,13 +10403,13 @@
         <v>466</v>
       </c>
       <c r="G175" t="n">
-        <v>1.762341346495173</v>
+        <v>1.762341346495344</v>
       </c>
       <c r="H175" t="n">
-        <v>1.589438906745918</v>
+        <v>1.589438906746072</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.9972490483514175</v>
+        <v>-0.9972490483515147</v>
       </c>
       <c r="J175" t="n">
         <v>153</v>
@@ -10424,10 +10424,10 @@
         <v>113</v>
       </c>
       <c r="N175" t="n">
-        <v>234.6696524653316</v>
+        <v>234.6696524653545</v>
       </c>
       <c r="O175" t="n">
-        <v>8.24422929353767</v>
+        <v>8.244229293537666</v>
       </c>
       <c r="P175" t="inlineStr">
         <is>
@@ -10460,13 +10460,13 @@
         <v>603</v>
       </c>
       <c r="G176" t="n">
-        <v>1.58724008079848</v>
+        <v>1.587240080798634</v>
       </c>
       <c r="H176" t="n">
-        <v>1.499905218545205</v>
+        <v>1.499905218545351</v>
       </c>
       <c r="I176" t="n">
-        <v>-0.9972490483514175</v>
+        <v>-0.9972490483515147</v>
       </c>
       <c r="J176" t="n">
         <v>137</v>
@@ -10481,10 +10481,10 @@
         <v>100</v>
       </c>
       <c r="N176" t="n">
-        <v>240.9066773742793</v>
+        <v>240.9066773743028</v>
       </c>
       <c r="O176" t="n">
-        <v>7.425105922879037</v>
+        <v>7.425105922879036</v>
       </c>
       <c r="P176" t="inlineStr">
         <is>
@@ -10517,13 +10517,13 @@
         <v>866</v>
       </c>
       <c r="G177" t="n">
-        <v>2.498781676007297</v>
+        <v>2.498781676007539</v>
       </c>
       <c r="H177" t="n">
-        <v>1.791620969087089</v>
+        <v>1.791620969087263</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.9972490483514175</v>
+        <v>-0.9972490483515147</v>
       </c>
       <c r="J177" t="n">
         <v>553</v>
@@ -10538,7 +10538,7 @@
         <v>209</v>
       </c>
       <c r="N177" t="n">
-        <v>769.8017609162828</v>
+        <v>769.8017609163578</v>
       </c>
       <c r="O177" t="n">
         <v>11.68929568182887</v>
@@ -10574,13 +10574,13 @@
         <v>2061</v>
       </c>
       <c r="G178" t="n">
-        <v>1.790178927012356</v>
+        <v>1.790178927012529</v>
       </c>
       <c r="H178" t="n">
-        <v>0.8406952741698398</v>
+        <v>0.8406952741699213</v>
       </c>
       <c r="I178" t="n">
-        <v>-0.9972490483514175</v>
+        <v>-0.9972490483515147</v>
       </c>
       <c r="J178" t="n">
         <v>392</v>
@@ -10595,10 +10595,10 @@
         <v>357</v>
       </c>
       <c r="N178" t="n">
-        <v>205.4997773012816</v>
+        <v>205.4997773013016</v>
       </c>
       <c r="O178" t="n">
-        <v>8.374453439511083</v>
+        <v>8.374453439511079</v>
       </c>
       <c r="P178" t="inlineStr">
         <is>
@@ -10631,13 +10631,13 @@
         <v>866</v>
       </c>
       <c r="G179" t="n">
-        <v>2.061089074960879</v>
+        <v>2.061089074961079</v>
       </c>
       <c r="H179" t="n">
-        <v>1.550788106218285</v>
+        <v>1.550788106218435</v>
       </c>
       <c r="I179" t="n">
-        <v>-1.002381436325884</v>
+        <v>-1.002381436325982</v>
       </c>
       <c r="J179" t="n">
         <v>552</v>
@@ -10652,10 +10652,10 @@
         <v>520</v>
       </c>
       <c r="N179" t="n">
-        <v>532.4960468054109</v>
+        <v>532.4960468054628</v>
       </c>
       <c r="O179" t="n">
-        <v>8.58070509099112</v>
+        <v>8.580705090991115</v>
       </c>
       <c r="P179" t="inlineStr">
         <is>
@@ -10688,13 +10688,13 @@
         <v>866</v>
       </c>
       <c r="G180" t="n">
-        <v>1.92274912901163</v>
+        <v>1.922749129011817</v>
       </c>
       <c r="H180" t="n">
-        <v>1.353627951725843</v>
+        <v>1.353627951725974</v>
       </c>
       <c r="I180" t="n">
-        <v>-1.002381436325884</v>
+        <v>-1.002381436325982</v>
       </c>
       <c r="J180" t="n">
         <v>401</v>
@@ -10709,10 +10709,10 @@
         <v>366</v>
       </c>
       <c r="N180" t="n">
-        <v>345.9335304489577</v>
+        <v>345.9335304489915</v>
       </c>
       <c r="O180" t="n">
-        <v>8.004769633899491</v>
+        <v>8.004769633899487</v>
       </c>
       <c r="P180" t="inlineStr">
         <is>
@@ -10745,13 +10745,13 @@
         <v>866</v>
       </c>
       <c r="G181" t="n">
-        <v>1.809417518621931</v>
+        <v>1.809417518622106</v>
       </c>
       <c r="H181" t="n">
-        <v>1.276377383783592</v>
+        <v>1.276377383783716</v>
       </c>
       <c r="I181" t="n">
-        <v>-1.002381436325884</v>
+        <v>-1.002381436325982</v>
       </c>
       <c r="J181" t="n">
         <v>262</v>
@@ -10766,10 +10766,10 @@
         <v>209</v>
       </c>
       <c r="N181" t="n">
-        <v>166.5165760673032</v>
+        <v>166.5165760673195</v>
       </c>
       <c r="O181" t="n">
-        <v>7.532948625261339</v>
+        <v>7.532948625261335</v>
       </c>
       <c r="P181" t="inlineStr">
         <is>
@@ -10802,13 +10802,13 @@
         <v>1888</v>
       </c>
       <c r="G182" t="n">
-        <v>1.938082079163969</v>
+        <v>1.938082079164157</v>
       </c>
       <c r="H182" t="n">
-        <v>0.9735718027092742</v>
+        <v>0.9735718027093686</v>
       </c>
       <c r="I182" t="n">
-        <v>-1.002381436325884</v>
+        <v>-1.002381436325982</v>
       </c>
       <c r="J182" t="n">
         <v>220</v>
@@ -10823,10 +10823,10 @@
         <v>185</v>
       </c>
       <c r="N182" t="n">
-        <v>186.7266672401441</v>
+        <v>186.7266672401623</v>
       </c>
       <c r="O182" t="n">
-        <v>8.068603616152092</v>
+        <v>8.068603616152089</v>
       </c>
       <c r="P182" t="inlineStr">
         <is>
@@ -10859,13 +10859,13 @@
         <v>2998</v>
       </c>
       <c r="G183" t="n">
-        <v>1.602993754964306</v>
+        <v>1.602993754964463</v>
       </c>
       <c r="H183" t="n">
-        <v>1.604845030980382</v>
+        <v>1.604845030980538</v>
       </c>
       <c r="I183" t="n">
-        <v>-1.002381436325884</v>
+        <v>-1.002381436325982</v>
       </c>
       <c r="J183" t="n">
         <v>128</v>
@@ -10880,10 +10880,10 @@
         <v>91</v>
       </c>
       <c r="N183" t="n">
-        <v>196.4204578696119</v>
+        <v>196.4204578696304</v>
       </c>
       <c r="O183" t="n">
-        <v>6.673567310190253</v>
+        <v>6.673567310190256</v>
       </c>
       <c r="P183" t="inlineStr">
         <is>
@@ -10916,13 +10916,13 @@
         <v>785</v>
       </c>
       <c r="G184" t="n">
-        <v>1.678093358612935</v>
+        <v>1.678093358613099</v>
       </c>
       <c r="H184" t="n">
-        <v>0.7084212350664842</v>
+        <v>0.7084212350665534</v>
       </c>
       <c r="I184" t="n">
-        <v>-0.9705385433639196</v>
+        <v>-0.9705385433640142</v>
       </c>
       <c r="J184" t="n">
         <v>399</v>
@@ -10937,10 +10937,10 @@
         <v>270</v>
       </c>
       <c r="N184" t="n">
-        <v>327.5178793581034</v>
+        <v>327.5178793581354</v>
       </c>
       <c r="O184" t="n">
-        <v>4.56893866890404</v>
+        <v>4.568938668904034</v>
       </c>
       <c r="P184" t="inlineStr">
         <is>
@@ -10973,13 +10973,13 @@
         <v>1210</v>
       </c>
       <c r="G185" t="n">
-        <v>2.674342520195492</v>
+        <v>2.674342520195752</v>
       </c>
       <c r="H185" t="n">
-        <v>1.560310654675164</v>
+        <v>1.560310654675316</v>
       </c>
       <c r="I185" t="n">
-        <v>-0.9705385433639196</v>
+        <v>-0.9705385433640142</v>
       </c>
       <c r="J185" t="n">
         <v>425</v>
@@ -10994,10 +10994,10 @@
         <v>177</v>
       </c>
       <c r="N185" t="n">
-        <v>287.0983286108617</v>
+        <v>287.0983286108897</v>
       </c>
       <c r="O185" t="n">
-        <v>7.281422628664279</v>
+        <v>7.281422628664268</v>
       </c>
       <c r="P185" t="inlineStr">
         <is>
@@ -11030,13 +11030,13 @@
         <v>2678</v>
       </c>
       <c r="G186" t="n">
-        <v>1.558087136099167</v>
+        <v>1.558087136099317</v>
       </c>
       <c r="H186" t="n">
-        <v>2.550638811456368</v>
+        <v>2.550638811456616</v>
       </c>
       <c r="I186" t="n">
-        <v>-0.9705385433639196</v>
+        <v>-0.9705385433640142</v>
       </c>
       <c r="J186" t="n">
         <v>392</v>
@@ -11051,10 +11051,10 @@
         <v>359</v>
       </c>
       <c r="N186" t="n">
-        <v>685.4374676294299</v>
+        <v>685.4374676294967</v>
       </c>
       <c r="O186" t="n">
-        <v>4.242198164427299</v>
+        <v>4.24219816442729</v>
       </c>
       <c r="P186" t="inlineStr">
         <is>
@@ -11087,19 +11087,19 @@
         <v>2998</v>
       </c>
       <c r="G187" t="n">
-        <v>1.658276525716597</v>
+        <v>1.658276525716712</v>
       </c>
       <c r="H187" t="n">
-        <v>1.200137991628172</v>
+        <v>1.200137991628289</v>
       </c>
       <c r="I187" t="n">
-        <v>-0.9705385433639196</v>
+        <v>-0.9705385433640142</v>
       </c>
       <c r="J187" t="n">
         <v>320</v>
       </c>
       <c r="K187" t="n">
-        <v>127.4822457375885</v>
+        <v>127.4822457375867</v>
       </c>
       <c r="L187" t="n">
         <v>52</v>
@@ -11108,10 +11108,10 @@
         <v>270</v>
       </c>
       <c r="N187" t="n">
-        <v>374.7006122592713</v>
+        <v>374.7006122593081</v>
       </c>
       <c r="O187" t="n">
-        <v>4.514983450232458</v>
+        <v>4.514983450232327</v>
       </c>
       <c r="P187" t="inlineStr">
         <is>
@@ -11144,19 +11144,19 @@
         <v>1208</v>
       </c>
       <c r="G188" t="n">
-        <v>1.703326292101286</v>
+        <v>1.703326292101452</v>
       </c>
       <c r="H188" t="n">
-        <v>0.5077587227634445</v>
+        <v>0.5077587227634934</v>
       </c>
       <c r="I188" t="n">
-        <v>-1.068761253005464</v>
+        <v>-1.068761253005568</v>
       </c>
       <c r="J188" t="n">
         <v>419</v>
       </c>
       <c r="K188" t="n">
-        <v>56.74031911594261</v>
+        <v>56.74031911594284</v>
       </c>
       <c r="L188" t="n">
         <v>268</v>
@@ -11165,10 +11165,10 @@
         <v>153</v>
       </c>
       <c r="N188" t="n">
-        <v>201.0941705257609</v>
+        <v>201.0941705257805</v>
       </c>
       <c r="O188" t="n">
-        <v>4.801448559598093</v>
+        <v>4.801448559598087</v>
       </c>
       <c r="P188" t="inlineStr">
         <is>
@@ -11201,13 +11201,13 @@
         <v>2057</v>
       </c>
       <c r="G189" t="n">
-        <v>1.318677974746586</v>
+        <v>1.318677974746714</v>
       </c>
       <c r="H189" t="n">
-        <v>0.7699591480687269</v>
+        <v>0.7699591480688019</v>
       </c>
       <c r="I189" t="n">
-        <v>-1.068761253005464</v>
+        <v>-1.068761253005568</v>
       </c>
       <c r="J189" t="n">
         <v>185</v>
@@ -11222,10 +11222,10 @@
         <v>137</v>
       </c>
       <c r="N189" t="n">
-        <v>253.0639954674925</v>
+        <v>253.0639954675172</v>
       </c>
       <c r="O189" t="n">
-        <v>3.717176498584937</v>
+        <v>3.717176498584932</v>
       </c>
       <c r="P189" t="inlineStr">
         <is>
@@ -11258,13 +11258,13 @@
         <v>2393</v>
       </c>
       <c r="G190" t="n">
-        <v>2.090502712370746</v>
+        <v>2.09050271237095</v>
       </c>
       <c r="H190" t="n">
-        <v>1.601041040554103</v>
+        <v>1.601041040554259</v>
       </c>
       <c r="I190" t="n">
-        <v>-1.068761253005464</v>
+        <v>-1.068761253005568</v>
       </c>
       <c r="J190" t="n">
         <v>521</v>
@@ -11279,10 +11279,10 @@
         <v>281</v>
       </c>
       <c r="N190" t="n">
-        <v>694.6478966020712</v>
+        <v>694.647896602139</v>
       </c>
       <c r="O190" t="n">
-        <v>5.892847003944187</v>
+        <v>5.892847003944179</v>
       </c>
       <c r="P190" t="inlineStr">
         <is>
@@ -11315,13 +11315,13 @@
         <v>2915</v>
       </c>
       <c r="G191" t="n">
-        <v>2.299827981508876</v>
+        <v>2.299827981509099</v>
       </c>
       <c r="H191" t="n">
-        <v>2.28346400015417</v>
+        <v>2.283464000154392</v>
       </c>
       <c r="I191" t="n">
-        <v>-1.068761253005464</v>
+        <v>-1.068761253005568</v>
       </c>
       <c r="J191" t="n">
         <v>322</v>
@@ -11336,10 +11336,10 @@
         <v>289</v>
       </c>
       <c r="N191" t="n">
-        <v>420.1191577588554</v>
+        <v>420.1191577588963</v>
       </c>
       <c r="O191" t="n">
-        <v>6.482906886570007</v>
+        <v>6.482906886569996</v>
       </c>
       <c r="P191" t="inlineStr">
         <is>
@@ -11372,13 +11372,13 @@
         <v>649</v>
       </c>
       <c r="G192" t="n">
-        <v>2.195980048624411</v>
+        <v>2.195980048624624</v>
       </c>
       <c r="H192" t="n">
-        <v>1.66242726564832</v>
+        <v>1.662427265648481</v>
       </c>
       <c r="I192" t="n">
-        <v>-0.7807458167017896</v>
+        <v>-0.7807458167018655</v>
       </c>
       <c r="J192" t="n">
         <v>318</v>
@@ -11393,10 +11393,10 @@
         <v>229</v>
       </c>
       <c r="N192" t="n">
-        <v>241.7882068731539</v>
+        <v>241.7882068731774</v>
       </c>
       <c r="O192" t="n">
-        <v>10.48551918903301</v>
+        <v>10.48551918903299</v>
       </c>
       <c r="P192" t="inlineStr">
         <is>
@@ -11429,13 +11429,13 @@
         <v>759</v>
       </c>
       <c r="G193" t="n">
-        <v>1.408485463994711</v>
+        <v>1.408485463994846</v>
       </c>
       <c r="H193" t="n">
-        <v>1.974924990081038</v>
+        <v>1.97492499008123</v>
       </c>
       <c r="I193" t="n">
-        <v>-0.7807458167017896</v>
+        <v>-0.7807458167018655</v>
       </c>
       <c r="J193" t="n">
         <v>428</v>
@@ -11450,10 +11450,10 @@
         <v>42</v>
       </c>
       <c r="N193" t="n">
-        <v>426.1796104124859</v>
+        <v>426.1796104125274</v>
       </c>
       <c r="O193" t="n">
-        <v>6.725334945297843</v>
+        <v>6.725334945297821</v>
       </c>
       <c r="P193" t="inlineStr">
         <is>
@@ -11486,13 +11486,13 @@
         <v>256</v>
       </c>
       <c r="G194" t="n">
-        <v>0.9208920871802952</v>
+        <v>0.9208920871803843</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.1653351535769563</v>
+        <v>-0.1653351535769729</v>
       </c>
       <c r="I194" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J194" t="n">
         <v>121</v>
@@ -11507,10 +11507,10 @@
         <v>90</v>
       </c>
       <c r="N194" t="n">
-        <v>34.35141969617381</v>
+        <v>34.35141969617719</v>
       </c>
       <c r="O194" t="n">
-        <v>2.526442452341499</v>
+        <v>2.526442452341502</v>
       </c>
       <c r="P194" t="inlineStr">
         <is>
@@ -11543,13 +11543,13 @@
         <v>355</v>
       </c>
       <c r="G195" t="n">
-        <v>1.723452013330616</v>
+        <v>1.723452013330782</v>
       </c>
       <c r="H195" t="n">
-        <v>0.4082442887368975</v>
+        <v>0.4082442887369368</v>
       </c>
       <c r="I195" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J195" t="n">
         <v>99</v>
@@ -11564,10 +11564,10 @@
         <v>49</v>
       </c>
       <c r="N195" t="n">
-        <v>58.36660660136751</v>
+        <v>58.36660660137324</v>
       </c>
       <c r="O195" t="n">
-        <v>4.728243831895815</v>
+        <v>4.728243831895821</v>
       </c>
       <c r="P195" t="inlineStr">
         <is>
@@ -11600,13 +11600,13 @@
         <v>837</v>
       </c>
       <c r="G196" t="n">
-        <v>5.157694136570401</v>
+        <v>5.157694136570902</v>
       </c>
       <c r="H196" t="n">
-        <v>3.78530174344796</v>
+        <v>3.785301743448328</v>
       </c>
       <c r="I196" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J196" t="n">
         <v>581</v>
@@ -11621,10 +11621,10 @@
         <v>447</v>
       </c>
       <c r="N196" t="n">
-        <v>809.745247028986</v>
+        <v>809.745247029065</v>
       </c>
       <c r="O196" t="n">
-        <v>14.14999390723738</v>
+        <v>14.14999390723741</v>
       </c>
       <c r="P196" t="inlineStr">
         <is>
@@ -11657,19 +11657,19 @@
         <v>837</v>
       </c>
       <c r="G197" t="n">
-        <v>1.333596694342055</v>
+        <v>1.333596694342184</v>
       </c>
       <c r="H197" t="n">
-        <v>0.9453139480062689</v>
+        <v>0.9453139480063607</v>
       </c>
       <c r="I197" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J197" t="n">
         <v>331</v>
       </c>
       <c r="K197" t="n">
-        <v>102.1961940899959</v>
+        <v>102.196194089996</v>
       </c>
       <c r="L197" t="n">
         <v>119</v>
@@ -11678,10 +11678,10 @@
         <v>214</v>
       </c>
       <c r="N197" t="n">
-        <v>413.9838341670973</v>
+        <v>413.9838341671378</v>
       </c>
       <c r="O197" t="n">
-        <v>3.658686343157179</v>
+        <v>3.658686343157186</v>
       </c>
       <c r="P197" t="inlineStr">
         <is>
@@ -11714,13 +11714,13 @@
         <v>1085</v>
       </c>
       <c r="G198" t="n">
-        <v>3.725961871490926</v>
+        <v>3.725961871491288</v>
       </c>
       <c r="H198" t="n">
-        <v>2.283189025051882</v>
+        <v>2.283189025052105</v>
       </c>
       <c r="I198" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J198" t="n">
         <v>248</v>
@@ -11735,10 +11735,10 @@
         <v>210</v>
       </c>
       <c r="N198" t="n">
-        <v>413.963349881884</v>
+        <v>413.9633498819244</v>
       </c>
       <c r="O198" t="n">
-        <v>10.22207528871671</v>
+        <v>10.22207528871674</v>
       </c>
       <c r="P198" t="inlineStr">
         <is>
@@ -11771,13 +11771,13 @@
         <v>1085</v>
       </c>
       <c r="G199" t="n">
-        <v>1.376556137485335</v>
+        <v>1.376556137485467</v>
       </c>
       <c r="H199" t="n">
-        <v>1.872691348909285</v>
+        <v>1.872691348909466</v>
       </c>
       <c r="I199" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J199" t="n">
         <v>138</v>
@@ -11792,10 +11792,10 @@
         <v>111</v>
       </c>
       <c r="N199" t="n">
-        <v>171.982318872535</v>
+        <v>171.9823188725518</v>
       </c>
       <c r="O199" t="n">
-        <v>3.77654440969618</v>
+        <v>3.776544409696184</v>
       </c>
       <c r="P199" t="inlineStr">
         <is>
@@ -11828,13 +11828,13 @@
         <v>1926</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9320744390071672</v>
+        <v>0.9320744390072573</v>
       </c>
       <c r="H200" t="n">
-        <v>0.08217563428028417</v>
+        <v>0.08217563428029177</v>
       </c>
       <c r="I200" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J200" t="n">
         <v>124</v>
@@ -11849,10 +11849,10 @@
         <v>57</v>
       </c>
       <c r="N200" t="n">
-        <v>71.02799426701257</v>
+        <v>71.02799426701955</v>
       </c>
       <c r="O200" t="n">
-        <v>2.557120931140173</v>
+        <v>2.557120931140177</v>
       </c>
       <c r="P200" t="inlineStr">
         <is>
@@ -11885,13 +11885,13 @@
         <v>2335</v>
       </c>
       <c r="G201" t="n">
-        <v>0.8935423429627403</v>
+        <v>0.8935423429628269</v>
       </c>
       <c r="H201" t="n">
-        <v>0.04770133908234045</v>
+        <v>0.04770133908234481</v>
       </c>
       <c r="I201" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J201" t="n">
         <v>115</v>
@@ -11906,10 +11906,10 @@
         <v>81</v>
       </c>
       <c r="N201" t="n">
-        <v>69.95805331563321</v>
+        <v>69.95805331564006</v>
       </c>
       <c r="O201" t="n">
-        <v>2.451409171228742</v>
+        <v>2.451409171228746</v>
       </c>
       <c r="P201" t="inlineStr">
         <is>
@@ -11942,13 +11942,13 @@
         <v>2871</v>
       </c>
       <c r="G202" t="n">
-        <v>1.836887678013421</v>
+        <v>1.836887678013599</v>
       </c>
       <c r="H202" t="n">
-        <v>0.623989307243568</v>
+        <v>0.6239893072436283</v>
       </c>
       <c r="I202" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J202" t="n">
         <v>536</v>
@@ -11963,10 +11963,10 @@
         <v>358</v>
       </c>
       <c r="N202" t="n">
-        <v>248.3030831206596</v>
+        <v>248.3030831206839</v>
       </c>
       <c r="O202" t="n">
-        <v>5.039451499823258</v>
+        <v>5.039451499823267</v>
       </c>
       <c r="P202" t="inlineStr">
         <is>
@@ -11999,19 +11999,19 @@
         <v>2997</v>
       </c>
       <c r="G203" t="n">
-        <v>2.059614228488944</v>
+        <v>2.059614228489041</v>
       </c>
       <c r="H203" t="n">
-        <v>0.9672776475159909</v>
+        <v>0.9672776475160844</v>
       </c>
       <c r="I203" t="n">
-        <v>-1.056062886459719</v>
+        <v>-1.056062886459823</v>
       </c>
       <c r="J203" t="n">
         <v>126</v>
       </c>
       <c r="K203" t="n">
-        <v>48.86476416426694</v>
+        <v>48.86476416426513</v>
       </c>
       <c r="L203" t="n">
         <v>37</v>
@@ -12020,10 +12020,10 @@
         <v>91</v>
       </c>
       <c r="N203" t="n">
-        <v>97.64627866909129</v>
+        <v>97.64627866910288</v>
       </c>
       <c r="O203" t="n">
-        <v>5.650495747263701</v>
+        <v>5.650495747263429</v>
       </c>
       <c r="P203" t="inlineStr">
         <is>
@@ -12056,13 +12056,13 @@
         <v>2179</v>
       </c>
       <c r="G204" t="n">
-        <v>0.9509180364586149</v>
+        <v>0.9509180364587072</v>
       </c>
       <c r="H204" t="n">
-        <v>0.3778035866853793</v>
+        <v>0.3778035866854159</v>
       </c>
       <c r="I204" t="n">
-        <v>-0.8745764108311967</v>
+        <v>-0.8745764108312819</v>
       </c>
       <c r="J204" t="n">
         <v>128</v>
@@ -12077,10 +12077,10 @@
         <v>75</v>
       </c>
       <c r="N204" t="n">
-        <v>92.70981316138459</v>
+        <v>92.70981316139361</v>
       </c>
       <c r="O204" t="n">
-        <v>4.506062161611624</v>
+        <v>4.506062161611622</v>
       </c>
       <c r="P204" t="inlineStr">
         <is>
@@ -12113,13 +12113,13 @@
         <v>2685</v>
       </c>
       <c r="G205" t="n">
-        <v>1.335367966436323</v>
+        <v>1.335367966436453</v>
       </c>
       <c r="H205" t="n">
-        <v>0.6642962114804406</v>
+        <v>0.664296211480505</v>
       </c>
       <c r="I205" t="n">
-        <v>-0.8745764108311967</v>
+        <v>-0.8745764108312819</v>
       </c>
       <c r="J205" t="n">
         <v>506</v>
@@ -12134,10 +12134,10 @@
         <v>468</v>
       </c>
       <c r="N205" t="n">
-        <v>249.9461797204651</v>
+        <v>249.9461797204894</v>
       </c>
       <c r="O205" t="n">
-        <v>6.327833561550976</v>
+        <v>6.327833561550972</v>
       </c>
       <c r="P205" t="inlineStr">
         <is>
@@ -12170,13 +12170,13 @@
         <v>2897</v>
       </c>
       <c r="G206" t="n">
-        <v>1.357319183979577</v>
+        <v>1.357319183979709</v>
       </c>
       <c r="H206" t="n">
-        <v>0.6073961832317124</v>
+        <v>0.6073961832317711</v>
       </c>
       <c r="I206" t="n">
-        <v>-0.8745764108311967</v>
+        <v>-0.8745764108312819</v>
       </c>
       <c r="J206" t="n">
         <v>212</v>
@@ -12191,10 +12191,10 @@
         <v>179</v>
       </c>
       <c r="N206" t="n">
-        <v>107.8051385911691</v>
+        <v>107.8051385911796</v>
       </c>
       <c r="O206" t="n">
-        <v>6.431852569478651</v>
+        <v>6.431852569478649</v>
       </c>
       <c r="P206" t="inlineStr">
         <is>
@@ -12227,19 +12227,19 @@
         <v>2998</v>
       </c>
       <c r="G207" t="n">
-        <v>1.225601314102865</v>
+        <v>1.225601314102862</v>
       </c>
       <c r="H207" t="n">
-        <v>1.054364289675045</v>
+        <v>1.054364289675047</v>
       </c>
       <c r="I207" t="n">
-        <v>-0.8745764108311967</v>
+        <v>-0.8745764108312819</v>
       </c>
       <c r="J207" t="n">
         <v>313</v>
       </c>
       <c r="K207" t="n">
-        <v>29.01610879941654</v>
+        <v>29.016108799417</v>
       </c>
       <c r="L207" t="n">
         <v>296</v>
@@ -12248,10 +12248,10 @@
         <v>19</v>
       </c>
       <c r="N207" t="n">
-        <v>187.0816015358576</v>
+        <v>187.0816015358741</v>
       </c>
       <c r="O207" t="n">
-        <v>5.807688459951462</v>
+        <v>5.807688459950883</v>
       </c>
       <c r="P207" t="inlineStr">
         <is>
@@ -12284,19 +12284,19 @@
         <v>469</v>
       </c>
       <c r="G208" t="n">
-        <v>1.182495193001524</v>
+        <v>1.182495193001639</v>
       </c>
       <c r="H208" t="n">
-        <v>1.642845955315674</v>
+        <v>1.642845955315833</v>
       </c>
       <c r="I208" t="n">
-        <v>-1.164811518887638</v>
+        <v>-1.164811518887752</v>
       </c>
       <c r="J208" t="n">
         <v>205</v>
       </c>
       <c r="K208" t="n">
-        <v>29.69906806274685</v>
+        <v>29.6990680627469</v>
       </c>
       <c r="L208" t="n">
         <v>131</v>
@@ -12305,10 +12305,10 @@
         <v>76</v>
       </c>
       <c r="N208" t="n">
-        <v>296.5327627845495</v>
+        <v>296.5327627845784</v>
       </c>
       <c r="O208" t="n">
-        <v>2.674449062319308</v>
+        <v>2.674449062319304</v>
       </c>
       <c r="P208" t="inlineStr">
         <is>
@@ -12341,13 +12341,13 @@
         <v>871</v>
       </c>
       <c r="G209" t="n">
-        <v>1.243512992229944</v>
+        <v>1.243512992230065</v>
       </c>
       <c r="H209" t="n">
-        <v>0.6018810118902757</v>
+        <v>0.6018810118903342</v>
       </c>
       <c r="I209" t="n">
-        <v>-1.164811518887638</v>
+        <v>-1.164811518887752</v>
       </c>
       <c r="J209" t="n">
         <v>243</v>
@@ -12362,10 +12362,10 @@
         <v>183</v>
       </c>
       <c r="N209" t="n">
-        <v>181.6045767284725</v>
+        <v>181.6045767284902</v>
       </c>
       <c r="O209" t="n">
-        <v>2.812453002544227</v>
+        <v>2.812453002544224</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
@@ -12398,13 +12398,13 @@
         <v>1274</v>
       </c>
       <c r="G210" t="n">
-        <v>3.048523638017056</v>
+        <v>3.048523638017353</v>
       </c>
       <c r="H210" t="n">
-        <v>1.816269596649702</v>
+        <v>1.816269596649878</v>
       </c>
       <c r="I210" t="n">
-        <v>-1.164811518887638</v>
+        <v>-1.164811518887752</v>
       </c>
       <c r="J210" t="n">
         <v>403</v>
@@ -12419,10 +12419,10 @@
         <v>169</v>
       </c>
       <c r="N210" t="n">
-        <v>257.1583337245461</v>
+        <v>257.1583337245713</v>
       </c>
       <c r="O210" t="n">
-        <v>6.894845098234961</v>
+        <v>6.894845098234953</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
@@ -12455,13 +12455,13 @@
         <v>2452</v>
       </c>
       <c r="G211" t="n">
-        <v>1.303094952281911</v>
+        <v>1.303094952282036</v>
       </c>
       <c r="H211" t="n">
-        <v>1.267345223001754</v>
+        <v>1.267345223001877</v>
       </c>
       <c r="I211" t="n">
-        <v>-1.164811518887638</v>
+        <v>-1.164811518887752</v>
       </c>
       <c r="J211" t="n">
         <v>282</v>
@@ -12476,10 +12476,10 @@
         <v>84</v>
       </c>
       <c r="N211" t="n">
-        <v>339.2134526307451</v>
+        <v>339.2134526307782</v>
       </c>
       <c r="O211" t="n">
-        <v>2.947209505687089</v>
+        <v>2.947209505687082</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
@@ -12512,13 +12512,13 @@
         <v>2759</v>
       </c>
       <c r="G212" t="n">
-        <v>1.362970230043802</v>
+        <v>1.362970230043934</v>
       </c>
       <c r="H212" t="n">
-        <v>1.551725850967973</v>
+        <v>1.551725850968124</v>
       </c>
       <c r="I212" t="n">
-        <v>-1.164811518887638</v>
+        <v>-1.164811518887752</v>
       </c>
       <c r="J212" t="n">
         <v>140</v>
@@ -12533,10 +12533,10 @@
         <v>60</v>
       </c>
       <c r="N212" t="n">
-        <v>262.9785042916115</v>
+        <v>262.9785042916371</v>
       </c>
       <c r="O212" t="n">
-        <v>3.082629405416179</v>
+        <v>3.082629405416175</v>
       </c>
       <c r="P212" t="inlineStr">
         <is>
@@ -12569,19 +12569,19 @@
         <v>35</v>
       </c>
       <c r="G213" t="n">
-        <v>0.6642671326601413</v>
+        <v>0.6642671326600542</v>
       </c>
       <c r="H213" t="n">
-        <v>1.538312384047734</v>
+        <v>1.538312384047733</v>
       </c>
       <c r="I213" t="n">
-        <v>-0.8617896524254103</v>
+        <v>-0.8617896524254944</v>
       </c>
       <c r="J213" t="n">
         <v>35</v>
       </c>
       <c r="K213" t="n">
-        <v>16.891022074601</v>
+        <v>16.89102207460286</v>
       </c>
       <c r="L213" t="n">
         <v>17</v>
@@ -12590,10 +12590,10 @@
         <v>20</v>
       </c>
       <c r="N213" t="n">
-        <v>68.27316971170866</v>
+        <v>68.27316971171258</v>
       </c>
       <c r="O213" t="n">
-        <v>2.704055854052519</v>
+        <v>2.704055854051897</v>
       </c>
       <c r="P213" t="inlineStr">
         <is>
@@ -12626,13 +12626,13 @@
         <v>117</v>
       </c>
       <c r="G214" t="n">
-        <v>0.8493968942371559</v>
+        <v>0.8493968942372372</v>
       </c>
       <c r="H214" t="n">
-        <v>2.351392136082155</v>
+        <v>2.351392136082384</v>
       </c>
       <c r="I214" t="n">
-        <v>-0.8617896524254103</v>
+        <v>-0.8617896524254944</v>
       </c>
       <c r="J214" t="n">
         <v>117</v>
@@ -12647,10 +12647,10 @@
         <v>20</v>
       </c>
       <c r="N214" t="n">
-        <v>266.4059197582241</v>
+        <v>266.4059197582474</v>
       </c>
       <c r="O214" t="n">
-        <v>3.457670162120048</v>
+        <v>3.457670162120036</v>
       </c>
       <c r="P214" t="inlineStr">
         <is>
@@ -12683,13 +12683,13 @@
         <v>750</v>
       </c>
       <c r="G215" t="n">
-        <v>2.167723749497586</v>
+        <v>2.167723749497797</v>
       </c>
       <c r="H215" t="n">
-        <v>1.437584728454803</v>
+        <v>1.437584728454943</v>
       </c>
       <c r="I215" t="n">
-        <v>-0.8617896524254103</v>
+        <v>-0.8617896524254944</v>
       </c>
       <c r="J215" t="n">
         <v>247</v>
@@ -12704,10 +12704,10 @@
         <v>154</v>
       </c>
       <c r="N215" t="n">
-        <v>241.2126095883698</v>
+        <v>241.2126095883933</v>
       </c>
       <c r="O215" t="n">
-        <v>8.824230202876253</v>
+        <v>8.824230202876235</v>
       </c>
       <c r="P215" t="inlineStr">
         <is>
@@ -12740,13 +12740,13 @@
         <v>1171</v>
       </c>
       <c r="G216" t="n">
-        <v>2.376866205702322</v>
+        <v>2.376866205702553</v>
       </c>
       <c r="H216" t="n">
-        <v>1.373360776990365</v>
+        <v>1.373360776990498</v>
       </c>
       <c r="I216" t="n">
-        <v>-0.8617896524254103</v>
+        <v>-0.8617896524254944</v>
       </c>
       <c r="J216" t="n">
         <v>421</v>
@@ -12761,10 +12761,10 @@
         <v>261</v>
       </c>
       <c r="N216" t="n">
-        <v>228.0416358752922</v>
+        <v>228.0416358753145</v>
       </c>
       <c r="O216" t="n">
-        <v>9.675593841427196</v>
+        <v>9.675593841427176</v>
       </c>
       <c r="P216" t="inlineStr">
         <is>
@@ -12797,13 +12797,13 @@
         <v>1171</v>
       </c>
       <c r="G217" t="n">
-        <v>1.122698962441485</v>
+        <v>1.122698962441594</v>
       </c>
       <c r="H217" t="n">
-        <v>0.1316039786695108</v>
+        <v>0.1316039786695233</v>
       </c>
       <c r="I217" t="n">
-        <v>-0.8617896524254103</v>
+        <v>-0.8617896524254944</v>
       </c>
       <c r="J217" t="n">
         <v>136</v>
@@ -12818,10 +12818,10 @@
         <v>85</v>
       </c>
       <c r="N217" t="n">
-        <v>53.60279179563655</v>
+        <v>53.6027917956418</v>
       </c>
       <c r="O217" t="n">
-        <v>4.570210616278996</v>
+        <v>4.570210616278986</v>
       </c>
       <c r="P217" t="inlineStr">
         <is>
@@ -12854,13 +12854,13 @@
         <v>1710</v>
       </c>
       <c r="G218" t="n">
-        <v>0.6088440935232133</v>
+        <v>0.6088440935232723</v>
       </c>
       <c r="H218" t="n">
-        <v>0.4485040303914707</v>
+        <v>0.4485040303915143</v>
       </c>
       <c r="I218" t="n">
-        <v>-0.8617896524254103</v>
+        <v>-0.8617896524254944</v>
       </c>
       <c r="J218" t="n">
         <v>539</v>
@@ -12875,10 +12875,10 @@
         <v>27</v>
       </c>
       <c r="N218" t="n">
-        <v>250.945367618577</v>
+        <v>250.9453676186016</v>
       </c>
       <c r="O218" t="n">
-        <v>2.478443316476814</v>
+        <v>2.478443316476809</v>
       </c>
       <c r="P218" t="inlineStr">
         <is>
@@ -12911,13 +12911,13 @@
         <v>216</v>
       </c>
       <c r="G219" t="n">
-        <v>2.711560703049862</v>
+        <v>2.711560703050125</v>
       </c>
       <c r="H219" t="n">
-        <v>1.230103072149872</v>
+        <v>1.230103072149991</v>
       </c>
       <c r="I219" t="n">
-        <v>-1.221553193115551</v>
+        <v>-1.221553193115645</v>
       </c>
       <c r="J219" t="n">
         <v>180</v>
@@ -12932,10 +12932,10 @@
         <v>79</v>
       </c>
       <c r="N219" t="n">
-        <v>189.6560217230671</v>
+        <v>189.6560217230812</v>
       </c>
       <c r="O219" t="n">
-        <v>5.832289186838508</v>
+        <v>5.832289186838564</v>
       </c>
       <c r="P219" t="inlineStr">
         <is>
@@ -12968,13 +12968,13 @@
         <v>2076</v>
       </c>
       <c r="G220" t="n">
-        <v>1.19498801004265</v>
+        <v>1.194988010042766</v>
       </c>
       <c r="H220" t="n">
-        <v>0.4150299174117596</v>
+        <v>0.4150299174117995</v>
       </c>
       <c r="I220" t="n">
-        <v>-1.221553193115551</v>
+        <v>-1.221553193115645</v>
       </c>
       <c r="J220" t="n">
         <v>187</v>
@@ -12989,10 +12989,10 @@
         <v>124</v>
       </c>
       <c r="N220" t="n">
-        <v>127.7680280658975</v>
+        <v>127.7680280659053</v>
       </c>
       <c r="O220" t="n">
-        <v>2.570296745167596</v>
+        <v>2.57029674516762</v>
       </c>
       <c r="P220" t="inlineStr">
         <is>
@@ -13025,13 +13025,13 @@
         <v>2306</v>
       </c>
       <c r="G221" t="n">
-        <v>1.269019327502551</v>
+        <v>1.269019327502674</v>
       </c>
       <c r="H221" t="n">
-        <v>0.2416086286487749</v>
+        <v>0.2416086286487981</v>
       </c>
       <c r="I221" t="n">
-        <v>-1.221553193115551</v>
+        <v>-1.221553193115645</v>
       </c>
       <c r="J221" t="n">
         <v>230</v>
@@ -13046,10 +13046,10 @@
         <v>140</v>
       </c>
       <c r="N221" t="n">
-        <v>164.3934764619696</v>
+        <v>164.39347646198</v>
       </c>
       <c r="O221" t="n">
-        <v>2.729530522166629</v>
+        <v>2.729530522166655</v>
       </c>
       <c r="P221" t="inlineStr">
         <is>
@@ -13082,19 +13082,19 @@
         <v>2917</v>
       </c>
       <c r="G222" t="n">
-        <v>1.882342943065052</v>
+        <v>1.882342943065234</v>
       </c>
       <c r="H222" t="n">
-        <v>1.383746825238069</v>
+        <v>1.383746825238203</v>
       </c>
       <c r="I222" t="n">
-        <v>-1.221553193115551</v>
+        <v>-1.221553193115645</v>
       </c>
       <c r="J222" t="n">
         <v>268</v>
       </c>
       <c r="K222" t="n">
-        <v>52.9591359670867</v>
+        <v>52.95913596708715</v>
       </c>
       <c r="L222" t="n">
         <v>154</v>
@@ -13103,10 +13103,10 @@
         <v>116</v>
       </c>
       <c r="N222" t="n">
-        <v>389.680442142847</v>
+        <v>389.6804421428784</v>
       </c>
       <c r="O222" t="n">
-        <v>4.048726764778682</v>
+        <v>4.048726764778721</v>
       </c>
       <c r="P222" t="inlineStr">
         <is>
@@ -13139,13 +13139,13 @@
         <v>964</v>
       </c>
       <c r="G223" t="n">
-        <v>1.164970482151011</v>
+        <v>1.164970482151124</v>
       </c>
       <c r="H223" t="n">
-        <v>0.7586818093519817</v>
+        <v>0.7586818093520554</v>
       </c>
       <c r="I223" t="n">
-        <v>-0.7882816847672793</v>
+        <v>-0.7882816847673561</v>
       </c>
       <c r="J223" t="n">
         <v>599</v>
@@ -13160,10 +13160,10 @@
         <v>572</v>
       </c>
       <c r="N223" t="n">
-        <v>249.3697242115715</v>
+        <v>249.3697242115957</v>
       </c>
       <c r="O223" t="n">
-        <v>5.532056335683647</v>
+        <v>5.532056335683663</v>
       </c>
       <c r="P223" t="inlineStr">
         <is>
@@ -13196,19 +13196,19 @@
         <v>964</v>
       </c>
       <c r="G224" t="n">
-        <v>0.9030191841128156</v>
+        <v>0.9030191841129032</v>
       </c>
       <c r="H224" t="n">
-        <v>0.01080545078948596</v>
+        <v>0.01080545078948678</v>
       </c>
       <c r="I224" t="n">
-        <v>-0.7882816847672793</v>
+        <v>-0.7882816847673561</v>
       </c>
       <c r="J224" t="n">
         <v>458</v>
       </c>
       <c r="K224" t="n">
-        <v>171.5699038124601</v>
+        <v>171.56990381246</v>
       </c>
       <c r="L224" t="n">
         <v>164</v>
@@ -13217,10 +13217,10 @@
         <v>296</v>
       </c>
       <c r="N224" t="n">
-        <v>154.5499667034005</v>
+        <v>154.5499667034155</v>
       </c>
       <c r="O224" t="n">
-        <v>4.288136974502004</v>
+        <v>4.288136974502017</v>
       </c>
       <c r="P224" t="inlineStr">
         <is>
@@ -13253,13 +13253,13 @@
         <v>964</v>
       </c>
       <c r="G225" t="n">
-        <v>0.8401051674975801</v>
+        <v>0.8401051674976614</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.08312604072116139</v>
+        <v>-0.08312604072116966</v>
       </c>
       <c r="I225" t="n">
-        <v>-0.7882816847672793</v>
+        <v>-0.7882816847673561</v>
       </c>
       <c r="J225" t="n">
         <v>164</v>
@@ -13274,10 +13274,10 @@
         <v>39</v>
       </c>
       <c r="N225" t="n">
-        <v>43.76774299238043</v>
+        <v>43.76774299238468</v>
       </c>
       <c r="O225" t="n">
-        <v>3.989379289605999</v>
+        <v>3.989379289606009</v>
       </c>
       <c r="P225" t="inlineStr">
         <is>
@@ -13310,13 +13310,13 @@
         <v>1563</v>
       </c>
       <c r="G226" t="n">
-        <v>0.7565393524327644</v>
+        <v>0.7565393524328372</v>
       </c>
       <c r="H226" t="n">
-        <v>3.532255877823398</v>
+        <v>3.532255877823742</v>
       </c>
       <c r="I226" t="n">
-        <v>-0.7882816847672793</v>
+        <v>-0.7882816847673561</v>
       </c>
       <c r="J226" t="n">
         <v>304</v>
@@ -13331,10 +13331,10 @@
         <v>22</v>
       </c>
       <c r="N226" t="n">
-        <v>212.8710016539393</v>
+        <v>212.87100165396</v>
       </c>
       <c r="O226" t="n">
-        <v>3.592553100652006</v>
+        <v>3.592553100652013</v>
       </c>
       <c r="P226" t="inlineStr">
         <is>
@@ -13367,13 +13367,13 @@
         <v>2059</v>
       </c>
       <c r="G227" t="n">
-        <v>1.068572887988479</v>
+        <v>1.068572887988583</v>
       </c>
       <c r="H227" t="n">
-        <v>0.9453101937576422</v>
+        <v>0.9453101937577343</v>
       </c>
       <c r="I227" t="n">
-        <v>-0.7882816847672793</v>
+        <v>-0.7882816847673561</v>
       </c>
       <c r="J227" t="n">
         <v>306</v>
@@ -13388,10 +13388,10 @@
         <v>249</v>
       </c>
       <c r="N227" t="n">
-        <v>225.7201546846108</v>
+        <v>225.7201546846327</v>
       </c>
       <c r="O227" t="n">
-        <v>5.074296306822787</v>
+        <v>5.074296306822803</v>
       </c>
       <c r="P227" t="inlineStr">
         <is>
@@ -13424,13 +13424,13 @@
         <v>2803</v>
       </c>
       <c r="G228" t="n">
-        <v>0.7069857789122111</v>
+        <v>0.7069857789122798</v>
       </c>
       <c r="H228" t="n">
-        <v>0.3408990648829438</v>
+        <v>0.3408990648829767</v>
       </c>
       <c r="I228" t="n">
-        <v>-0.7882816847672793</v>
+        <v>-0.7882816847673561</v>
       </c>
       <c r="J228" t="n">
         <v>253</v>
@@ -13445,10 +13445,10 @@
         <v>199</v>
       </c>
       <c r="N228" t="n">
-        <v>123.6029892112628</v>
+        <v>123.6029892112748</v>
       </c>
       <c r="O228" t="n">
-        <v>3.357239704690264</v>
+        <v>3.357239704690274</v>
       </c>
       <c r="P228" t="inlineStr">
         <is>
@@ -13481,13 +13481,13 @@
         <v>2373</v>
       </c>
       <c r="G229" t="n">
-        <v>0.6871867975092143</v>
+        <v>0.687186797509281</v>
       </c>
       <c r="H229" t="n">
-        <v>0.02268563935930335</v>
+        <v>0.02268563935930538</v>
       </c>
       <c r="I229" t="n">
-        <v>-0.7201940187361124</v>
+        <v>-0.7201940187361826</v>
       </c>
       <c r="J229" t="n">
         <v>271</v>
@@ -13502,10 +13502,10 @@
         <v>211</v>
       </c>
       <c r="N229" t="n">
-        <v>74.26220682308801</v>
+        <v>74.26220682309523</v>
       </c>
       <c r="O229" t="n">
-        <v>5.119929867938456</v>
+        <v>5.119929867938451</v>
       </c>
       <c r="P229" t="inlineStr">
         <is>
@@ -13538,13 +13538,13 @@
         <v>2998</v>
       </c>
       <c r="G230" t="n">
-        <v>3.544948839165258</v>
+        <v>3.544948839165603</v>
       </c>
       <c r="H230" t="n">
-        <v>3.569877579689768</v>
+        <v>3.569877579690116</v>
       </c>
       <c r="I230" t="n">
-        <v>-0.7201940187361124</v>
+        <v>-0.7201940187361826</v>
       </c>
       <c r="J230" t="n">
         <v>304</v>
@@ -13559,10 +13559,10 @@
         <v>226</v>
       </c>
       <c r="N230" t="n">
-        <v>544.7046921245882</v>
+        <v>544.7046921246415</v>
       </c>
       <c r="O230" t="n">
-        <v>26.41187157224539</v>
+        <v>26.41187157224537</v>
       </c>
       <c r="P230" t="inlineStr">
         <is>
@@ -13595,19 +13595,19 @@
         <v>632</v>
       </c>
       <c r="G231" t="n">
-        <v>3.221109588858926</v>
+        <v>3.221109588859239</v>
       </c>
       <c r="H231" t="n">
-        <v>2.235700595985278</v>
+        <v>2.235700595985497</v>
       </c>
       <c r="I231" t="n">
-        <v>-0.9761641018992179</v>
+        <v>-0.976164101899313</v>
       </c>
       <c r="J231" t="n">
         <v>189</v>
       </c>
       <c r="K231" t="n">
-        <v>105.2595620614632</v>
+        <v>105.2595620614631</v>
       </c>
       <c r="L231" t="n">
         <v>53</v>
@@ -13616,10 +13616,10 @@
         <v>138</v>
       </c>
       <c r="N231" t="n">
-        <v>344.5822698646335</v>
+        <v>344.5822698646672</v>
       </c>
       <c r="O231" t="n">
-        <v>11.77894115625495</v>
+        <v>11.7789411562549</v>
       </c>
       <c r="P231" t="inlineStr">
         <is>
@@ -13652,13 +13652,13 @@
         <v>944</v>
       </c>
       <c r="G232" t="n">
-        <v>2.624441142014044</v>
+        <v>2.624441142014299</v>
       </c>
       <c r="H232" t="n">
-        <v>2.104298936329483</v>
+        <v>2.104298936329688</v>
       </c>
       <c r="I232" t="n">
-        <v>-0.9761641018992179</v>
+        <v>-0.976164101899313</v>
       </c>
       <c r="J232" t="n">
         <v>312</v>
@@ -13673,10 +13673,10 @@
         <v>115</v>
       </c>
       <c r="N232" t="n">
-        <v>312.5061207797585</v>
+        <v>312.5061207797889</v>
       </c>
       <c r="O232" t="n">
-        <v>9.597046274600331</v>
+        <v>9.597046274600295</v>
       </c>
       <c r="P232" t="inlineStr">
         <is>
@@ -13709,13 +13709,13 @@
         <v>1204</v>
       </c>
       <c r="G233" t="n">
-        <v>3.403487532638806</v>
+        <v>3.403487532639137</v>
       </c>
       <c r="H233" t="n">
-        <v>2.370517632171868</v>
+        <v>2.370517632172098</v>
       </c>
       <c r="I233" t="n">
-        <v>-0.9761641018992179</v>
+        <v>-0.976164101899313</v>
       </c>
       <c r="J233" t="n">
         <v>572</v>
@@ -13730,10 +13730,10 @@
         <v>173</v>
       </c>
       <c r="N233" t="n">
-        <v>658.0523377416473</v>
+        <v>658.0523377417114</v>
       </c>
       <c r="O233" t="n">
-        <v>12.44586011964948</v>
+        <v>12.44586011964943</v>
       </c>
       <c r="P233" t="inlineStr">
         <is>
@@ -13766,19 +13766,19 @@
         <v>2074</v>
       </c>
       <c r="G234" t="n">
-        <v>1.638216418124111</v>
+        <v>1.638216418124269</v>
       </c>
       <c r="H234" t="n">
-        <v>1.537796766911797</v>
+        <v>1.537796766911946</v>
       </c>
       <c r="I234" t="n">
-        <v>-0.9761641018992179</v>
+        <v>-0.976164101899313</v>
       </c>
       <c r="J234" t="n">
         <v>404</v>
       </c>
       <c r="K234" t="n">
-        <v>46.2177323049591</v>
+        <v>46.21773230495955</v>
       </c>
       <c r="L234" t="n">
         <v>63</v>
@@ -13787,10 +13787,10 @@
         <v>343</v>
       </c>
       <c r="N234" t="n">
-        <v>392.4106585796036</v>
+        <v>392.4106585796419</v>
       </c>
       <c r="O234" t="n">
-        <v>5.990623497268341</v>
+        <v>5.990623497268317</v>
       </c>
       <c r="P234" t="inlineStr">
         <is>
@@ -13823,13 +13823,13 @@
         <v>2917</v>
       </c>
       <c r="G235" t="n">
-        <v>1.954472621785177</v>
+        <v>1.954472621785366</v>
       </c>
       <c r="H235" t="n">
-        <v>1.01497649097164</v>
+        <v>1.014976490971738</v>
       </c>
       <c r="I235" t="n">
-        <v>-0.9761641018992179</v>
+        <v>-0.976164101899313</v>
       </c>
       <c r="J235" t="n">
         <v>558</v>
@@ -13844,10 +13844,10 @@
         <v>289</v>
       </c>
       <c r="N235" t="n">
-        <v>407.3473153328856</v>
+        <v>407.3473153329253</v>
       </c>
       <c r="O235" t="n">
-        <v>7.147107966504892</v>
+        <v>7.147107966504864</v>
       </c>
       <c r="P235" t="inlineStr">
         <is>
@@ -13880,19 +13880,19 @@
         <v>396</v>
       </c>
       <c r="G236" t="n">
-        <v>2.198864837692675</v>
+        <v>2.198864837692763</v>
       </c>
       <c r="H236" t="n">
-        <v>0.9214348695947985</v>
+        <v>0.921434869594888</v>
       </c>
       <c r="I236" t="n">
-        <v>-1.007730814300412</v>
+        <v>-1.00773081430051</v>
       </c>
       <c r="J236" t="n">
         <v>396</v>
       </c>
       <c r="K236" t="n">
-        <v>60.52739289843069</v>
+        <v>60.52739289842749</v>
       </c>
       <c r="L236" t="n">
         <v>160</v>
@@ -13901,10 +13901,10 @@
         <v>238</v>
       </c>
       <c r="N236" t="n">
-        <v>141.2953181246071</v>
+        <v>141.2953181246239</v>
       </c>
       <c r="O236" t="n">
-        <v>8.035353015786685</v>
+        <v>8.035353015786317</v>
       </c>
       <c r="P236" t="inlineStr">
         <is>
@@ -13937,13 +13937,13 @@
         <v>641</v>
       </c>
       <c r="G237" t="n">
-        <v>2.875277958614997</v>
+        <v>2.875277958615276</v>
       </c>
       <c r="H237" t="n">
-        <v>2.382886059349818</v>
+        <v>2.38288605935005</v>
       </c>
       <c r="I237" t="n">
-        <v>-1.007730814300412</v>
+        <v>-1.00773081430051</v>
       </c>
       <c r="J237" t="n">
         <v>245</v>
@@ -13958,10 +13958,10 @@
         <v>108</v>
       </c>
       <c r="N237" t="n">
-        <v>298.6275503862394</v>
+        <v>298.6275503862685</v>
       </c>
       <c r="O237" t="n">
-        <v>10.50718216960779</v>
+        <v>10.50718216960791</v>
       </c>
       <c r="P237" t="inlineStr">
         <is>
@@ -13994,13 +13994,13 @@
         <v>1031</v>
       </c>
       <c r="G238" t="n">
-        <v>0.9620813550943563</v>
+        <v>0.9620813550944495</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.1183325864981389</v>
+        <v>-0.1183325864981507</v>
       </c>
       <c r="I238" t="n">
-        <v>-1.007730814300412</v>
+        <v>-1.00773081430051</v>
       </c>
       <c r="J238" t="n">
         <v>237</v>
@@ -14015,10 +14015,10 @@
         <v>100</v>
       </c>
       <c r="N238" t="n">
-        <v>85.873906936986</v>
+        <v>85.87390693699439</v>
       </c>
       <c r="O238" t="n">
-        <v>3.515751939624247</v>
+        <v>3.515751939624286</v>
       </c>
       <c r="P238" t="inlineStr">
         <is>
@@ -14051,13 +14051,13 @@
         <v>1175</v>
       </c>
       <c r="G239" t="n">
-        <v>0.7832462578472729</v>
+        <v>0.7832462578473478</v>
       </c>
       <c r="H239" t="n">
-        <v>1.604456817417119</v>
+        <v>1.604456817417274</v>
       </c>
       <c r="I239" t="n">
-        <v>-1.007730814300412</v>
+        <v>-1.00773081430051</v>
       </c>
       <c r="J239" t="n">
         <v>144</v>
@@ -14072,10 +14072,10 @@
         <v>19</v>
       </c>
       <c r="N239" t="n">
-        <v>80.17534540133229</v>
+        <v>80.17534540134012</v>
       </c>
       <c r="O239" t="n">
-        <v>2.86223148972668</v>
+        <v>2.862231489726708</v>
       </c>
       <c r="P239" t="inlineStr">
         <is>
@@ -14108,13 +14108,13 @@
         <v>1697</v>
       </c>
       <c r="G240" t="n">
-        <v>0.6689220075194799</v>
+        <v>0.6689220075195446</v>
       </c>
       <c r="H240" t="n">
-        <v>0.9430566099310668</v>
+        <v>0.9430566099311585</v>
       </c>
       <c r="I240" t="n">
-        <v>-1.007730814300412</v>
+        <v>-1.00773081430051</v>
       </c>
       <c r="J240" t="n">
         <v>112</v>
@@ -14129,10 +14129,10 @@
         <v>78</v>
       </c>
       <c r="N240" t="n">
-        <v>160.1481526608523</v>
+        <v>160.1481526608679</v>
       </c>
       <c r="O240" t="n">
-        <v>2.444454237618301</v>
+        <v>2.444454237618327</v>
       </c>
       <c r="P240" t="inlineStr">
         <is>
@@ -14165,13 +14165,13 @@
         <v>1827</v>
       </c>
       <c r="G241" t="n">
-        <v>0.9159312021523474</v>
+        <v>0.9159312021524355</v>
       </c>
       <c r="H241" t="n">
-        <v>0.8100535499978441</v>
+        <v>0.8100535499979226</v>
       </c>
       <c r="I241" t="n">
-        <v>-1.007730814300412</v>
+        <v>-1.00773081430051</v>
       </c>
       <c r="J241" t="n">
         <v>130</v>
@@ -14186,10 +14186,10 @@
         <v>51</v>
       </c>
       <c r="N241" t="n">
-        <v>130.9816106242865</v>
+        <v>130.9816106242993</v>
       </c>
       <c r="O241" t="n">
-        <v>3.347104570188519</v>
+        <v>3.347104570188554</v>
       </c>
       <c r="P241" t="inlineStr">
         <is>
@@ -14222,13 +14222,13 @@
         <v>2738</v>
       </c>
       <c r="G242" t="n">
-        <v>1.91191900764107</v>
+        <v>1.911919007641255</v>
       </c>
       <c r="H242" t="n">
-        <v>0.9529865154498393</v>
+        <v>0.9529865154499313</v>
       </c>
       <c r="I242" t="n">
-        <v>-1.007730814300412</v>
+        <v>-1.00773081430051</v>
       </c>
       <c r="J242" t="n">
         <v>582</v>
@@ -14243,10 +14243,10 @@
         <v>554</v>
       </c>
       <c r="N242" t="n">
-        <v>319.0441257000293</v>
+        <v>319.0441257000604</v>
       </c>
       <c r="O242" t="n">
-        <v>6.986761487399693</v>
+        <v>6.986761487399768</v>
       </c>
       <c r="P242" t="inlineStr">
         <is>
@@ -14279,13 +14279,13 @@
         <v>2738</v>
       </c>
       <c r="G243" t="n">
-        <v>0.8310601165724391</v>
+        <v>0.8310601165725192</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.1573533345183823</v>
+        <v>-0.1573533345183979</v>
       </c>
       <c r="I243" t="n">
-        <v>-1.007730814300412</v>
+        <v>-1.00773081430051</v>
       </c>
       <c r="J243" t="n">
         <v>415</v>
@@ -14300,10 +14300,10 @@
         <v>349</v>
       </c>
       <c r="N243" t="n">
-        <v>204.6790672108528</v>
+        <v>204.6790672108728</v>
       </c>
       <c r="O243" t="n">
-        <v>3.036958570408371</v>
+        <v>3.036958570408404</v>
       </c>
       <c r="P243" t="inlineStr">
         <is>
@@ -14336,19 +14336,19 @@
         <v>2989</v>
       </c>
       <c r="G244" t="n">
-        <v>2.524710362330697</v>
+        <v>2.524710362330879</v>
       </c>
       <c r="H244" t="n">
-        <v>1.875604543422389</v>
+        <v>1.875604543422571</v>
       </c>
       <c r="I244" t="n">
-        <v>-1.007730814300412</v>
+        <v>-1.00773081430051</v>
       </c>
       <c r="J244" t="n">
         <v>251</v>
       </c>
       <c r="K244" t="n">
-        <v>51.72620347370776</v>
+        <v>51.72620347370639</v>
       </c>
       <c r="L244" t="n">
         <v>75</v>
@@ -14357,10 +14357,10 @@
         <v>178</v>
       </c>
       <c r="N244" t="n">
-        <v>256.3525204341944</v>
+        <v>256.3525204342204</v>
       </c>
       <c r="O244" t="n">
-        <v>9.226096427659222</v>
+        <v>9.226096427659094</v>
       </c>
       <c r="P244" t="inlineStr">
         <is>
@@ -14393,13 +14393,13 @@
         <v>772</v>
       </c>
       <c r="G245" t="n">
-        <v>1.066511989454906</v>
+        <v>1.066511989455009</v>
       </c>
       <c r="H245" t="n">
-        <v>0.100664709831109</v>
+        <v>0.1006647098311184</v>
       </c>
       <c r="I245" t="n">
-        <v>-0.7898969488426628</v>
+        <v>-0.7898969488427396</v>
       </c>
       <c r="J245" t="n">
         <v>365</v>
@@ -14414,10 +14414,10 @@
         <v>323</v>
       </c>
       <c r="N245" t="n">
-        <v>131.4242032742869</v>
+        <v>131.4242032742997</v>
       </c>
       <c r="O245" t="n">
-        <v>4.546505855276855</v>
+        <v>4.546505855276886</v>
       </c>
       <c r="P245" t="inlineStr">
         <is>
@@ -14450,13 +14450,13 @@
         <v>967</v>
       </c>
       <c r="G246" t="n">
-        <v>1.323665811286561</v>
+        <v>1.323665811286689</v>
       </c>
       <c r="H246" t="n">
-        <v>0.6206334182658151</v>
+        <v>0.6206334182658753</v>
       </c>
       <c r="I246" t="n">
-        <v>-0.7898969488426628</v>
+        <v>-0.7898969488427396</v>
       </c>
       <c r="J246" t="n">
         <v>195</v>
@@ -14471,10 +14471,10 @@
         <v>35</v>
       </c>
       <c r="N246" t="n">
-        <v>88.40927502768729</v>
+        <v>88.40927502769587</v>
       </c>
       <c r="O246" t="n">
-        <v>5.642744217549741</v>
+        <v>5.64274421754978</v>
       </c>
       <c r="P246" t="inlineStr">
         <is>
@@ -14507,13 +14507,13 @@
         <v>2326</v>
       </c>
       <c r="G247" t="n">
-        <v>1.054386602481712</v>
+        <v>1.054386602481814</v>
       </c>
       <c r="H247" t="n">
-        <v>0.5729006106780081</v>
+        <v>0.5729006106780635</v>
       </c>
       <c r="I247" t="n">
-        <v>-0.7898969488426628</v>
+        <v>-0.7898969488427396</v>
       </c>
       <c r="J247" t="n">
         <v>565</v>
@@ -14528,10 +14528,10 @@
         <v>482</v>
       </c>
       <c r="N247" t="n">
-        <v>195.9122029500993</v>
+        <v>195.9122029501183</v>
       </c>
       <c r="O247" t="n">
-        <v>4.494815725755386</v>
+        <v>4.494815725755416</v>
       </c>
       <c r="P247" t="inlineStr">
         <is>
@@ -14564,13 +14564,13 @@
         <v>2326</v>
       </c>
       <c r="G248" t="n">
-        <v>1.163725615059055</v>
+        <v>1.163725615059168</v>
       </c>
       <c r="H248" t="n">
-        <v>0.2529410968877214</v>
+        <v>0.2529410968877457</v>
       </c>
       <c r="I248" t="n">
-        <v>-0.7898969488426628</v>
+        <v>-0.7898969488427396</v>
       </c>
       <c r="J248" t="n">
         <v>426</v>
@@ -14585,10 +14585,10 @@
         <v>194</v>
       </c>
       <c r="N248" t="n">
-        <v>118.7531902536869</v>
+        <v>118.7531902536984</v>
       </c>
       <c r="O248" t="n">
-        <v>4.960924373204493</v>
+        <v>4.960924373204526</v>
       </c>
       <c r="P248" t="inlineStr">
         <is>
@@ -14621,13 +14621,13 @@
         <v>2580</v>
       </c>
       <c r="G249" t="n">
-        <v>1.142043432767219</v>
+        <v>1.142043432767329</v>
       </c>
       <c r="H249" t="n">
-        <v>0.3652395282569449</v>
+        <v>0.3652395282569799</v>
       </c>
       <c r="I249" t="n">
-        <v>-0.7898969488426628</v>
+        <v>-0.7898969488427396</v>
       </c>
       <c r="J249" t="n">
         <v>254</v>
@@ -14642,10 +14642,10 @@
         <v>111</v>
       </c>
       <c r="N249" t="n">
-        <v>113.6824898295576</v>
+        <v>113.6824898295686</v>
       </c>
       <c r="O249" t="n">
-        <v>4.868493936678976</v>
+        <v>4.868493936679005</v>
       </c>
       <c r="P249" t="inlineStr">
         <is>
@@ -14678,13 +14678,13 @@
         <v>2930</v>
       </c>
       <c r="G250" t="n">
-        <v>0.9951673946405328</v>
+        <v>0.9951673946406291</v>
       </c>
       <c r="H250" t="n">
-        <v>0.2714361235543032</v>
+        <v>0.2714361235543293</v>
       </c>
       <c r="I250" t="n">
-        <v>-0.7898969488426628</v>
+        <v>-0.7898969488427396</v>
       </c>
       <c r="J250" t="n">
         <v>184</v>
@@ -14699,10 +14699,10 @@
         <v>134</v>
       </c>
       <c r="N250" t="n">
-        <v>102.3084189283985</v>
+        <v>102.3084189284084</v>
       </c>
       <c r="O250" t="n">
-        <v>4.24236617257935</v>
+        <v>4.242366172579377</v>
       </c>
       <c r="P250" t="inlineStr">
         <is>
@@ -14735,13 +14735,13 @@
         <v>1112</v>
       </c>
       <c r="G251" t="n">
-        <v>1.487801815355388</v>
+        <v>1.487801815355532</v>
       </c>
       <c r="H251" t="n">
-        <v>0.5969432393236559</v>
+        <v>0.5969432393237137</v>
       </c>
       <c r="I251" t="n">
-        <v>-0.869753203441558</v>
+        <v>-0.8697532034416422</v>
       </c>
       <c r="J251" t="n">
         <v>307</v>
@@ -14756,10 +14756,10 @@
         <v>179</v>
       </c>
       <c r="N251" t="n">
-        <v>154.3063292203581</v>
+        <v>154.3063292203729</v>
       </c>
       <c r="O251" t="n">
-        <v>5.715527866386144</v>
+        <v>5.715527866386134</v>
       </c>
       <c r="P251" t="inlineStr">
         <is>
@@ -14792,19 +14792,19 @@
         <v>1753</v>
       </c>
       <c r="G252" t="n">
-        <v>1.616234780102439</v>
+        <v>1.616234780102596</v>
       </c>
       <c r="H252" t="n">
-        <v>1.144972919265451</v>
+        <v>1.144972919265562</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.869753203441558</v>
+        <v>-0.8697532034416422</v>
       </c>
       <c r="J252" t="n">
         <v>266</v>
       </c>
       <c r="K252" t="n">
-        <v>69.38192661485232</v>
+        <v>69.38192661485255</v>
       </c>
       <c r="L252" t="n">
         <v>149</v>
@@ -14813,10 +14813,10 @@
         <v>119</v>
       </c>
       <c r="N252" t="n">
-        <v>305.8392252364685</v>
+        <v>305.8392252364981</v>
       </c>
       <c r="O252" t="n">
-        <v>6.20891494348083</v>
+        <v>6.208914943480821</v>
       </c>
       <c r="P252" t="inlineStr">
         <is>
@@ -14849,13 +14849,13 @@
         <v>2172</v>
       </c>
       <c r="G253" t="n">
-        <v>2.498900365035407</v>
+        <v>2.498900365035649</v>
       </c>
       <c r="H253" t="n">
-        <v>1.886027751589103</v>
+        <v>1.886027751589286</v>
       </c>
       <c r="I253" t="n">
-        <v>-0.869753203441558</v>
+        <v>-0.8697532034416422</v>
       </c>
       <c r="J253" t="n">
         <v>419</v>
@@ -14870,10 +14870,10 @@
         <v>315</v>
       </c>
       <c r="N253" t="n">
-        <v>429.9136034493631</v>
+        <v>429.9136034494047</v>
       </c>
       <c r="O253" t="n">
-        <v>9.599756180073443</v>
+        <v>9.599756180073427</v>
       </c>
       <c r="P253" t="inlineStr">
         <is>
@@ -14906,13 +14906,13 @@
         <v>2172</v>
       </c>
       <c r="G254" t="n">
-        <v>1.070399986233077</v>
+        <v>1.070399986233181</v>
       </c>
       <c r="H254" t="n">
-        <v>0.9790908031568881</v>
+        <v>0.9790908031569833</v>
       </c>
       <c r="I254" t="n">
-        <v>-0.869753203441558</v>
+        <v>-0.8697532034416422</v>
       </c>
       <c r="J254" t="n">
         <v>258</v>
@@ -14927,10 +14927,10 @@
         <v>215</v>
       </c>
       <c r="N254" t="n">
-        <v>246.2562938842631</v>
+        <v>246.2562938842869</v>
       </c>
       <c r="O254" t="n">
-        <v>4.112040250490705</v>
+        <v>4.112040250490699</v>
       </c>
       <c r="P254" t="inlineStr">
         <is>
@@ -14963,13 +14963,13 @@
         <v>2679</v>
       </c>
       <c r="G255" t="n">
-        <v>1.851187383403741</v>
+        <v>1.851187383403921</v>
       </c>
       <c r="H255" t="n">
-        <v>1.069872039314953</v>
+        <v>1.069872039315057</v>
       </c>
       <c r="I255" t="n">
-        <v>-0.869753203441558</v>
+        <v>-0.8697532034416422</v>
       </c>
       <c r="J255" t="n">
         <v>507</v>
@@ -14984,10 +14984,10 @@
         <v>180</v>
       </c>
       <c r="N255" t="n">
-        <v>280.332774296607</v>
+        <v>280.332774296634</v>
       </c>
       <c r="O255" t="n">
-        <v>7.111507034436027</v>
+        <v>7.111507034436018</v>
       </c>
       <c r="P255" t="inlineStr">
         <is>
@@ -15020,13 +15020,13 @@
         <v>2804</v>
       </c>
       <c r="G256" t="n">
-        <v>1.10074146995751</v>
+        <v>1.100741469957616</v>
       </c>
       <c r="H256" t="n">
-        <v>0.7162895753923409</v>
+        <v>0.7162895753924106</v>
       </c>
       <c r="I256" t="n">
-        <v>-0.869753203441558</v>
+        <v>-0.8697532034416422</v>
       </c>
       <c r="J256" t="n">
         <v>125</v>
@@ -15041,10 +15041,10 @@
         <v>35</v>
       </c>
       <c r="N256" t="n">
-        <v>95.49775369048686</v>
+        <v>95.4977536904961</v>
       </c>
       <c r="O256" t="n">
-        <v>4.228599858057171</v>
+        <v>4.228599858057163</v>
       </c>
       <c r="P256" t="inlineStr">
         <is>
@@ -15077,13 +15077,13 @@
         <v>793</v>
       </c>
       <c r="G257" t="n">
-        <v>3.587412110731538</v>
+        <v>3.587412110731887</v>
       </c>
       <c r="H257" t="n">
-        <v>2.218135874036442</v>
+        <v>2.218135874036657</v>
       </c>
       <c r="I257" t="n">
-        <v>-1.040769915421834</v>
+        <v>-1.040769915421915</v>
       </c>
       <c r="J257" t="n">
         <v>388</v>
@@ -15098,10 +15098,10 @@
         <v>189</v>
       </c>
       <c r="N257" t="n">
-        <v>309.1392040135837</v>
+        <v>309.1392040136058</v>
       </c>
       <c r="O257" t="n">
-        <v>11.11035250634146</v>
+        <v>11.11035250634152</v>
       </c>
       <c r="P257" t="inlineStr">
         <is>
@@ -15134,19 +15134,19 @@
         <v>1251</v>
       </c>
       <c r="G258" t="n">
-        <v>2.945087011857762</v>
+        <v>2.945087011858048</v>
       </c>
       <c r="H258" t="n">
-        <v>1.474717630104756</v>
+        <v>1.4747176301049</v>
       </c>
       <c r="I258" t="n">
-        <v>-1.040769915421834</v>
+        <v>-1.040769915421915</v>
       </c>
       <c r="J258" t="n">
         <v>458</v>
       </c>
       <c r="K258" t="n">
-        <v>120.5557339453269</v>
+        <v>120.555733945327</v>
       </c>
       <c r="L258" t="n">
         <v>137</v>
@@ -15155,10 +15155,10 @@
         <v>323</v>
       </c>
       <c r="N258" t="n">
-        <v>344.9845917463503</v>
+        <v>344.9845917463745</v>
       </c>
       <c r="O258" t="n">
-        <v>9.121047109615512</v>
+        <v>9.121047109615557</v>
       </c>
       <c r="P258" t="inlineStr">
         <is>
@@ -15191,13 +15191,13 @@
         <v>1863</v>
       </c>
       <c r="G259" t="n">
-        <v>1.515234597466148</v>
+        <v>1.515234597466294</v>
       </c>
       <c r="H259" t="n">
-        <v>2.245860402134988</v>
+        <v>2.245860402135206</v>
       </c>
       <c r="I259" t="n">
-        <v>-1.040769915421834</v>
+        <v>-1.040769915421915</v>
       </c>
       <c r="J259" t="n">
         <v>85</v>
@@ -15212,10 +15212,10 @@
         <v>51</v>
       </c>
       <c r="N259" t="n">
-        <v>195.6583738953454</v>
+        <v>195.6583738953627</v>
       </c>
       <c r="O259" t="n">
-        <v>4.692739498005541</v>
+        <v>4.692739498005561</v>
       </c>
       <c r="P259" t="inlineStr">
         <is>
@@ -15248,13 +15248,13 @@
         <v>2312</v>
       </c>
       <c r="G260" t="n">
-        <v>2.431966658439602</v>
+        <v>2.431966658439838</v>
       </c>
       <c r="H260" t="n">
-        <v>2.403557673578735</v>
+        <v>2.403557673578969</v>
       </c>
       <c r="I260" t="n">
-        <v>-1.040769915421834</v>
+        <v>-1.040769915421915</v>
       </c>
       <c r="J260" t="n">
         <v>534</v>
@@ -15269,10 +15269,10 @@
         <v>418</v>
       </c>
       <c r="N260" t="n">
-        <v>835.892966411216</v>
+        <v>835.8929664112862</v>
       </c>
       <c r="O260" t="n">
-        <v>7.531893750958945</v>
+        <v>7.531893750958979</v>
       </c>
       <c r="P260" t="inlineStr">
         <is>
@@ -15305,13 +15305,13 @@
         <v>2897</v>
       </c>
       <c r="G261" t="n">
-        <v>2.734403769521879</v>
+        <v>2.734403769522144</v>
       </c>
       <c r="H261" t="n">
-        <v>2.25382101955519</v>
+        <v>2.253821019555409</v>
       </c>
       <c r="I261" t="n">
-        <v>-1.040769915421834</v>
+        <v>-1.040769915421915</v>
       </c>
       <c r="J261" t="n">
         <v>585</v>
@@ -15326,10 +15326,10 @@
         <v>210</v>
       </c>
       <c r="N261" t="n">
-        <v>727.0376818807904</v>
+        <v>727.0376818808493</v>
       </c>
       <c r="O261" t="n">
-        <v>8.468553050589408</v>
+        <v>8.468553050589447</v>
       </c>
       <c r="P261" t="inlineStr">
         <is>
@@ -15362,13 +15362,13 @@
         <v>2998</v>
       </c>
       <c r="G262" t="n">
-        <v>1.513228130980681</v>
+        <v>1.513228130980823</v>
       </c>
       <c r="H262" t="n">
-        <v>1.518425726808287</v>
+        <v>1.518425726808435</v>
       </c>
       <c r="I262" t="n">
-        <v>-1.040769915421834</v>
+        <v>-1.040769915421915</v>
       </c>
       <c r="J262" t="n">
         <v>101</v>
@@ -15383,10 +15383,10 @@
         <v>61</v>
       </c>
       <c r="N262" t="n">
-        <v>173.9535708195738</v>
+        <v>173.9535708195874</v>
       </c>
       <c r="O262" t="n">
-        <v>4.686525394563393</v>
+        <v>4.6865253945634</v>
       </c>
       <c r="P262" t="inlineStr">
         <is>
@@ -15419,13 +15419,13 @@
         <v>1257</v>
       </c>
       <c r="G263" t="n">
-        <v>2.181488896050421</v>
+        <v>2.181488896050633</v>
       </c>
       <c r="H263" t="n">
-        <v>0.5654608009654378</v>
+        <v>0.5654608009654926</v>
       </c>
       <c r="I263" t="n">
-        <v>-1.070668697722143</v>
+        <v>-1.070668697722247</v>
       </c>
       <c r="J263" t="n">
         <v>460</v>
@@ -15440,10 +15440,10 @@
         <v>420</v>
       </c>
       <c r="N263" t="n">
-        <v>243.9660721270865</v>
+        <v>243.9660721271103</v>
       </c>
       <c r="O263" t="n">
-        <v>5.888831436075158</v>
+        <v>5.888831436075179</v>
       </c>
       <c r="P263" t="inlineStr">
         <is>
@@ -15476,13 +15476,13 @@
         <v>2289</v>
       </c>
       <c r="G264" t="n">
-        <v>2.095081688131041</v>
+        <v>2.095081688131244</v>
       </c>
       <c r="H264" t="n">
-        <v>1.383033215843181</v>
+        <v>1.383033215843315</v>
       </c>
       <c r="I264" t="n">
-        <v>-1.070668697722143</v>
+        <v>-1.070668697722247</v>
       </c>
       <c r="J264" t="n">
         <v>383</v>
@@ -15497,10 +15497,10 @@
         <v>160</v>
       </c>
       <c r="N264" t="n">
-        <v>370.782933607132</v>
+        <v>370.7829336071682</v>
       </c>
       <c r="O264" t="n">
-        <v>5.655579053621884</v>
+        <v>5.655579053621903</v>
       </c>
       <c r="P264" t="inlineStr">
         <is>
@@ -15533,13 +15533,13 @@
         <v>2887</v>
       </c>
       <c r="G265" t="n">
-        <v>2.252291590357347</v>
+        <v>2.252291590357565</v>
       </c>
       <c r="H265" t="n">
-        <v>1.89554543169933</v>
+        <v>1.895545431699514</v>
       </c>
       <c r="I265" t="n">
-        <v>-1.070668697722143</v>
+        <v>-1.070668697722247</v>
       </c>
       <c r="J265" t="n">
         <v>195</v>
@@ -15554,10 +15554,10 @@
         <v>136</v>
       </c>
       <c r="N265" t="n">
-        <v>355.1287642173758</v>
+        <v>355.1287642174104</v>
       </c>
       <c r="O265" t="n">
-        <v>6.079960133887154</v>
+        <v>6.079960133887175</v>
       </c>
       <c r="P265" t="inlineStr">
         <is>
@@ -15590,19 +15590,19 @@
         <v>2988</v>
       </c>
       <c r="G266" t="n">
-        <v>1.233102077422385</v>
+        <v>1.233102077422519</v>
       </c>
       <c r="H266" t="n">
-        <v>1.341485492488697</v>
+        <v>1.341485492488828</v>
       </c>
       <c r="I266" t="n">
-        <v>-1.070668697722143</v>
+        <v>-1.070668697722247</v>
       </c>
       <c r="J266" t="n">
         <v>101</v>
       </c>
       <c r="K266" t="n">
-        <v>62.36118698887094</v>
+        <v>62.36118698887185</v>
       </c>
       <c r="L266" t="n">
         <v>39</v>
@@ -15611,10 +15611,10 @@
         <v>64</v>
       </c>
       <c r="N266" t="n">
-        <v>180.4227804893191</v>
+        <v>180.4227804893362</v>
       </c>
       <c r="O266" t="n">
-        <v>3.328703753918483</v>
+        <v>3.328703753918534</v>
       </c>
       <c r="P266" t="inlineStr">
         <is>
@@ -15647,13 +15647,13 @@
         <v>1087</v>
       </c>
       <c r="G267" t="n">
-        <v>1.126146600945122</v>
+        <v>1.126146600945231</v>
       </c>
       <c r="H267" t="n">
-        <v>0.8032202909425612</v>
+        <v>0.8032202909426392</v>
       </c>
       <c r="I267" t="n">
-        <v>-0.8084808188574509</v>
+        <v>-0.8084808188575299</v>
       </c>
       <c r="J267" t="n">
         <v>295</v>
@@ -15668,10 +15668,10 @@
         <v>76</v>
       </c>
       <c r="N267" t="n">
-        <v>216.1352485585242</v>
+        <v>216.1352485585453</v>
       </c>
       <c r="O267" t="n">
-        <v>4.507811297594297</v>
+        <v>4.507811297594285</v>
       </c>
       <c r="P267" t="inlineStr">
         <is>
@@ -15704,13 +15704,13 @@
         <v>1258</v>
       </c>
       <c r="G268" t="n">
-        <v>1.991620004410172</v>
+        <v>1.991620004410366</v>
       </c>
       <c r="H268" t="n">
-        <v>0.9062589266252522</v>
+        <v>0.9062589266253402</v>
       </c>
       <c r="I268" t="n">
-        <v>-0.8084808188574509</v>
+        <v>-0.8084808188575299</v>
       </c>
       <c r="J268" t="n">
         <v>466</v>
@@ -15725,10 +15725,10 @@
         <v>143</v>
       </c>
       <c r="N268" t="n">
-        <v>278.3508507995859</v>
+        <v>278.3508507996131</v>
       </c>
       <c r="O268" t="n">
-        <v>7.972183327517301</v>
+        <v>7.972183327517282</v>
       </c>
       <c r="P268" t="inlineStr">
         <is>
@@ -15761,13 +15761,13 @@
         <v>1230</v>
       </c>
       <c r="G269" t="n">
-        <v>1.670298952944979</v>
+        <v>1.670298952945142</v>
       </c>
       <c r="H269" t="n">
-        <v>0.5414624776377572</v>
+        <v>0.5414624776378097</v>
       </c>
       <c r="I269" t="n">
-        <v>-0.9179945271267284</v>
+        <v>-0.9179945271268178</v>
       </c>
       <c r="J269" t="n">
         <v>408</v>
@@ -15782,10 +15782,10 @@
         <v>316</v>
       </c>
       <c r="N269" t="n">
-        <v>168.6915513145522</v>
+        <v>168.6915513145686</v>
       </c>
       <c r="O269" t="n">
-        <v>4.446408737953248</v>
+        <v>4.446408737953246</v>
       </c>
       <c r="P269" t="inlineStr">
         <is>
@@ -15818,13 +15818,13 @@
         <v>2803</v>
       </c>
       <c r="G270" t="n">
-        <v>1.557755916351006</v>
+        <v>1.557755916351157</v>
       </c>
       <c r="H270" t="n">
-        <v>0.47295855814695</v>
+        <v>0.4729585581469959</v>
       </c>
       <c r="I270" t="n">
-        <v>-0.9179945271267284</v>
+        <v>-0.9179945271268178</v>
       </c>
       <c r="J270" t="n">
         <v>467</v>
@@ -15839,10 +15839,10 @@
         <v>321</v>
       </c>
       <c r="N270" t="n">
-        <v>205.0033188608832</v>
+        <v>205.0033188609031</v>
       </c>
       <c r="O270" t="n">
-        <v>4.146814260913712</v>
+        <v>4.14681426091371</v>
       </c>
       <c r="P270" t="inlineStr">
         <is>
@@ -15875,13 +15875,13 @@
         <v>1192</v>
       </c>
       <c r="G271" t="n">
-        <v>2.140309878376688</v>
+        <v>2.140309878376895</v>
       </c>
       <c r="H271" t="n">
-        <v>1.250662377689675</v>
+        <v>1.250662377689795</v>
       </c>
       <c r="I271" t="n">
-        <v>-0.8428376628403693</v>
+        <v>-0.8428376628404515</v>
       </c>
       <c r="J271" t="n">
         <v>465</v>
@@ -15896,10 +15896,10 @@
         <v>432</v>
       </c>
       <c r="N271" t="n">
-        <v>166.3477907794964</v>
+        <v>166.3477907795126</v>
       </c>
       <c r="O271" t="n">
-        <v>8.305215597867768</v>
+        <v>8.305215597867759</v>
       </c>
       <c r="P271" t="inlineStr">
         <is>
@@ -15932,13 +15932,13 @@
         <v>1192</v>
       </c>
       <c r="G272" t="n">
-        <v>1.015913138252946</v>
+        <v>1.015913138253044</v>
       </c>
       <c r="H272" t="n">
-        <v>0.08854763430716038</v>
+        <v>0.08854763430716865</v>
       </c>
       <c r="I272" t="n">
-        <v>-0.8428376628403693</v>
+        <v>-0.8428376628404515</v>
       </c>
       <c r="J272" t="n">
         <v>376</v>
@@ -15953,10 +15953,10 @@
         <v>250</v>
       </c>
       <c r="N272" t="n">
-        <v>100.0792477092467</v>
+        <v>100.0792477092564</v>
       </c>
       <c r="O272" t="n">
-        <v>3.942129000636332</v>
+        <v>3.942129000636329</v>
       </c>
       <c r="P272" t="inlineStr">
         <is>
@@ -15989,13 +15989,13 @@
         <v>2911</v>
       </c>
       <c r="G273" t="n">
-        <v>1.099054337067746</v>
+        <v>1.099054337067852</v>
       </c>
       <c r="H273" t="n">
-        <v>0.4286651076355548</v>
+        <v>0.4286651076355962</v>
       </c>
       <c r="I273" t="n">
-        <v>-0.8428376628403693</v>
+        <v>-0.8428376628404515</v>
       </c>
       <c r="J273" t="n">
         <v>572</v>
@@ -16010,10 +16010,10 @@
         <v>99</v>
       </c>
       <c r="N273" t="n">
-        <v>351.0493416287563</v>
+        <v>351.0493416287906</v>
       </c>
       <c r="O273" t="n">
-        <v>4.26474844382921</v>
+        <v>4.264748443829206</v>
       </c>
       <c r="P273" t="inlineStr">
         <is>
@@ -16046,13 +16046,13 @@
         <v>132</v>
       </c>
       <c r="G274" t="n">
-        <v>1.411616382177911</v>
+        <v>1.411616382178048</v>
       </c>
       <c r="H274" t="n">
-        <v>1.320190779710472</v>
+        <v>1.3201907797106</v>
       </c>
       <c r="I274" t="n">
-        <v>-0.7258242972257981</v>
+        <v>-0.7258242972258687</v>
       </c>
       <c r="J274" t="n">
         <v>96</v>
@@ -16067,10 +16067,10 @@
         <v>66</v>
       </c>
       <c r="N274" t="n">
-        <v>116.6729909226648</v>
+        <v>116.6729909226762</v>
       </c>
       <c r="O274" t="n">
-        <v>6.678837645582801</v>
+        <v>6.678837645582798</v>
       </c>
       <c r="P274" t="inlineStr">
         <is>
@@ -16103,13 +16103,13 @@
         <v>228</v>
       </c>
       <c r="G275" t="n">
-        <v>0.5923412210218011</v>
+        <v>0.5923412210218575</v>
       </c>
       <c r="H275" t="n">
-        <v>3.551858070481848</v>
+        <v>3.551858070482194</v>
       </c>
       <c r="I275" t="n">
-        <v>-0.7258242972257981</v>
+        <v>-0.7258242972258687</v>
       </c>
       <c r="J275" t="n">
         <v>96</v>
@@ -16124,10 +16124,10 @@
         <v>28</v>
       </c>
       <c r="N275" t="n">
-        <v>303.4681260825078</v>
+        <v>303.4681260825374</v>
       </c>
       <c r="O275" t="n">
-        <v>2.802567961054081</v>
+        <v>2.802567961054076</v>
       </c>
       <c r="P275" t="inlineStr">
         <is>
@@ -16160,13 +16160,13 @@
         <v>580</v>
       </c>
       <c r="G276" t="n">
-        <v>0.5138108539661577</v>
+        <v>0.5138108539662073</v>
       </c>
       <c r="H276" t="n">
-        <v>0.06138915913805906</v>
+        <v>0.06138915913806481</v>
       </c>
       <c r="I276" t="n">
-        <v>-0.7258242972257981</v>
+        <v>-0.7258242972258687</v>
       </c>
       <c r="J276" t="n">
         <v>116</v>
@@ -16181,10 +16181,10 @@
         <v>33</v>
       </c>
       <c r="N276" t="n">
-        <v>55.92756690001652</v>
+        <v>55.92756690002196</v>
       </c>
       <c r="O276" t="n">
-        <v>2.431014061259114</v>
+        <v>2.431014061259112</v>
       </c>
       <c r="P276" t="inlineStr">
         <is>
@@ -16217,13 +16217,13 @@
         <v>818</v>
       </c>
       <c r="G277" t="n">
-        <v>0.8397603726245551</v>
+        <v>0.8397603726246364</v>
       </c>
       <c r="H277" t="n">
-        <v>0.3204157524261554</v>
+        <v>0.3204157524261865</v>
       </c>
       <c r="I277" t="n">
-        <v>-0.7258242972257981</v>
+        <v>-0.7258242972258687</v>
       </c>
       <c r="J277" t="n">
         <v>238</v>
@@ -16238,10 +16238,10 @@
         <v>193</v>
       </c>
       <c r="N277" t="n">
-        <v>67.9093963908774</v>
+        <v>67.909396390884</v>
       </c>
       <c r="O277" t="n">
-        <v>3.973192193547838</v>
+        <v>3.973192193547837</v>
       </c>
       <c r="P277" t="inlineStr">
         <is>
@@ -16274,13 +16274,13 @@
         <v>1254</v>
       </c>
       <c r="G278" t="n">
-        <v>1.412508799783804</v>
+        <v>1.412508799783941</v>
       </c>
       <c r="H278" t="n">
-        <v>0.3541335438194483</v>
+        <v>0.3541335438194826</v>
       </c>
       <c r="I278" t="n">
-        <v>-0.7258242972257981</v>
+        <v>-0.7258242972258687</v>
       </c>
       <c r="J278" t="n">
         <v>436</v>
@@ -16295,10 +16295,10 @@
         <v>358</v>
       </c>
       <c r="N278" t="n">
-        <v>112.8347815465667</v>
+        <v>112.8347815465777</v>
       </c>
       <c r="O278" t="n">
-        <v>6.683059977072478</v>
+        <v>6.683059977072476</v>
       </c>
       <c r="P278" t="inlineStr">
         <is>
@@ -16331,13 +16331,13 @@
         <v>1460</v>
       </c>
       <c r="G279" t="n">
-        <v>0.7546848849000221</v>
+        <v>0.7546848849000947</v>
       </c>
       <c r="H279" t="n">
-        <v>0.07679886704374761</v>
+        <v>0.07679886704375474</v>
       </c>
       <c r="I279" t="n">
-        <v>-0.7258242972257981</v>
+        <v>-0.7258242972258687</v>
       </c>
       <c r="J279" t="n">
         <v>206</v>
@@ -16352,10 +16352,10 @@
         <v>94</v>
       </c>
       <c r="N279" t="n">
-        <v>39.83822063294571</v>
+        <v>39.83822063294957</v>
       </c>
       <c r="O279" t="n">
-        <v>3.570671099782779</v>
+        <v>3.570671099782775</v>
       </c>
       <c r="P279" t="inlineStr">
         <is>
@@ -16388,13 +16388,13 @@
         <v>2174</v>
       </c>
       <c r="G280" t="n">
-        <v>0.8640921334799124</v>
+        <v>0.864092133479996</v>
       </c>
       <c r="H280" t="n">
-        <v>0.2112555342246079</v>
+        <v>0.2112555342246283</v>
       </c>
       <c r="I280" t="n">
-        <v>-0.7258242972257981</v>
+        <v>-0.7258242972258687</v>
       </c>
       <c r="J280" t="n">
         <v>256</v>
@@ -16409,10 +16409,10 @@
         <v>178</v>
       </c>
       <c r="N280" t="n">
-        <v>140.6928223497994</v>
+        <v>140.6928223498131</v>
       </c>
       <c r="O280" t="n">
-        <v>4.088314037156194</v>
+        <v>4.088314037156192</v>
       </c>
       <c r="P280" t="inlineStr">
         <is>
@@ -16445,19 +16445,19 @@
         <v>183</v>
       </c>
       <c r="G281" t="n">
-        <v>2.204227010096352</v>
+        <v>2.204227010096565</v>
       </c>
       <c r="H281" t="n">
-        <v>1.473354260287811</v>
+        <v>1.473354260287954</v>
       </c>
       <c r="I281" t="n">
-        <v>-1.039829332420454</v>
+        <v>-1.039829332420556</v>
       </c>
       <c r="J281" t="n">
         <v>183</v>
       </c>
       <c r="K281" t="n">
-        <v>71.59286889854545</v>
+        <v>71.59286889854508</v>
       </c>
       <c r="L281" t="n">
         <v>34</v>
@@ -16466,10 +16466,10 @@
         <v>151</v>
       </c>
       <c r="N281" t="n">
-        <v>235.3831793048647</v>
+        <v>235.3831793048878</v>
       </c>
       <c r="O281" t="n">
-        <v>5.76957804931076</v>
+        <v>5.769578049310775</v>
       </c>
       <c r="P281" t="inlineStr">
         <is>
@@ -16502,13 +16502,13 @@
         <v>578</v>
       </c>
       <c r="G282" t="n">
-        <v>1.743940139203102</v>
+        <v>1.743940139203272</v>
       </c>
       <c r="H282" t="n">
-        <v>1.164754678899247</v>
+        <v>1.16475467889936</v>
       </c>
       <c r="I282" t="n">
-        <v>-1.039829332420454</v>
+        <v>-1.039829332420556</v>
       </c>
       <c r="J282" t="n">
         <v>189</v>
@@ -16523,10 +16523,10 @@
         <v>45</v>
       </c>
       <c r="N282" t="n">
-        <v>215.6628009805207</v>
+        <v>215.6628009805417</v>
       </c>
       <c r="O282" t="n">
-        <v>4.564774272509412</v>
+        <v>4.564774272509426</v>
       </c>
       <c r="P282" t="inlineStr">
         <is>
@@ -16559,13 +16559,13 @@
         <v>1209</v>
       </c>
       <c r="G283" t="n">
-        <v>3.560117981131956</v>
+        <v>3.560117981132301</v>
       </c>
       <c r="H283" t="n">
-        <v>2.325783212937774</v>
+        <v>2.325783212938</v>
       </c>
       <c r="I283" t="n">
-        <v>-1.039829332420454</v>
+        <v>-1.039829332420556</v>
       </c>
       <c r="J283" t="n">
         <v>163</v>
@@ -16580,10 +16580,10 @@
         <v>126</v>
       </c>
       <c r="N283" t="n">
-        <v>198.3779603956955</v>
+        <v>198.3779603957149</v>
       </c>
       <c r="O283" t="n">
-        <v>9.318631185813118</v>
+        <v>9.318631185813144</v>
       </c>
       <c r="P283" t="inlineStr">
         <is>
@@ -16616,13 +16616,13 @@
         <v>1390</v>
       </c>
       <c r="G284" t="n">
-        <v>2.232086655072852</v>
+        <v>2.232086655073068</v>
       </c>
       <c r="H284" t="n">
-        <v>1.186168151969421</v>
+        <v>1.186168151969535</v>
       </c>
       <c r="I284" t="n">
-        <v>-1.039829332420454</v>
+        <v>-1.039829332420556</v>
       </c>
       <c r="J284" t="n">
         <v>181</v>
@@ -16637,10 +16637,10 @@
         <v>86</v>
       </c>
       <c r="N284" t="n">
-        <v>85.03027088727102</v>
+        <v>85.03027088727927</v>
       </c>
       <c r="O284" t="n">
-        <v>5.842500845094386</v>
+        <v>5.842500845094402</v>
       </c>
       <c r="P284" t="inlineStr">
         <is>
@@ -16673,13 +16673,13 @@
         <v>1800</v>
       </c>
       <c r="G285" t="n">
-        <v>3.215470036941042</v>
+        <v>3.215470036941355</v>
       </c>
       <c r="H285" t="n">
-        <v>2.398597290514318</v>
+        <v>2.398597290514551</v>
       </c>
       <c r="I285" t="n">
-        <v>-1.039829332420454</v>
+        <v>-1.039829332420556</v>
       </c>
       <c r="J285" t="n">
         <v>591</v>
@@ -16694,10 +16694,10 @@
         <v>295</v>
       </c>
       <c r="N285" t="n">
-        <v>587.0572352747581</v>
+        <v>587.0572352748152</v>
       </c>
       <c r="O285" t="n">
-        <v>8.416513026278793</v>
+        <v>8.416513026278816</v>
       </c>
       <c r="P285" t="inlineStr">
         <is>
@@ -16730,13 +16730,13 @@
         <v>1956</v>
       </c>
       <c r="G286" t="n">
-        <v>2.442666364691271</v>
+        <v>2.442666364691506</v>
       </c>
       <c r="H286" t="n">
-        <v>2.300062728084736</v>
+        <v>2.300062728084959</v>
       </c>
       <c r="I286" t="n">
-        <v>-1.039829332420454</v>
+        <v>-1.039829332420556</v>
       </c>
       <c r="J286" t="n">
         <v>156</v>
@@ -16751,10 +16751,10 @@
         <v>73</v>
       </c>
       <c r="N286" t="n">
-        <v>236.7176636289618</v>
+        <v>236.7176636289849</v>
       </c>
       <c r="O286" t="n">
-        <v>6.393694558209965</v>
+        <v>6.39369455820998</v>
       </c>
       <c r="P286" t="inlineStr">
         <is>
@@ -16787,19 +16787,19 @@
         <v>2980</v>
       </c>
       <c r="G287" t="n">
-        <v>2.820478534428045</v>
+        <v>2.820478534428208</v>
       </c>
       <c r="H287" t="n">
-        <v>1.675752055464192</v>
+        <v>1.675752055464354</v>
       </c>
       <c r="I287" t="n">
-        <v>-1.039829332420454</v>
+        <v>-1.039829332420556</v>
       </c>
       <c r="J287" t="n">
         <v>348</v>
       </c>
       <c r="K287" t="n">
-        <v>58.05084834667969</v>
+        <v>58.05084834667559</v>
       </c>
       <c r="L287" t="n">
         <v>35</v>
@@ -16808,10 +16808,10 @@
         <v>315</v>
       </c>
       <c r="N287" t="n">
-        <v>277.0880908154562</v>
+        <v>277.0880908154838</v>
       </c>
       <c r="O287" t="n">
-        <v>7.382620286499849</v>
+        <v>7.382620286499581</v>
       </c>
       <c r="P287" t="inlineStr">
         <is>
@@ -16844,13 +16844,13 @@
         <v>258</v>
       </c>
       <c r="G288" t="n">
-        <v>2.6995964453824</v>
+        <v>2.699596445382662</v>
       </c>
       <c r="H288" t="n">
-        <v>2.390022099487839</v>
+        <v>2.390022099488071</v>
       </c>
       <c r="I288" t="n">
-        <v>-1.184505493987226</v>
+        <v>-1.184505493987341</v>
       </c>
       <c r="J288" t="n">
         <v>188</v>
@@ -16865,10 +16865,10 @@
         <v>151</v>
       </c>
       <c r="N288" t="n">
-        <v>441.006485750187</v>
+        <v>441.00648575023</v>
       </c>
       <c r="O288" t="n">
-        <v>5.947924264570608</v>
+        <v>5.947924264570594</v>
       </c>
       <c r="P288" t="inlineStr">
         <is>
@@ -16901,13 +16901,13 @@
         <v>871</v>
       </c>
       <c r="G289" t="n">
-        <v>2.035694442015283</v>
+        <v>2.03569444201548</v>
       </c>
       <c r="H289" t="n">
-        <v>2.525401624743771</v>
+        <v>2.525401624744016</v>
       </c>
       <c r="I289" t="n">
-        <v>-1.184505493987226</v>
+        <v>-1.184505493987341</v>
       </c>
       <c r="J289" t="n">
         <v>361</v>
@@ -16922,10 +16922,10 @@
         <v>294</v>
       </c>
       <c r="N289" t="n">
-        <v>413.0390797562677</v>
+        <v>413.0390797563077</v>
       </c>
       <c r="O289" t="n">
-        <v>4.485172732993096</v>
+        <v>4.485172732993084</v>
       </c>
       <c r="P289" t="inlineStr">
         <is>
@@ -16958,13 +16958,13 @@
         <v>1339</v>
       </c>
       <c r="G290" t="n">
-        <v>2.255455444057342</v>
+        <v>2.25545544405756</v>
       </c>
       <c r="H290" t="n">
-        <v>0.5982900584295928</v>
+        <v>0.5982900584296502</v>
       </c>
       <c r="I290" t="n">
-        <v>-1.184505493987226</v>
+        <v>-1.184505493987341</v>
       </c>
       <c r="J290" t="n">
         <v>468</v>
@@ -16979,10 +16979,10 @@
         <v>132</v>
       </c>
       <c r="N290" t="n">
-        <v>139.7116564355176</v>
+        <v>139.7116564355311</v>
       </c>
       <c r="O290" t="n">
-        <v>4.969364286396612</v>
+        <v>4.969364286396599</v>
       </c>
       <c r="P290" t="inlineStr">
         <is>
@@ -17015,13 +17015,13 @@
         <v>1984</v>
       </c>
       <c r="G291" t="n">
-        <v>2.376578446467119</v>
+        <v>2.37657844646735</v>
       </c>
       <c r="H291" t="n">
-        <v>1.566826005490779</v>
+        <v>1.566826005490931</v>
       </c>
       <c r="I291" t="n">
-        <v>-1.184505493987226</v>
+        <v>-1.184505493987341</v>
       </c>
       <c r="J291" t="n">
         <v>393</v>
@@ -17036,10 +17036,10 @@
         <v>231</v>
       </c>
       <c r="N291" t="n">
-        <v>447.1482467007156</v>
+        <v>447.1482467007592</v>
       </c>
       <c r="O291" t="n">
-        <v>5.236230264184899</v>
+        <v>5.236230264184887</v>
       </c>
       <c r="P291" t="inlineStr">
         <is>
@@ -17072,13 +17072,13 @@
         <v>2356</v>
       </c>
       <c r="G292" t="n">
-        <v>2.301039593072167</v>
+        <v>2.30103959307239</v>
       </c>
       <c r="H292" t="n">
-        <v>1.614767657305469</v>
+        <v>1.614767657305626</v>
       </c>
       <c r="I292" t="n">
-        <v>-1.006312543191044</v>
+        <v>-1.006312543191142</v>
       </c>
       <c r="J292" t="n">
         <v>180</v>
@@ -17093,10 +17093,10 @@
         <v>145</v>
       </c>
       <c r="N292" t="n">
-        <v>183.2926630653326</v>
+        <v>183.2926630653504</v>
       </c>
       <c r="O292" t="n">
-        <v>5.945279671491781</v>
+        <v>5.945279671491774</v>
       </c>
       <c r="P292" t="inlineStr">
         <is>
@@ -17129,13 +17129,13 @@
         <v>691</v>
       </c>
       <c r="G293" t="n">
-        <v>0.5611405435313178</v>
+        <v>0.5611405435313722</v>
       </c>
       <c r="H293" t="n">
-        <v>-0.1740662876863216</v>
+        <v>-0.1740662876863388</v>
       </c>
       <c r="I293" t="n">
-        <v>-0.7272217881330822</v>
+        <v>-0.727221788133153</v>
       </c>
       <c r="J293" t="n">
         <v>484</v>
@@ -17150,10 +17150,10 @@
         <v>90</v>
       </c>
       <c r="N293" t="n">
-        <v>121.8217240994117</v>
+        <v>121.8217240994235</v>
       </c>
       <c r="O293" t="n">
-        <v>3.790548744526827</v>
+        <v>3.790548744526816</v>
       </c>
       <c r="P293" t="inlineStr">
         <is>
@@ -17186,13 +17186,13 @@
         <v>1255</v>
       </c>
       <c r="G294" t="n">
-        <v>0.6128473631383593</v>
+        <v>0.6128473631384197</v>
       </c>
       <c r="H294" t="n">
-        <v>3.550482345249989</v>
+        <v>3.550482345250336</v>
       </c>
       <c r="I294" t="n">
-        <v>-0.7272217881330822</v>
+        <v>-0.727221788133153</v>
       </c>
       <c r="J294" t="n">
         <v>347</v>
@@ -17207,10 +17207,10 @@
         <v>324</v>
       </c>
       <c r="N294" t="n">
-        <v>619.8584803519516</v>
+        <v>619.8584803520118</v>
       </c>
       <c r="O294" t="n">
-        <v>4.139832399761421</v>
+        <v>4.139832399761418</v>
       </c>
       <c r="P294" t="inlineStr">
         <is>
@@ -17243,13 +17243,13 @@
         <v>1969</v>
       </c>
       <c r="G295" t="n">
-        <v>0.8071302516041531</v>
+        <v>0.8071302516042312</v>
       </c>
       <c r="H295" t="n">
-        <v>0.8178520864422583</v>
+        <v>0.8178520864423376</v>
       </c>
       <c r="I295" t="n">
-        <v>-0.7272217881330822</v>
+        <v>-0.727221788133153</v>
       </c>
       <c r="J295" t="n">
         <v>206</v>
@@ -17264,10 +17264,10 @@
         <v>150</v>
       </c>
       <c r="N295" t="n">
-        <v>125.5038572680377</v>
+        <v>125.5038572680499</v>
       </c>
       <c r="O295" t="n">
-        <v>5.45222867453881</v>
+        <v>5.452228674538794</v>
       </c>
       <c r="P295" t="inlineStr">
         <is>
@@ -17300,19 +17300,19 @@
         <v>213</v>
       </c>
       <c r="G296" t="n">
-        <v>1.568224528775344</v>
+        <v>1.568224528775496</v>
       </c>
       <c r="H296" t="n">
-        <v>1.586410491838477</v>
+        <v>1.586410491838631</v>
       </c>
       <c r="I296" t="n">
-        <v>-0.9987081782718547</v>
+        <v>-0.9987081782719518</v>
       </c>
       <c r="J296" t="n">
         <v>178</v>
       </c>
       <c r="K296" t="n">
-        <v>49.14024780902793</v>
+        <v>49.14024780902791</v>
       </c>
       <c r="L296" t="n">
         <v>104</v>
@@ -17321,10 +17321,10 @@
         <v>76</v>
       </c>
       <c r="N296" t="n">
-        <v>273.2019010346474</v>
+        <v>273.201901034674</v>
       </c>
       <c r="O296" t="n">
-        <v>4.546590534429996</v>
+        <v>4.546590534429989</v>
       </c>
       <c r="P296" t="inlineStr">
         <is>
@@ -17357,19 +17357,19 @@
         <v>285</v>
       </c>
       <c r="G297" t="n">
-        <v>1.166813113454904</v>
+        <v>1.166813113455017</v>
       </c>
       <c r="H297" t="n">
-        <v>2.944646988812849</v>
+        <v>2.944646988813136</v>
       </c>
       <c r="I297" t="n">
-        <v>-0.9987081782718547</v>
+        <v>-0.9987081782719518</v>
       </c>
       <c r="J297" t="n">
         <v>250</v>
       </c>
       <c r="K297" t="n">
-        <v>25.20016202843601</v>
+        <v>25.20016202843598</v>
       </c>
       <c r="L297" t="n">
         <v>214</v>
@@ -17378,10 +17378,10 @@
         <v>38</v>
       </c>
       <c r="N297" t="n">
-        <v>485.9392932664676</v>
+        <v>485.9392932665149</v>
       </c>
       <c r="O297" t="n">
-        <v>3.382820099890702</v>
+        <v>3.382820099890697</v>
       </c>
       <c r="P297" t="inlineStr">
         <is>
@@ -17414,13 +17414,13 @@
         <v>977</v>
       </c>
       <c r="G298" t="n">
-        <v>1.085027554330657</v>
+        <v>1.085027554330761</v>
       </c>
       <c r="H298" t="n">
-        <v>2.405645924041477</v>
+        <v>2.405645924041711</v>
       </c>
       <c r="I298" t="n">
-        <v>-0.9987081782718547</v>
+        <v>-0.9987081782719518</v>
       </c>
       <c r="J298" t="n">
         <v>275</v>
@@ -17435,10 +17435,10 @@
         <v>61</v>
       </c>
       <c r="N298" t="n">
-        <v>481.2444068190209</v>
+        <v>481.2444068190679</v>
       </c>
       <c r="O298" t="n">
-        <v>3.145707720799331</v>
+        <v>3.145707720799326</v>
       </c>
       <c r="P298" t="inlineStr">
         <is>
@@ -17471,13 +17471,13 @@
         <v>1259</v>
       </c>
       <c r="G299" t="n">
-        <v>3.658465354494941</v>
+        <v>3.658465354495297</v>
       </c>
       <c r="H299" t="n">
-        <v>2.579848116598952</v>
+        <v>2.579848116599203</v>
       </c>
       <c r="I299" t="n">
-        <v>-0.9987081782718547</v>
+        <v>-0.9987081782719518</v>
       </c>
       <c r="J299" t="n">
         <v>557</v>
@@ -17492,10 +17492,10 @@
         <v>254</v>
       </c>
       <c r="N299" t="n">
-        <v>728.642502251727</v>
+        <v>728.642502251798</v>
       </c>
       <c r="O299" t="n">
-        <v>10.60660871327923</v>
+        <v>10.60660871327922</v>
       </c>
       <c r="P299" t="inlineStr">
         <is>
@@ -17528,13 +17528,13 @@
         <v>2842</v>
       </c>
       <c r="G300" t="n">
-        <v>2.681184221147505</v>
+        <v>2.681184221147765</v>
       </c>
       <c r="H300" t="n">
-        <v>1.57493060938946</v>
+        <v>1.574930609389612</v>
       </c>
       <c r="I300" t="n">
-        <v>-0.9987081782718547</v>
+        <v>-0.9987081782719518</v>
       </c>
       <c r="J300" t="n">
         <v>416</v>
@@ -17549,10 +17549,10 @@
         <v>284</v>
       </c>
       <c r="N300" t="n">
-        <v>271.5770277072514</v>
+        <v>271.5770277072778</v>
       </c>
       <c r="O300" t="n">
-        <v>7.773279002625917</v>
+        <v>7.77327900262591</v>
       </c>
       <c r="P300" t="inlineStr">
         <is>
@@ -17585,19 +17585,19 @@
         <v>2998</v>
       </c>
       <c r="G301" t="n">
-        <v>0.9750700345017914</v>
+        <v>0.9750700345018383</v>
       </c>
       <c r="H301" t="n">
-        <v>0.4882609990435253</v>
+        <v>0.4882609990435722</v>
       </c>
       <c r="I301" t="n">
-        <v>-0.9987081782718547</v>
+        <v>-0.9987081782719518</v>
       </c>
       <c r="J301" t="n">
         <v>156</v>
       </c>
       <c r="K301" t="n">
-        <v>25.87048475006895</v>
+        <v>25.8704847500685</v>
       </c>
       <c r="L301" t="n">
         <v>41</v>
@@ -17606,10 +17606,10 @@
         <v>117</v>
       </c>
       <c r="N301" t="n">
-        <v>118.9053186151863</v>
+        <v>118.9053186151983</v>
       </c>
       <c r="O301" t="n">
-        <v>2.826919301366991</v>
+        <v>2.826919301366849</v>
       </c>
       <c r="P301" t="inlineStr">
         <is>
